--- a/DinningData.xlsx
+++ b/DinningData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m.mughees/Desktop/DailyHours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843B1811-5FD8-F34D-A86F-E0032C3F0818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CFA9EB-AE6A-B245-B418-669AAF1F2D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DE998561-EBAC-6C45-B2D5-E0BAD589018C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{DE998561-EBAC-6C45-B2D5-E0BAD589018C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9694C3E-4676-5E45-83AA-01CD38B8296E}">
   <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="I207" sqref="I207"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="H218" sqref="H218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.2"/>
@@ -661,7 +661,7 @@
         <v>4722.9799999999996</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:F20" si="0">E3*8.25</f>
+        <f t="shared" ref="F3:F13" si="0">E3*8.25</f>
         <v>38964.584999999999</v>
       </c>
       <c r="G3" s="1"/>
@@ -1002,12 +1002,10 @@
       <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="13">
-        <v>1393.97</v>
-      </c>
+      <c r="E18" s="13"/>
       <c r="F18" s="8">
         <f t="shared" si="1"/>
-        <v>11500.252500000001</v>
+        <v>0</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1025,12 +1023,10 @@
       <c r="D19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="13">
-        <v>1469.16</v>
-      </c>
+      <c r="E19" s="13"/>
       <c r="F19" s="8">
         <f t="shared" si="1"/>
-        <v>12120.570000000002</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1048,12 +1044,10 @@
       <c r="D20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="13">
-        <v>1325</v>
-      </c>
+      <c r="E20" s="13"/>
       <c r="F20" s="8">
         <f t="shared" si="1"/>
-        <v>10931.25</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -1071,12 +1065,10 @@
       <c r="D21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="13">
-        <v>1242.47</v>
-      </c>
+      <c r="E21" s="13"/>
       <c r="F21" s="8">
-        <f t="shared" ref="F3:F66" si="2">E21*9.25</f>
-        <v>11492.8475</v>
+        <f t="shared" ref="F21:F49" si="2">E21*9.25</f>
+        <v>0</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -1094,12 +1086,10 @@
       <c r="D22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="13">
-        <v>667.55</v>
-      </c>
+      <c r="E22" s="13"/>
       <c r="F22" s="8">
         <f t="shared" si="2"/>
-        <v>6174.8374999999996</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1117,12 +1107,10 @@
       <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="13">
-        <v>87.45</v>
-      </c>
+      <c r="E23" s="13"/>
       <c r="F23" s="8">
         <f t="shared" si="2"/>
-        <v>808.91250000000002</v>
+        <v>0</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -1140,12 +1128,10 @@
       <c r="D24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="13">
-        <v>69.849999999999994</v>
-      </c>
+      <c r="E24" s="13"/>
       <c r="F24" s="8">
         <f t="shared" si="2"/>
-        <v>646.11249999999995</v>
+        <v>0</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1163,12 +1149,10 @@
       <c r="D25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="13">
-        <v>242.1</v>
-      </c>
+      <c r="E25" s="13"/>
       <c r="F25" s="8">
         <f t="shared" si="2"/>
-        <v>2239.4249999999997</v>
+        <v>0</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1186,12 +1170,10 @@
       <c r="D26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="12">
-        <v>2933.06</v>
-      </c>
+      <c r="E26" s="12"/>
       <c r="F26" s="9">
         <f t="shared" si="2"/>
-        <v>27130.805</v>
+        <v>0</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1209,12 +1191,10 @@
       <c r="D27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="12">
-        <v>2879.73</v>
-      </c>
+      <c r="E27" s="12"/>
       <c r="F27" s="9">
         <f>E27*9.25</f>
-        <v>26637.502499999999</v>
+        <v>0</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1232,12 +1212,10 @@
       <c r="D28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="12">
-        <v>2121.86</v>
-      </c>
+      <c r="E28" s="12"/>
       <c r="F28" s="9">
         <f t="shared" si="2"/>
-        <v>19627.205000000002</v>
+        <v>0</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1255,12 +1233,10 @@
       <c r="D29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="12">
-        <v>981.6</v>
-      </c>
+      <c r="E29" s="12"/>
       <c r="F29" s="9">
         <f t="shared" si="2"/>
-        <v>9079.8000000000011</v>
+        <v>0</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2050,12 +2026,10 @@
       <c r="D66" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="13">
-        <v>640.91</v>
-      </c>
+      <c r="E66" s="13"/>
       <c r="F66" s="8">
         <f t="shared" si="4"/>
-        <v>5287.5074999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2071,12 +2045,10 @@
       <c r="D67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="13">
-        <v>745.47</v>
-      </c>
+      <c r="E67" s="13"/>
       <c r="F67" s="8">
         <f t="shared" si="4"/>
-        <v>6150.1275000000005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2092,12 +2064,10 @@
       <c r="D68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="13">
-        <v>645.36</v>
-      </c>
+      <c r="E68" s="13"/>
       <c r="F68" s="8">
         <f t="shared" si="4"/>
-        <v>5324.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2113,12 +2083,10 @@
       <c r="D69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="13">
-        <v>673.74</v>
-      </c>
+      <c r="E69" s="13"/>
       <c r="F69" s="8">
-        <f t="shared" ref="F67:F130" si="5">E69*9.25</f>
-        <v>6232.0950000000003</v>
+        <f t="shared" ref="F69:F130" si="5">E69*9.25</f>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2134,12 +2102,10 @@
       <c r="D70" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="13">
-        <v>315.25</v>
-      </c>
+      <c r="E70" s="13"/>
       <c r="F70" s="8">
         <f t="shared" si="5"/>
-        <v>2916.0625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2155,9 +2121,7 @@
       <c r="D71" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="13">
-        <v>0</v>
-      </c>
+      <c r="E71" s="13"/>
       <c r="F71" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2176,9 +2140,7 @@
       <c r="D72" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="13">
-        <v>0</v>
-      </c>
+      <c r="E72" s="13"/>
       <c r="F72" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -2197,12 +2159,10 @@
       <c r="D73" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="13">
-        <v>14.3</v>
-      </c>
+      <c r="E73" s="13"/>
       <c r="F73" s="8">
         <f t="shared" si="5"/>
-        <v>132.27500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2218,12 +2178,10 @@
       <c r="D74" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E74" s="12">
-        <v>1106.45</v>
-      </c>
+      <c r="E74" s="12"/>
       <c r="F74" s="9">
         <f t="shared" si="5"/>
-        <v>10234.6625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2239,12 +2197,10 @@
       <c r="D75" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E75" s="12">
-        <v>1035.07</v>
-      </c>
+      <c r="E75" s="12"/>
       <c r="F75" s="9">
         <f t="shared" si="5"/>
-        <v>9574.3974999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2260,12 +2216,10 @@
       <c r="D76" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="12">
-        <v>832.44</v>
-      </c>
+      <c r="E76" s="12"/>
       <c r="F76" s="9">
         <f t="shared" si="5"/>
-        <v>7700.0700000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2281,12 +2235,10 @@
       <c r="D77" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E77" s="12">
-        <v>462.07</v>
-      </c>
+      <c r="E77" s="12"/>
       <c r="F77" s="9">
         <f t="shared" si="5"/>
-        <v>4274.1475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3058,12 +3010,10 @@
       <c r="D114" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E114" s="13">
-        <v>436.52</v>
-      </c>
+      <c r="E114" s="13"/>
       <c r="F114" s="8">
         <f t="shared" si="7"/>
-        <v>3601.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3079,12 +3029,10 @@
       <c r="D115" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E115" s="13">
-        <v>561.79</v>
-      </c>
+      <c r="E115" s="13"/>
       <c r="F115" s="8">
         <f t="shared" si="7"/>
-        <v>4634.7674999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3100,12 +3048,10 @@
       <c r="D116" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E116" s="13">
-        <v>583.91</v>
-      </c>
+      <c r="E116" s="13"/>
       <c r="F116" s="8">
         <f t="shared" si="7"/>
-        <v>4817.2574999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3121,12 +3067,10 @@
       <c r="D117" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E117" s="13">
-        <v>516.86</v>
-      </c>
+      <c r="E117" s="13"/>
       <c r="F117" s="8">
         <f t="shared" si="5"/>
-        <v>4780.9549999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3142,12 +3086,10 @@
       <c r="D118" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="13">
-        <v>263.36</v>
-      </c>
+      <c r="E118" s="13"/>
       <c r="F118" s="8">
         <f t="shared" si="5"/>
-        <v>2436.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3163,9 +3105,7 @@
       <c r="D119" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E119" s="13">
-        <v>0</v>
-      </c>
+      <c r="E119" s="13"/>
       <c r="F119" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3184,9 +3124,7 @@
       <c r="D120" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E120" s="13">
-        <v>0</v>
-      </c>
+      <c r="E120" s="13"/>
       <c r="F120" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3205,12 +3143,10 @@
       <c r="D121" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E121" s="13">
-        <v>33.82</v>
-      </c>
+      <c r="E121" s="13"/>
       <c r="F121" s="8">
         <f t="shared" si="5"/>
-        <v>312.83499999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3226,12 +3162,10 @@
       <c r="D122" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E122" s="12">
-        <v>721.13</v>
-      </c>
+      <c r="E122" s="12"/>
       <c r="F122" s="9">
         <f t="shared" si="5"/>
-        <v>6670.4525000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3247,12 +3181,10 @@
       <c r="D123" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E123" s="12">
-        <v>755.56</v>
-      </c>
+      <c r="E123" s="12"/>
       <c r="F123" s="9">
         <f t="shared" si="5"/>
-        <v>6988.9299999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3268,12 +3200,10 @@
       <c r="D124" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E124" s="12">
-        <v>604.24</v>
-      </c>
+      <c r="E124" s="12"/>
       <c r="F124" s="9">
         <f t="shared" si="5"/>
-        <v>5589.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3289,12 +3219,10 @@
       <c r="D125" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E125" s="12">
-        <v>312.41000000000003</v>
-      </c>
+      <c r="E125" s="12"/>
       <c r="F125" s="9">
         <f t="shared" si="5"/>
-        <v>2889.7925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3419,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="F131" s="9">
-        <f t="shared" ref="F131:F194" si="8">E131*9.25</f>
+        <f t="shared" ref="F131:F193" si="8">E131*9.25</f>
         <v>0</v>
       </c>
     </row>
@@ -4066,12 +3994,10 @@
       <c r="D162" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E162" s="6">
-        <v>174.43</v>
-      </c>
+      <c r="E162" s="6"/>
       <c r="F162" s="8">
         <f t="shared" si="10"/>
-        <v>1439.0475000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4087,12 +4013,10 @@
       <c r="D163" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E163" s="6">
-        <v>271.83</v>
-      </c>
+      <c r="E163" s="6"/>
       <c r="F163" s="8">
         <f t="shared" si="10"/>
-        <v>2242.5974999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4108,12 +4032,10 @@
       <c r="D164" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E164" s="6">
-        <v>223.21</v>
-      </c>
+      <c r="E164" s="6"/>
       <c r="F164" s="8">
         <f t="shared" si="10"/>
-        <v>1841.4825000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4129,12 +4051,10 @@
       <c r="D165" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E165" s="6">
-        <v>240.16</v>
-      </c>
+      <c r="E165" s="6"/>
       <c r="F165" s="8">
         <f t="shared" si="8"/>
-        <v>2221.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4150,12 +4070,10 @@
       <c r="D166" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E166" s="6">
-        <v>123.89</v>
-      </c>
+      <c r="E166" s="6"/>
       <c r="F166" s="8">
         <f t="shared" si="8"/>
-        <v>1145.9825000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4171,9 +4089,7 @@
       <c r="D167" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E167" s="6">
-        <v>0</v>
-      </c>
+      <c r="E167" s="6"/>
       <c r="F167" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4192,9 +4108,7 @@
       <c r="D168" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E168" s="6">
-        <v>0</v>
-      </c>
+      <c r="E168" s="6"/>
       <c r="F168" s="8">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -4213,12 +4127,10 @@
       <c r="D169" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E169" s="6">
-        <v>3.83</v>
-      </c>
+      <c r="E169" s="6"/>
       <c r="F169" s="8">
         <f t="shared" si="8"/>
-        <v>35.427500000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -4234,12 +4146,10 @@
       <c r="D170" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E170" s="7">
-        <v>251.17</v>
-      </c>
+      <c r="E170" s="7"/>
       <c r="F170" s="9">
         <f t="shared" si="8"/>
-        <v>2323.3224999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -4255,12 +4165,10 @@
       <c r="D171" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E171" s="7">
-        <v>247.68</v>
-      </c>
+      <c r="E171" s="7"/>
       <c r="F171" s="9">
         <f t="shared" si="8"/>
-        <v>2291.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -4276,12 +4184,10 @@
       <c r="D172" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E172" s="7">
-        <v>197.65</v>
-      </c>
+      <c r="E172" s="7"/>
       <c r="F172" s="9">
         <f t="shared" si="8"/>
-        <v>1828.2625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -4297,12 +4203,10 @@
       <c r="D173" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E173" s="7">
-        <v>102.21</v>
-      </c>
+      <c r="E173" s="7"/>
       <c r="F173" s="9">
         <f t="shared" si="8"/>
-        <v>945.4425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5074,12 +4978,10 @@
       <c r="D210" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E210" s="6">
-        <v>22.06</v>
-      </c>
+      <c r="E210" s="6"/>
       <c r="F210" s="8">
         <f t="shared" si="12"/>
-        <v>181.99499999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5095,12 +4997,10 @@
       <c r="D211" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E211" s="6">
-        <v>72.47</v>
-      </c>
+      <c r="E211" s="6"/>
       <c r="F211" s="8">
         <f t="shared" si="12"/>
-        <v>597.87749999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -5116,12 +5016,10 @@
       <c r="D212" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E212" s="6">
-        <v>52.08</v>
-      </c>
+      <c r="E212" s="6"/>
       <c r="F212" s="8">
         <f t="shared" si="12"/>
-        <v>429.65999999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5137,12 +5035,10 @@
       <c r="D213" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E213" s="6">
-        <v>61.2</v>
-      </c>
+      <c r="E213" s="6"/>
       <c r="F213" s="8">
-        <f t="shared" ref="F195:F241" si="13">E213*9.25</f>
-        <v>566.1</v>
+        <f t="shared" ref="F213:F241" si="13">E213*9.25</f>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -5158,12 +5054,10 @@
       <c r="D214" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E214" s="6">
-        <v>32.54</v>
-      </c>
+      <c r="E214" s="6"/>
       <c r="F214" s="8">
         <f t="shared" si="13"/>
-        <v>300.995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5179,12 +5073,10 @@
       <c r="D215" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E215" s="6">
-        <v>32</v>
-      </c>
+      <c r="E215" s="6"/>
       <c r="F215" s="8">
         <f t="shared" si="13"/>
-        <v>296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5200,9 +5092,7 @@
       <c r="D216" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E216" s="6">
-        <v>0</v>
-      </c>
+      <c r="E216" s="6"/>
       <c r="F216" s="8">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -5221,12 +5111,10 @@
       <c r="D217" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E217" s="6">
-        <v>5.93</v>
-      </c>
+      <c r="E217" s="6"/>
       <c r="F217" s="8">
         <f t="shared" si="13"/>
-        <v>54.852499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -5242,12 +5130,10 @@
       <c r="D218" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E218" s="7">
-        <v>178.53</v>
-      </c>
+      <c r="E218" s="7"/>
       <c r="F218" s="9">
         <f t="shared" si="13"/>
-        <v>1651.4024999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -5263,12 +5149,10 @@
       <c r="D219" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E219" s="7">
-        <v>228.9</v>
-      </c>
+      <c r="E219" s="7"/>
       <c r="F219" s="9">
         <f t="shared" si="13"/>
-        <v>2117.3250000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -5284,12 +5168,10 @@
       <c r="D220" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E220" s="7">
-        <v>188.95</v>
-      </c>
+      <c r="E220" s="7"/>
       <c r="F220" s="9">
         <f t="shared" si="13"/>
-        <v>1747.7874999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -5305,12 +5187,10 @@
       <c r="D221" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E221" s="7">
-        <v>130.63999999999999</v>
-      </c>
+      <c r="E221" s="7"/>
       <c r="F221" s="9">
         <f t="shared" si="13"/>
-        <v>1208.4199999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">

--- a/DinningData.xlsx
+++ b/DinningData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m.mughees/Desktop/DailyHours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CFA9EB-AE6A-B245-B418-669AAF1F2D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB1BA1E-0C7A-9D4F-AEDB-C63EE428CDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{DE998561-EBAC-6C45-B2D5-E0BAD589018C}"/>
   </bookViews>
@@ -36,24 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="27">
   <si>
     <t>DEP</t>
   </si>
   <si>
     <t>Semester</t>
-  </si>
-  <si>
-    <t>20/21</t>
-  </si>
-  <si>
-    <t>21/22</t>
-  </si>
-  <si>
-    <t>22/23</t>
-  </si>
-  <si>
-    <t>23/24</t>
   </si>
   <si>
     <t>Sep</t>
@@ -122,13 +110,13 @@
     <t>Summer</t>
   </si>
   <si>
-    <t>Academic Year</t>
-  </si>
-  <si>
     <t>Hours</t>
   </si>
   <si>
     <t>Money Spent</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -584,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9694C3E-4676-5E45-83AA-01CD38B8296E}">
   <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="H218" sqref="H218"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="D194" sqref="D194:D241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.2"/>
@@ -607,32 +595,32 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2020</v>
       </c>
       <c r="E2" s="12">
         <v>3859.98</v>
@@ -646,16 +634,16 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2020</v>
       </c>
       <c r="E3" s="12">
         <v>4722.9799999999996</v>
@@ -669,16 +657,16 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2020</v>
       </c>
       <c r="E4" s="12">
         <v>2842.68</v>
@@ -692,16 +680,16 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2020</v>
       </c>
       <c r="E5" s="12">
         <v>1348.5</v>
@@ -715,16 +703,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2021</v>
       </c>
       <c r="E6" s="12">
         <v>2247.9899999999998</v>
@@ -738,16 +726,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2021</v>
       </c>
       <c r="E7" s="12">
         <v>2226.9699999999998</v>
@@ -761,16 +749,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2021</v>
       </c>
       <c r="E8" s="12">
         <v>2554.3200000000002</v>
@@ -784,16 +772,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2021</v>
       </c>
       <c r="E9" s="12">
         <v>1805.98</v>
@@ -807,16 +795,16 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2021</v>
       </c>
       <c r="E10" s="12">
         <v>1089.94</v>
@@ -830,16 +818,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2021</v>
       </c>
       <c r="E11" s="12">
         <v>262.36</v>
@@ -853,16 +841,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2021</v>
       </c>
       <c r="E12" s="12">
         <v>209.56</v>
@@ -876,16 +864,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2021</v>
       </c>
       <c r="E13" s="12">
         <v>509.91</v>
@@ -899,16 +887,16 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2021</v>
       </c>
       <c r="E14" s="13">
         <v>2854.16</v>
@@ -922,16 +910,16 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2021</v>
       </c>
       <c r="E15" s="13">
         <v>2101.19</v>
@@ -945,16 +933,16 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2021</v>
       </c>
       <c r="E16" s="13">
         <v>1941.71</v>
@@ -968,16 +956,16 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2021</v>
       </c>
       <c r="E17" s="13">
         <v>900.42</v>
@@ -991,16 +979,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2022</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="8">
@@ -1012,16 +1000,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2022</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="8">
@@ -1033,16 +1021,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2022</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="8">
@@ -1054,16 +1042,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2022</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="8">
@@ -1075,16 +1063,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2022</v>
       </c>
       <c r="E22" s="13"/>
       <c r="F22" s="8">
@@ -1096,16 +1084,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2022</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="8">
@@ -1117,16 +1105,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2022</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="8">
@@ -1138,16 +1126,16 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2022</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="8">
@@ -1159,16 +1147,16 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2022</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="9">
@@ -1180,16 +1168,16 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2022</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="9">
@@ -1201,16 +1189,16 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2022</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="9">
@@ -1222,16 +1210,16 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2022</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="9">
@@ -1243,16 +1231,16 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2023</v>
       </c>
       <c r="E30" s="12">
         <v>985.28</v>
@@ -1266,16 +1254,16 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2023</v>
       </c>
       <c r="E31" s="12">
         <v>1122.92</v>
@@ -1289,16 +1277,16 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2023</v>
       </c>
       <c r="E32" s="12">
         <v>726.02</v>
@@ -1312,16 +1300,16 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2023</v>
       </c>
       <c r="E33" s="12">
         <v>855.91</v>
@@ -1335,16 +1323,16 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2023</v>
       </c>
       <c r="E34" s="12">
         <v>494.04</v>
@@ -1358,16 +1346,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2023</v>
       </c>
       <c r="E35" s="12">
         <v>0</v>
@@ -1381,16 +1369,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2023</v>
       </c>
       <c r="E36" s="12">
         <v>0</v>
@@ -1404,16 +1392,16 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2023</v>
       </c>
       <c r="E37" s="12">
         <v>216.39</v>
@@ -1427,16 +1415,16 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D38" s="2">
+        <v>2023</v>
       </c>
       <c r="E38" s="13">
         <v>2085.0500000000002</v>
@@ -1448,16 +1436,16 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2023</v>
       </c>
       <c r="E39" s="13">
         <v>1815.03</v>
@@ -1469,16 +1457,16 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2023</v>
       </c>
       <c r="E40" s="13">
         <v>1581.2</v>
@@ -1490,16 +1478,16 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2023</v>
       </c>
       <c r="E41" s="13">
         <v>695.89</v>
@@ -1511,16 +1499,16 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D42" s="2">
+        <v>2024</v>
       </c>
       <c r="E42" s="13">
         <v>948.63</v>
@@ -1532,16 +1520,16 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D43" s="2">
+        <v>2024</v>
       </c>
       <c r="E43" s="13">
         <v>1057.5899999999999</v>
@@ -1553,16 +1541,16 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2024</v>
       </c>
       <c r="E44" s="13">
         <v>694.67</v>
@@ -1574,16 +1562,16 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2024</v>
       </c>
       <c r="E45" s="13">
         <v>1065.52</v>
@@ -1595,16 +1583,16 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2024</v>
       </c>
       <c r="E46" s="13">
         <v>418.67</v>
@@ -1616,16 +1604,16 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2024</v>
       </c>
       <c r="E47" s="13">
         <v>0</v>
@@ -1637,16 +1625,16 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2024</v>
       </c>
       <c r="E48" s="13">
         <v>0</v>
@@ -1658,16 +1646,16 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2024</v>
       </c>
       <c r="E49" s="13">
         <v>0</v>
@@ -1679,16 +1667,16 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="D50" s="4">
+        <v>2020</v>
       </c>
       <c r="E50" s="12">
         <v>900.17</v>
@@ -1700,16 +1688,16 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2020</v>
       </c>
       <c r="E51" s="12">
         <v>1136.8</v>
@@ -1721,16 +1709,16 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D52" s="4">
+        <v>2020</v>
       </c>
       <c r="E52" s="12">
         <v>665.3</v>
@@ -1742,16 +1730,16 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D53" s="4">
+        <v>2020</v>
       </c>
       <c r="E53" s="12">
         <v>507.24</v>
@@ -1763,16 +1751,16 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2021</v>
       </c>
       <c r="E54" s="12">
         <v>820.95</v>
@@ -1784,16 +1772,16 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2021</v>
       </c>
       <c r="E55" s="12">
         <v>810.24</v>
@@ -1805,16 +1793,16 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="D56" s="4">
+        <v>2021</v>
       </c>
       <c r="E56" s="12">
         <v>901.99</v>
@@ -1826,16 +1814,16 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2021</v>
       </c>
       <c r="E57" s="12">
         <v>632.70000000000005</v>
@@ -1847,16 +1835,16 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="D58" s="4">
+        <v>2021</v>
       </c>
       <c r="E58" s="12">
         <v>270.14</v>
@@ -1868,16 +1856,16 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2021</v>
       </c>
       <c r="E59" s="12">
         <v>0</v>
@@ -1889,16 +1877,16 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2021</v>
       </c>
       <c r="E60" s="12">
         <v>0</v>
@@ -1910,16 +1898,16 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D61" s="4">
+        <v>2021</v>
       </c>
       <c r="E61" s="12">
         <v>11.14</v>
@@ -1931,16 +1919,16 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2021</v>
       </c>
       <c r="E62" s="13">
         <v>1400.84</v>
@@ -1952,16 +1940,16 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2021</v>
       </c>
       <c r="E63" s="13">
         <v>1042.28</v>
@@ -1973,16 +1961,16 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D64" s="2">
+        <v>2021</v>
       </c>
       <c r="E64" s="13">
         <v>943.14</v>
@@ -1994,16 +1982,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D65" s="2">
+        <v>2021</v>
       </c>
       <c r="E65" s="13">
         <v>489.77</v>
@@ -2015,16 +2003,16 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D66" s="2">
+        <v>2022</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="8">
@@ -2034,16 +2022,16 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D67" s="2">
+        <v>2022</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="8">
@@ -2053,16 +2041,16 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="D68" s="2">
+        <v>2022</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="8">
@@ -2072,16 +2060,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D69" s="2">
+        <v>2022</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="8">
@@ -2091,16 +2079,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="D70" s="2">
+        <v>2022</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="8">
@@ -2110,16 +2098,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="D71" s="2">
+        <v>2022</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="8">
@@ -2129,16 +2117,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D72" s="2">
+        <v>2022</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="8">
@@ -2148,16 +2136,16 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2022</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="8">
@@ -2167,16 +2155,16 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D74" s="4">
+        <v>2022</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="9">
@@ -2186,16 +2174,16 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D75" s="4">
+        <v>2022</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="9">
@@ -2205,16 +2193,16 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D76" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D76" s="4">
+        <v>2022</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="9">
@@ -2224,16 +2212,16 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D77" s="4">
+        <v>2022</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="9">
@@ -2243,16 +2231,16 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D78" s="4">
+        <v>2023</v>
       </c>
       <c r="E78" s="12">
         <v>418.1</v>
@@ -2264,16 +2252,16 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D79" s="4">
+        <v>2023</v>
       </c>
       <c r="E79" s="12">
         <v>529.87</v>
@@ -2285,16 +2273,16 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D80" s="4">
+        <v>2023</v>
       </c>
       <c r="E80" s="12">
         <v>493.22</v>
@@ -2306,16 +2294,16 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="D81" s="4">
+        <v>2023</v>
       </c>
       <c r="E81" s="12">
         <v>540.75</v>
@@ -2327,16 +2315,16 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D82" s="4">
+        <v>2023</v>
       </c>
       <c r="E82" s="12">
         <v>344.74</v>
@@ -2348,16 +2336,16 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="D83" s="4">
+        <v>2023</v>
       </c>
       <c r="E83" s="12">
         <v>0</v>
@@ -2369,16 +2357,16 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="D84" s="4">
+        <v>2023</v>
       </c>
       <c r="E84" s="12">
         <v>0</v>
@@ -2390,16 +2378,16 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="D85" s="4">
+        <v>2023</v>
       </c>
       <c r="E85" s="12">
         <v>31.75</v>
@@ -2411,16 +2399,16 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D86" s="2">
+        <v>2023</v>
       </c>
       <c r="E86" s="13">
         <v>1018.35</v>
@@ -2432,16 +2420,16 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D87" s="2">
+        <v>2023</v>
       </c>
       <c r="E87" s="13">
         <v>926.12</v>
@@ -2453,16 +2441,16 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D88" s="2">
+        <v>2023</v>
       </c>
       <c r="E88" s="13">
         <v>888.89</v>
@@ -2474,16 +2462,16 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D89" s="2">
+        <v>2023</v>
       </c>
       <c r="E89" s="13">
         <v>389.21</v>
@@ -2495,16 +2483,16 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D90" s="2">
+        <v>2024</v>
       </c>
       <c r="E90" s="13">
         <v>683.68</v>
@@ -2516,16 +2504,16 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D91" s="2">
+        <v>2024</v>
       </c>
       <c r="E91" s="13">
         <v>896.31</v>
@@ -2537,16 +2525,16 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D92" s="2">
+        <v>2024</v>
       </c>
       <c r="E92" s="13">
         <v>540.88</v>
@@ -2558,16 +2546,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D93" s="2">
+        <v>2024</v>
       </c>
       <c r="E93" s="13">
         <v>847.78</v>
@@ -2579,16 +2567,16 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D94" s="2">
+        <v>2024</v>
       </c>
       <c r="E94" s="13">
         <v>330.86</v>
@@ -2600,16 +2588,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D95" s="2">
+        <v>2024</v>
       </c>
       <c r="E95" s="13">
         <v>0</v>
@@ -2621,16 +2609,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D96" s="2">
+        <v>2024</v>
       </c>
       <c r="E96" s="13">
         <v>0</v>
@@ -2642,16 +2630,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="D97" s="2">
+        <v>2024</v>
       </c>
       <c r="E97" s="13">
         <v>0</v>
@@ -2663,16 +2651,16 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D98" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="D98" s="4">
+        <v>2020</v>
       </c>
       <c r="E98" s="12">
         <v>570.61</v>
@@ -2684,16 +2672,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D99" s="4">
+        <v>2020</v>
       </c>
       <c r="E99" s="12">
         <v>944.64</v>
@@ -2705,16 +2693,16 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D100" s="4">
+        <v>2020</v>
       </c>
       <c r="E100" s="12">
         <v>654.73</v>
@@ -2726,16 +2714,16 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D101" s="4">
+        <v>2020</v>
       </c>
       <c r="E101" s="12">
         <v>332.13</v>
@@ -2747,16 +2735,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C102" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D102" s="4">
+        <v>2021</v>
       </c>
       <c r="E102" s="12">
         <v>624.36</v>
@@ -2768,16 +2756,16 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D103" s="4">
+        <v>2021</v>
       </c>
       <c r="E103" s="12">
         <v>663.02</v>
@@ -2789,16 +2777,16 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="D104" s="4">
+        <v>2021</v>
       </c>
       <c r="E104" s="12">
         <v>891.05</v>
@@ -2810,16 +2798,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="D105" s="4">
+        <v>2021</v>
       </c>
       <c r="E105" s="12">
         <v>643.75</v>
@@ -2831,16 +2819,16 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="D106" s="4">
+        <v>2021</v>
       </c>
       <c r="E106" s="12">
         <v>288.86</v>
@@ -2852,16 +2840,16 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="D107" s="4">
+        <v>2021</v>
       </c>
       <c r="E107" s="12">
         <v>0</v>
@@ -2873,16 +2861,16 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="D108" s="4">
+        <v>2021</v>
       </c>
       <c r="E108" s="12">
         <v>0</v>
@@ -2894,16 +2882,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D109" s="4">
+        <v>2021</v>
       </c>
       <c r="E109" s="12">
         <v>65.59</v>
@@ -2915,16 +2903,16 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D110" s="2">
+        <v>2021</v>
       </c>
       <c r="E110" s="13">
         <v>939.69</v>
@@ -2936,16 +2924,16 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="D111" s="2">
+        <v>2021</v>
       </c>
       <c r="E111" s="13">
         <v>749.89</v>
@@ -2957,16 +2945,16 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D112" s="2">
+        <v>2021</v>
       </c>
       <c r="E112" s="13">
         <v>681.9</v>
@@ -2978,16 +2966,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D113" s="2">
+        <v>2021</v>
       </c>
       <c r="E113" s="13">
         <v>329.66</v>
@@ -2999,16 +2987,16 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C114" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D114" s="2">
+        <v>2022</v>
       </c>
       <c r="E114" s="13"/>
       <c r="F114" s="8">
@@ -3018,16 +3006,16 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D115" s="2">
+        <v>2022</v>
       </c>
       <c r="E115" s="13"/>
       <c r="F115" s="8">
@@ -3037,16 +3025,16 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="D116" s="2">
+        <v>2022</v>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="8">
@@ -3056,16 +3044,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D117" s="2">
+        <v>2022</v>
       </c>
       <c r="E117" s="13"/>
       <c r="F117" s="8">
@@ -3075,16 +3063,16 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="D118" s="2">
+        <v>2022</v>
       </c>
       <c r="E118" s="13"/>
       <c r="F118" s="8">
@@ -3094,16 +3082,16 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="D119" s="2">
+        <v>2022</v>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="8">
@@ -3113,16 +3101,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D120" s="2">
+        <v>2022</v>
       </c>
       <c r="E120" s="13"/>
       <c r="F120" s="8">
@@ -3132,16 +3120,16 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="D121" s="2">
+        <v>2022</v>
       </c>
       <c r="E121" s="13"/>
       <c r="F121" s="8">
@@ -3151,16 +3139,16 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D122" s="4">
+        <v>2022</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="9">
@@ -3170,16 +3158,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D123" s="4">
+        <v>2022</v>
       </c>
       <c r="E123" s="12"/>
       <c r="F123" s="9">
@@ -3189,16 +3177,16 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D124" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D124" s="4">
+        <v>2022</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="9">
@@ -3208,16 +3196,16 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D125" s="4">
+        <v>2022</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="9">
@@ -3227,16 +3215,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C126" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D126" s="4">
+        <v>2023</v>
       </c>
       <c r="E126" s="12">
         <v>409.03</v>
@@ -3248,16 +3236,16 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D127" s="4">
+        <v>2023</v>
       </c>
       <c r="E127" s="12">
         <v>527.34</v>
@@ -3269,16 +3257,16 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D128" s="4">
+        <v>2023</v>
       </c>
       <c r="E128" s="12">
         <v>539.16</v>
@@ -3290,16 +3278,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="D129" s="4">
+        <v>2023</v>
       </c>
       <c r="E129" s="12">
         <v>480</v>
@@ -3311,16 +3299,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D130" s="4">
+        <v>2023</v>
       </c>
       <c r="E130" s="12">
         <v>294.11</v>
@@ -3332,16 +3320,16 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="D131" s="4">
+        <v>2023</v>
       </c>
       <c r="E131" s="12">
         <v>0</v>
@@ -3353,16 +3341,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="D132" s="4">
+        <v>2023</v>
       </c>
       <c r="E132" s="12">
         <v>0</v>
@@ -3374,16 +3362,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="D133" s="4">
+        <v>2023</v>
       </c>
       <c r="E133" s="12">
         <v>35.869999999999997</v>
@@ -3395,16 +3383,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D134" s="2">
+        <v>2023</v>
       </c>
       <c r="E134" s="13">
         <v>653.09</v>
@@ -3416,16 +3404,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D135" s="2">
+        <v>2023</v>
       </c>
       <c r="E135" s="13">
         <v>572.16</v>
@@ -3437,16 +3425,16 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D136" s="2">
+        <v>2023</v>
       </c>
       <c r="E136" s="13">
         <v>476.08</v>
@@ -3458,16 +3446,16 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D137" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D137" s="2">
+        <v>2023</v>
       </c>
       <c r="E137" s="13">
         <v>275.44</v>
@@ -3479,16 +3467,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C138" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D138" s="2">
+        <v>2024</v>
       </c>
       <c r="E138" s="13">
         <v>276.18</v>
@@ -3500,16 +3488,16 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D139" s="2">
+        <v>2024</v>
       </c>
       <c r="E139" s="13">
         <v>495.02</v>
@@ -3521,16 +3509,16 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D140" s="2">
+        <v>2024</v>
       </c>
       <c r="E140" s="13">
         <v>321.52999999999997</v>
@@ -3542,16 +3530,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D141" s="2">
+        <v>2024</v>
       </c>
       <c r="E141" s="13">
         <v>426.84</v>
@@ -3563,16 +3551,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D142" s="2">
+        <v>2024</v>
       </c>
       <c r="E142" s="13">
         <v>207.12</v>
@@ -3584,16 +3572,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D143" s="2">
+        <v>2024</v>
       </c>
       <c r="E143" s="13">
         <v>0</v>
@@ -3605,16 +3593,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D144" s="2">
+        <v>2024</v>
       </c>
       <c r="E144" s="13">
         <v>0</v>
@@ -3626,16 +3614,16 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="D145" s="2">
+        <v>2024</v>
       </c>
       <c r="E145" s="13">
         <v>0</v>
@@ -3647,16 +3635,16 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D146" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="D146" s="4">
+        <v>2020</v>
       </c>
       <c r="E146" s="7">
         <v>191.95</v>
@@ -3668,16 +3656,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D147" s="4">
+        <v>2020</v>
       </c>
       <c r="E147" s="7">
         <v>312.37</v>
@@ -3689,16 +3677,16 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D148" s="4">
+        <v>2020</v>
       </c>
       <c r="E148" s="7">
         <v>186.53</v>
@@ -3710,16 +3698,16 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D149" s="4">
+        <v>2020</v>
       </c>
       <c r="E149" s="7">
         <v>80.510000000000005</v>
@@ -3731,16 +3719,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D150" s="4">
+        <v>2021</v>
       </c>
       <c r="E150" s="7">
         <v>104.51</v>
@@ -3752,16 +3740,16 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D151" s="4">
+        <v>2021</v>
       </c>
       <c r="E151" s="7">
         <v>248.15</v>
@@ -3773,16 +3761,16 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="D152" s="4">
+        <v>2021</v>
       </c>
       <c r="E152" s="7">
         <v>314.17</v>
@@ -3794,16 +3782,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="D153" s="4">
+        <v>2021</v>
       </c>
       <c r="E153" s="7">
         <v>266.29000000000002</v>
@@ -3815,16 +3803,16 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D154" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="D154" s="4">
+        <v>2021</v>
       </c>
       <c r="E154" s="7">
         <v>116.69</v>
@@ -3836,16 +3824,16 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="D155" s="4">
+        <v>2021</v>
       </c>
       <c r="E155" s="7">
         <v>0</v>
@@ -3857,16 +3845,16 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="D156" s="4">
+        <v>2021</v>
       </c>
       <c r="E156" s="7">
         <v>0</v>
@@ -3878,16 +3866,16 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D157" s="4">
+        <v>2021</v>
       </c>
       <c r="E157" s="7">
         <v>0</v>
@@ -3899,16 +3887,16 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D158" s="2">
+        <v>2021</v>
       </c>
       <c r="E158" s="6">
         <v>266.22000000000003</v>
@@ -3920,16 +3908,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D159" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="D159" s="2">
+        <v>2021</v>
       </c>
       <c r="E159" s="6">
         <v>223.53</v>
@@ -3941,16 +3929,16 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D160" s="2">
+        <v>2021</v>
       </c>
       <c r="E160" s="6">
         <v>210.47</v>
@@ -3962,16 +3950,16 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D161" s="2">
+        <v>2021</v>
       </c>
       <c r="E161" s="6">
         <v>123.31</v>
@@ -3983,16 +3971,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D162" s="2">
+        <v>2022</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="8">
@@ -4002,16 +3990,16 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D163" s="2">
+        <v>2022</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="8">
@@ -4021,16 +4009,16 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="D164" s="2">
+        <v>2022</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="8">
@@ -4040,16 +4028,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D165" s="2">
+        <v>2022</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="8">
@@ -4059,16 +4047,16 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="D166" s="2">
+        <v>2022</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="8">
@@ -4078,16 +4066,16 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="D167" s="2">
+        <v>2022</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="8">
@@ -4097,16 +4085,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D168" s="2">
+        <v>2022</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="8">
@@ -4116,16 +4104,16 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="D169" s="2">
+        <v>2022</v>
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="8">
@@ -4135,16 +4123,16 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D170" s="4">
+        <v>2022</v>
       </c>
       <c r="E170" s="7"/>
       <c r="F170" s="9">
@@ -4154,16 +4142,16 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D171" s="4">
+        <v>2022</v>
       </c>
       <c r="E171" s="7"/>
       <c r="F171" s="9">
@@ -4173,16 +4161,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D172" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D172" s="4">
+        <v>2022</v>
       </c>
       <c r="E172" s="7"/>
       <c r="F172" s="9">
@@ -4192,16 +4180,16 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D173" s="4">
+        <v>2022</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="9">
@@ -4211,16 +4199,16 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D174" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D174" s="4">
+        <v>2023</v>
       </c>
       <c r="E174" s="7">
         <v>220.26</v>
@@ -4232,16 +4220,16 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D175" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D175" s="4">
+        <v>2023</v>
       </c>
       <c r="E175" s="7">
         <v>305.91000000000003</v>
@@ -4253,16 +4241,16 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D176" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D176" s="4">
+        <v>2023</v>
       </c>
       <c r="E176" s="7">
         <v>212.57</v>
@@ -4274,16 +4262,16 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D177" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="D177" s="4">
+        <v>2023</v>
       </c>
       <c r="E177" s="7">
         <v>250.63</v>
@@ -4295,16 +4283,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D178" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D178" s="4">
+        <v>2023</v>
       </c>
       <c r="E178" s="7">
         <v>164.15</v>
@@ -4316,16 +4304,16 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D179" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="D179" s="4">
+        <v>2023</v>
       </c>
       <c r="E179" s="7">
         <v>0</v>
@@ -4337,16 +4325,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D180" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="D180" s="4">
+        <v>2023</v>
       </c>
       <c r="E180" s="7">
         <v>0</v>
@@ -4358,16 +4346,16 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="D181" s="4">
+        <v>2023</v>
       </c>
       <c r="E181" s="7">
         <v>11.5</v>
@@ -4379,16 +4367,16 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D182" s="2">
+        <v>2023</v>
       </c>
       <c r="E182" s="6">
         <v>295.35000000000002</v>
@@ -4400,16 +4388,16 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D183" s="2">
+        <v>2023</v>
       </c>
       <c r="E183" s="6">
         <v>207.13</v>
@@ -4421,16 +4409,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D184" s="2">
+        <v>2023</v>
       </c>
       <c r="E184" s="6">
         <v>195.95</v>
@@ -4442,16 +4430,16 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D185" s="2">
+        <v>2023</v>
       </c>
       <c r="E185" s="6">
         <v>102.81</v>
@@ -4463,16 +4451,16 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D186" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D186" s="2">
+        <v>2024</v>
       </c>
       <c r="E186" s="6">
         <v>198.52</v>
@@ -4484,16 +4472,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D187" s="2">
+        <v>2024</v>
       </c>
       <c r="E187" s="6">
         <v>261.43</v>
@@ -4505,16 +4493,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D188" s="2">
+        <v>2024</v>
       </c>
       <c r="E188" s="6">
         <v>142.9</v>
@@ -4526,16 +4514,16 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D189" s="2">
+        <v>2024</v>
       </c>
       <c r="E189" s="6">
         <v>203.57</v>
@@ -4547,16 +4535,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D190" s="2">
+        <v>2024</v>
       </c>
       <c r="E190" s="6">
         <v>90.84</v>
@@ -4568,16 +4556,16 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D191" s="2">
+        <v>2024</v>
       </c>
       <c r="E191" s="6">
         <v>0</v>
@@ -4589,16 +4577,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D192" s="2">
+        <v>2024</v>
       </c>
       <c r="E192" s="6">
         <v>0</v>
@@ -4610,16 +4598,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="D193" s="2">
+        <v>2024</v>
       </c>
       <c r="E193" s="6">
         <v>0</v>
@@ -4631,16 +4619,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D194" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="D194" s="4">
+        <v>2020</v>
       </c>
       <c r="E194" s="7">
         <v>0</v>
@@ -4652,16 +4640,16 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D195" s="4">
+        <v>2020</v>
       </c>
       <c r="E195" s="7">
         <v>0</v>
@@ -4673,16 +4661,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="D196" s="4">
+        <v>2020</v>
       </c>
       <c r="E196" s="7">
         <v>0</v>
@@ -4694,16 +4682,16 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="D197" s="4">
+        <v>2020</v>
       </c>
       <c r="E197" s="7">
         <v>0</v>
@@ -4715,16 +4703,16 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="D198" s="4">
+        <v>2021</v>
       </c>
       <c r="E198" s="7">
         <v>0</v>
@@ -4736,16 +4724,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D199" s="4">
+        <v>2021</v>
       </c>
       <c r="E199" s="7">
         <v>0</v>
@@ -4757,16 +4745,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="D200" s="4">
+        <v>2021</v>
       </c>
       <c r="E200" s="7">
         <v>0</v>
@@ -4778,16 +4766,16 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="D201" s="4">
+        <v>2021</v>
       </c>
       <c r="E201" s="7">
         <v>0</v>
@@ -4799,16 +4787,16 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="D202" s="4">
+        <v>2021</v>
       </c>
       <c r="E202" s="7">
         <v>0</v>
@@ -4820,16 +4808,16 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="D203" s="4">
+        <v>2021</v>
       </c>
       <c r="E203" s="7">
         <v>96</v>
@@ -4841,16 +4829,16 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="D204" s="4">
+        <v>2021</v>
       </c>
       <c r="E204" s="7">
         <v>0</v>
@@ -4862,16 +4850,16 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="D205" s="4">
+        <v>2021</v>
       </c>
       <c r="E205" s="7">
         <v>17.8</v>
@@ -4883,16 +4871,16 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D206" s="2">
+        <v>2021</v>
       </c>
       <c r="E206" s="6">
         <v>289.29000000000002</v>
@@ -4904,16 +4892,16 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D207" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="D207" s="2">
+        <v>2021</v>
       </c>
       <c r="E207" s="6">
         <v>454.43</v>
@@ -4925,16 +4913,16 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D208" s="2">
+        <v>2021</v>
       </c>
       <c r="E208" s="6">
         <v>329.54</v>
@@ -4946,16 +4934,16 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D209" s="2">
+        <v>2021</v>
       </c>
       <c r="E209" s="6">
         <v>240.04</v>
@@ -4967,16 +4955,16 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="D210" s="2">
+        <v>2022</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="8">
@@ -4986,16 +4974,16 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="D211" s="2">
+        <v>2022</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="8">
@@ -5005,16 +4993,16 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="D212" s="2">
+        <v>2022</v>
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="8">
@@ -5024,16 +5012,16 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D213" s="2">
+        <v>2022</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="8">
@@ -5043,16 +5031,16 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="D214" s="2">
+        <v>2022</v>
       </c>
       <c r="E214" s="6"/>
       <c r="F214" s="8">
@@ -5062,16 +5050,16 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="D215" s="2">
+        <v>2022</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="8">
@@ -5081,16 +5069,16 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D216" s="2">
+        <v>2022</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="8">
@@ -5100,16 +5088,16 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="D217" s="2">
+        <v>2022</v>
       </c>
       <c r="E217" s="6"/>
       <c r="F217" s="8">
@@ -5119,16 +5107,16 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D218" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D218" s="4">
+        <v>2022</v>
       </c>
       <c r="E218" s="7"/>
       <c r="F218" s="9">
@@ -5138,16 +5126,16 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D219" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D219" s="4">
+        <v>2022</v>
       </c>
       <c r="E219" s="7"/>
       <c r="F219" s="9">
@@ -5157,16 +5145,16 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D220" s="4" t="s">
         <v>4</v>
+      </c>
+      <c r="D220" s="4">
+        <v>2022</v>
       </c>
       <c r="E220" s="7"/>
       <c r="F220" s="9">
@@ -5176,16 +5164,16 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D221" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D221" s="4">
+        <v>2022</v>
       </c>
       <c r="E221" s="7"/>
       <c r="F221" s="9">
@@ -5195,16 +5183,16 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D222" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D222" s="4">
+        <v>2023</v>
       </c>
       <c r="E222" s="7">
         <v>35.299999999999997</v>
@@ -5216,16 +5204,16 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D223" s="4">
+        <v>2023</v>
       </c>
       <c r="E223" s="7">
         <v>107.78</v>
@@ -5237,16 +5225,16 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D224" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="D224" s="4">
+        <v>2023</v>
       </c>
       <c r="E224" s="7">
         <v>69.2</v>
@@ -5258,16 +5246,16 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D225" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="D225" s="4">
+        <v>2023</v>
       </c>
       <c r="E225" s="7">
         <v>64.5</v>
@@ -5279,16 +5267,16 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D226" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="D226" s="4">
+        <v>2023</v>
       </c>
       <c r="E226" s="7">
         <v>39.25</v>
@@ -5300,16 +5288,16 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="D227" s="4">
+        <v>2023</v>
       </c>
       <c r="E227" s="7">
         <v>0</v>
@@ -5321,16 +5309,16 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="D228" s="4">
+        <v>2023</v>
       </c>
       <c r="E228" s="7">
         <v>0</v>
@@ -5342,16 +5330,16 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="D229" s="4">
+        <v>2023</v>
       </c>
       <c r="E229" s="7">
         <v>0</v>
@@ -5363,16 +5351,16 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="D230" s="2">
+        <v>2023</v>
       </c>
       <c r="E230" s="6">
         <v>246.31</v>
@@ -5384,16 +5372,16 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="D231" s="2">
+        <v>2023</v>
       </c>
       <c r="E231" s="6">
         <v>232.27</v>
@@ -5405,16 +5393,16 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="D232" s="2">
+        <v>2023</v>
       </c>
       <c r="E232" s="6">
         <v>237.31</v>
@@ -5426,16 +5414,16 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D233" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D233" s="2">
+        <v>2023</v>
       </c>
       <c r="E233" s="6">
         <v>151.88999999999999</v>
@@ -5447,16 +5435,16 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D234" s="2">
+        <v>2024</v>
       </c>
       <c r="E234" s="6">
         <v>30.89</v>
@@ -5468,16 +5456,16 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D235" s="2">
+        <v>2024</v>
       </c>
       <c r="E235" s="6">
         <v>109.63</v>
@@ -5489,16 +5477,16 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D236" s="2">
+        <v>2024</v>
       </c>
       <c r="E236" s="6">
         <v>87.05</v>
@@ -5510,16 +5498,16 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D237" s="2">
+        <v>2024</v>
       </c>
       <c r="E237" s="6">
         <v>119.09</v>
@@ -5531,16 +5519,16 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D238" s="2">
+        <v>2024</v>
       </c>
       <c r="E238" s="6">
         <v>58.38</v>
@@ -5552,16 +5540,16 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="D239" s="2">
+        <v>2024</v>
       </c>
       <c r="E239" s="6">
         <v>0</v>
@@ -5573,16 +5561,16 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="D240" s="2">
+        <v>2024</v>
       </c>
       <c r="E240" s="6">
         <v>0</v>
@@ -5594,16 +5582,16 @@
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="D241" s="2">
+        <v>2024</v>
       </c>
       <c r="E241" s="6">
         <v>0</v>

--- a/DinningData.xlsx
+++ b/DinningData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m.mughees/Desktop/DailyHours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB1BA1E-0C7A-9D4F-AEDB-C63EE428CDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7561C47-8446-C543-9B92-70D3C03B8E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{DE998561-EBAC-6C45-B2D5-E0BAD589018C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DE998561-EBAC-6C45-B2D5-E0BAD589018C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="10">
   <si>
     <t>DEP</t>
   </si>
@@ -44,58 +44,7 @@
     <t>Semester</t>
   </si>
   <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
     <t>Month</t>
-  </si>
-  <si>
-    <t>Res Dinning</t>
-  </si>
-  <si>
-    <t>Martys</t>
-  </si>
-  <si>
-    <t>Oneota</t>
-  </si>
-  <si>
-    <t>C-Store</t>
-  </si>
-  <si>
-    <t>Catering</t>
   </si>
   <si>
     <t>Fall</t>
@@ -126,7 +75,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -165,6 +114,18 @@
       <color theme="1"/>
       <name val="Roboto Slab"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -192,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,6 +196,14 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9694C3E-4676-5E45-83AA-01CD38B8296E}">
-  <dimension ref="A1:H241"/>
+  <dimension ref="A1:T241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="D194" sqref="D194:D241"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="L245" sqref="L245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.2"/>
@@ -595,29 +564,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
+      <c r="A2" s="4">
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="5">
+        <v>9</v>
       </c>
       <c r="D2" s="4">
         <v>2020</v>
@@ -633,14 +602,14 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>15</v>
+      <c r="A3" s="4">
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10</v>
       </c>
       <c r="D3" s="4">
         <v>2020</v>
@@ -656,14 +625,14 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
+      <c r="A4" s="4">
+        <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>11</v>
       </c>
       <c r="D4" s="4">
         <v>2020</v>
@@ -679,14 +648,14 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>15</v>
+      <c r="A5" s="4">
+        <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>12</v>
       </c>
       <c r="D5" s="4">
         <v>2020</v>
@@ -702,14 +671,14 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
+      <c r="A6" s="4">
+        <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
       </c>
       <c r="D6" s="4">
         <v>2021</v>
@@ -725,14 +694,14 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
+      <c r="A7" s="4">
+        <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2</v>
       </c>
       <c r="D7" s="4">
         <v>2021</v>
@@ -748,14 +717,14 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
+      <c r="A8" s="4">
+        <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>3</v>
       </c>
       <c r="D8" s="4">
         <v>2021</v>
@@ -771,14 +740,14 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>15</v>
+      <c r="A9" s="4">
+        <v>1</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4</v>
       </c>
       <c r="D9" s="4">
         <v>2021</v>
@@ -794,14 +763,14 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
+      <c r="A10" s="4">
+        <v>1</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>5</v>
       </c>
       <c r="D10" s="4">
         <v>2021</v>
@@ -817,14 +786,14 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
+      <c r="A11" s="4">
+        <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6</v>
       </c>
       <c r="D11" s="4">
         <v>2021</v>
@@ -840,14 +809,14 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
+      <c r="A12" s="4">
+        <v>1</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
+        <v>7</v>
       </c>
       <c r="D12" s="4">
         <v>2021</v>
@@ -863,14 +832,14 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
+      <c r="A13" s="4">
+        <v>1</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C13" s="5">
+        <v>8</v>
       </c>
       <c r="D13" s="4">
         <v>2021</v>
@@ -886,14 +855,14 @@
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
+      <c r="A14" s="2">
+        <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C14" s="3">
+        <v>9</v>
       </c>
       <c r="D14" s="2">
         <v>2021</v>
@@ -909,14 +878,14 @@
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
+      <c r="A15" s="2">
+        <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
       </c>
       <c r="D15" s="2">
         <v>2021</v>
@@ -932,14 +901,14 @@
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
+      <c r="A16" s="2">
+        <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>11</v>
       </c>
       <c r="D16" s="2">
         <v>2021</v>
@@ -954,15 +923,15 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C17" s="3">
+        <v>12</v>
       </c>
       <c r="D17" s="2">
         <v>2021</v>
@@ -977,20 +946,20 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>15</v>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
       </c>
       <c r="D18" s="2">
         <v>2022</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -998,20 +967,20 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>15</v>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>2</v>
       </c>
       <c r="D19" s="2">
         <v>2022</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1019,20 +988,20 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3</v>
       </c>
       <c r="D20" s="2">
         <v>2022</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="8">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1040,20 +1009,20 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>15</v>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
       </c>
       <c r="D21" s="2">
         <v>2022</v>
       </c>
-      <c r="E21" s="13"/>
+      <c r="E21" s="17"/>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F49" si="2">E21*9.25</f>
         <v>0</v>
@@ -1061,20 +1030,20 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>15</v>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5</v>
       </c>
       <c r="D22" s="2">
         <v>2022</v>
       </c>
-      <c r="E22" s="13"/>
+      <c r="E22" s="17"/>
       <c r="F22" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1082,20 +1051,20 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>15</v>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>1</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
+        <v>6</v>
       </c>
       <c r="D23" s="2">
         <v>2022</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1103,141 +1072,183 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>15</v>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>1</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C24" s="3">
+        <v>7</v>
       </c>
       <c r="D24" s="2">
         <v>2022</v>
       </c>
-      <c r="E24" s="13"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>15</v>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="15"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>1</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>8</v>
       </c>
       <c r="D25" s="2">
         <v>2022</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>15</v>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="15"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C26" s="5">
+        <v>9</v>
       </c>
       <c r="D26" s="4">
         <v>2022</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>15</v>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="15"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>1</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C27" s="5">
+        <v>10</v>
       </c>
       <c r="D27" s="4">
         <v>2022</v>
       </c>
-      <c r="E27" s="12"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="9">
         <f>E27*9.25</f>
         <v>0</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>15</v>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="15"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C28" s="5">
+        <v>11</v>
       </c>
       <c r="D28" s="4">
         <v>2022</v>
       </c>
-      <c r="E28" s="12"/>
+      <c r="E28" s="18"/>
       <c r="F28" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>15</v>
+      <c r="N28" s="15"/>
+      <c r="O28" s="15"/>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="15"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>1</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C29" s="5">
+        <v>12</v>
       </c>
       <c r="D29" s="4">
         <v>2022</v>
       </c>
-      <c r="E29" s="12"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>15</v>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="15"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1</v>
       </c>
       <c r="D30" s="4">
         <v>2023</v>
@@ -1251,16 +1262,23 @@
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>15</v>
+      <c r="N30" s="15"/>
+      <c r="O30" s="15"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="15"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>1</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C31" s="5">
+        <v>2</v>
       </c>
       <c r="D31" s="4">
         <v>2023</v>
@@ -1274,16 +1292,23 @@
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>15</v>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="15"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>1</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3</v>
       </c>
       <c r="D32" s="4">
         <v>2023</v>
@@ -1297,16 +1322,23 @@
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>15</v>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="15"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>1</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C33" s="5">
+        <v>4</v>
       </c>
       <c r="D33" s="4">
         <v>2023</v>
@@ -1320,16 +1352,23 @@
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>15</v>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="15"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>1</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C34" s="5">
+        <v>5</v>
       </c>
       <c r="D34" s="4">
         <v>2023</v>
@@ -1343,16 +1382,23 @@
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>15</v>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="16"/>
+      <c r="T34" s="15"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C35" s="5">
+        <v>6</v>
       </c>
       <c r="D35" s="4">
         <v>2023</v>
@@ -1366,16 +1412,23 @@
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>15</v>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="16"/>
+      <c r="T35"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>1</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C36" s="5">
+        <v>7</v>
       </c>
       <c r="D36" s="4">
         <v>2023</v>
@@ -1389,16 +1442,17 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>15</v>
+      <c r="N36" s="15"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>1</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C37" s="5">
+        <v>8</v>
       </c>
       <c r="D37" s="4">
         <v>2023</v>
@@ -1412,16 +1466,17 @@
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>15</v>
+      <c r="N37" s="15"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>1</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C38" s="3">
+        <v>9</v>
       </c>
       <c r="D38" s="2">
         <v>2023</v>
@@ -1433,16 +1488,17 @@
         <f t="shared" si="2"/>
         <v>19286.712500000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>15</v>
+      <c r="N38" s="15"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C39" s="3">
+        <v>10</v>
       </c>
       <c r="D39" s="2">
         <v>2023</v>
@@ -1455,15 +1511,15 @@
         <v>16789.0275</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>15</v>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C40" s="3">
+        <v>11</v>
       </c>
       <c r="D40" s="2">
         <v>2023</v>
@@ -1476,15 +1532,15 @@
         <v>14626.1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>15</v>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C41" s="3">
+        <v>12</v>
       </c>
       <c r="D41" s="2">
         <v>2023</v>
@@ -1497,15 +1553,15 @@
         <v>6436.9825000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>15</v>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
       </c>
       <c r="D42" s="2">
         <v>2024</v>
@@ -1518,15 +1574,15 @@
         <v>8774.8274999999994</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>15</v>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C43" s="3">
+        <v>2</v>
       </c>
       <c r="D43" s="2">
         <v>2024</v>
@@ -1539,15 +1595,15 @@
         <v>9782.7074999999986</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>15</v>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>1</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C44" s="3">
+        <v>3</v>
       </c>
       <c r="D44" s="2">
         <v>2024</v>
@@ -1560,15 +1616,15 @@
         <v>6425.6974999999993</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>15</v>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>1</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4</v>
       </c>
       <c r="D45" s="2">
         <v>2024</v>
@@ -1581,15 +1637,15 @@
         <v>9856.06</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>15</v>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>1</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C46" s="3">
+        <v>5</v>
       </c>
       <c r="D46" s="2">
         <v>2024</v>
@@ -1602,15 +1658,15 @@
         <v>3872.6975000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>15</v>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>1</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C47" s="3">
+        <v>6</v>
       </c>
       <c r="D47" s="2">
         <v>2024</v>
@@ -1623,15 +1679,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>15</v>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>1</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C48" s="3">
+        <v>7</v>
       </c>
       <c r="D48" s="2">
         <v>2024</v>
@@ -1645,14 +1701,14 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>15</v>
+      <c r="A49" s="2">
+        <v>1</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C49" s="3">
+        <v>8</v>
       </c>
       <c r="D49" s="2">
         <v>2024</v>
@@ -1666,14 +1722,14 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>16</v>
+      <c r="A50" s="4">
+        <v>2</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C50" s="5">
+        <v>9</v>
       </c>
       <c r="D50" s="4">
         <v>2020</v>
@@ -1687,14 +1743,14 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>16</v>
+      <c r="A51" s="4">
+        <v>2</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C51" s="5">
+        <v>10</v>
       </c>
       <c r="D51" s="4">
         <v>2020</v>
@@ -1708,14 +1764,14 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>16</v>
+      <c r="A52" s="4">
+        <v>2</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C52" s="5">
+        <v>11</v>
       </c>
       <c r="D52" s="4">
         <v>2020</v>
@@ -1729,14 +1785,14 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>16</v>
+      <c r="A53" s="4">
+        <v>2</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C53" s="5">
+        <v>12</v>
       </c>
       <c r="D53" s="4">
         <v>2020</v>
@@ -1750,14 +1806,14 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>16</v>
+      <c r="A54" s="4">
+        <v>2</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C54" s="5">
+        <v>1</v>
       </c>
       <c r="D54" s="4">
         <v>2021</v>
@@ -1771,14 +1827,14 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>16</v>
+      <c r="A55" s="4">
+        <v>2</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C55" s="5">
+        <v>2</v>
       </c>
       <c r="D55" s="4">
         <v>2021</v>
@@ -1792,14 +1848,14 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>16</v>
+      <c r="A56" s="4">
+        <v>2</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3</v>
       </c>
       <c r="D56" s="4">
         <v>2021</v>
@@ -1813,14 +1869,14 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>16</v>
+      <c r="A57" s="4">
+        <v>2</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C57" s="5">
+        <v>4</v>
       </c>
       <c r="D57" s="4">
         <v>2021</v>
@@ -1834,14 +1890,14 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>16</v>
+      <c r="A58" s="4">
+        <v>2</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C58" s="5">
+        <v>5</v>
       </c>
       <c r="D58" s="4">
         <v>2021</v>
@@ -1855,14 +1911,14 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>16</v>
+      <c r="A59" s="4">
+        <v>2</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C59" s="5">
+        <v>6</v>
       </c>
       <c r="D59" s="4">
         <v>2021</v>
@@ -1876,14 +1932,14 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>16</v>
+      <c r="A60" s="4">
+        <v>2</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C60" s="5">
+        <v>7</v>
       </c>
       <c r="D60" s="4">
         <v>2021</v>
@@ -1897,14 +1953,14 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>16</v>
+      <c r="A61" s="4">
+        <v>2</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C61" s="5">
+        <v>8</v>
       </c>
       <c r="D61" s="4">
         <v>2021</v>
@@ -1918,14 +1974,14 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>16</v>
+      <c r="A62" s="2">
+        <v>2</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C62" s="3">
+        <v>9</v>
       </c>
       <c r="D62" s="2">
         <v>2021</v>
@@ -1939,14 +1995,14 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>16</v>
+      <c r="A63" s="2">
+        <v>2</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C63" s="3">
+        <v>10</v>
       </c>
       <c r="D63" s="2">
         <v>2021</v>
@@ -1960,14 +2016,14 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>16</v>
+      <c r="A64" s="2">
+        <v>2</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C64" s="3">
+        <v>11</v>
       </c>
       <c r="D64" s="2">
         <v>2021</v>
@@ -1980,15 +2036,15 @@
         <v>7780.9049999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>16</v>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>2</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C65" s="3">
+        <v>12</v>
       </c>
       <c r="D65" s="2">
         <v>2021</v>
@@ -2001,15 +2057,15 @@
         <v>4040.6025</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>16</v>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>2</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1</v>
       </c>
       <c r="D66" s="2">
         <v>2022</v>
@@ -2020,15 +2076,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>16</v>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>2</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2</v>
       </c>
       <c r="D67" s="2">
         <v>2022</v>
@@ -2039,15 +2095,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>16</v>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>2</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C68" s="3">
+        <v>3</v>
       </c>
       <c r="D68" s="2">
         <v>2022</v>
@@ -2058,15 +2114,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>16</v>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>2</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C69" s="3">
+        <v>4</v>
       </c>
       <c r="D69" s="2">
         <v>2022</v>
@@ -2076,16 +2132,23 @@
         <f t="shared" ref="F69:F130" si="5">E69*9.25</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>16</v>
+      <c r="M69" s="15"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="15"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="15"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>2</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C70" s="3">
+        <v>5</v>
       </c>
       <c r="D70" s="2">
         <v>2022</v>
@@ -2095,16 +2158,23 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>16</v>
+      <c r="M70" s="15"/>
+      <c r="N70" s="15"/>
+      <c r="O70" s="15"/>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="15"/>
+      <c r="R70" s="15"/>
+      <c r="S70" s="15"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>2</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C71" s="3">
+        <v>6</v>
       </c>
       <c r="D71" s="2">
         <v>2022</v>
@@ -2114,16 +2184,23 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>16</v>
+      <c r="M71" s="15"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="15"/>
+      <c r="R71" s="15"/>
+      <c r="S71" s="15"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>2</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C72" s="3">
+        <v>7</v>
       </c>
       <c r="D72" s="2">
         <v>2022</v>
@@ -2133,16 +2210,23 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>16</v>
+      <c r="M72" s="15"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="15"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="15"/>
+      <c r="R72" s="15"/>
+      <c r="S72" s="15"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>2</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C73" s="3">
+        <v>8</v>
       </c>
       <c r="D73" s="2">
         <v>2022</v>
@@ -2152,16 +2236,23 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>16</v>
+      <c r="M73" s="15"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="15"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>2</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C74" s="5">
+        <v>9</v>
       </c>
       <c r="D74" s="4">
         <v>2022</v>
@@ -2171,16 +2262,23 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>16</v>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="15"/>
+      <c r="S74" s="15"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>2</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C75" s="5">
+        <v>10</v>
       </c>
       <c r="D75" s="4">
         <v>2022</v>
@@ -2190,16 +2288,23 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>16</v>
+      <c r="M75" s="15"/>
+      <c r="N75" s="15"/>
+      <c r="O75" s="15"/>
+      <c r="P75" s="15"/>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="15"/>
+      <c r="S75" s="15"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>2</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C76" s="5">
+        <v>11</v>
       </c>
       <c r="D76" s="4">
         <v>2022</v>
@@ -2209,16 +2314,23 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>16</v>
+      <c r="M76" s="15"/>
+      <c r="N76" s="15"/>
+      <c r="O76" s="15"/>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="15"/>
+      <c r="R76" s="15"/>
+      <c r="S76" s="15"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>2</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C77" s="5">
+        <v>12</v>
       </c>
       <c r="D77" s="4">
         <v>2022</v>
@@ -2228,16 +2340,23 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>16</v>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>2</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C78" s="5">
+        <v>1</v>
       </c>
       <c r="D78" s="4">
         <v>2023</v>
@@ -2249,16 +2368,23 @@
         <f t="shared" si="5"/>
         <v>3867.4250000000002</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>16</v>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="15"/>
+      <c r="S78" s="15"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>2</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C79" s="5">
+        <v>2</v>
       </c>
       <c r="D79" s="4">
         <v>2023</v>
@@ -2270,16 +2396,23 @@
         <f t="shared" si="5"/>
         <v>4901.2974999999997</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>16</v>
+      <c r="M79" s="15"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="15"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="15"/>
+      <c r="R79" s="15"/>
+      <c r="S79" s="15"/>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>2</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C80" s="5">
+        <v>3</v>
       </c>
       <c r="D80" s="4">
         <v>2023</v>
@@ -2291,16 +2424,23 @@
         <f t="shared" si="5"/>
         <v>4562.2849999999999</v>
       </c>
+      <c r="M80" s="15"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="15"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="15"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="4" t="s">
-        <v>16</v>
+      <c r="A81" s="4">
+        <v>2</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C81" s="5">
+        <v>4</v>
       </c>
       <c r="D81" s="4">
         <v>2023</v>
@@ -2314,14 +2454,14 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
-        <v>16</v>
+      <c r="A82" s="4">
+        <v>2</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C82" s="5">
+        <v>5</v>
       </c>
       <c r="D82" s="4">
         <v>2023</v>
@@ -2335,14 +2475,14 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>16</v>
+      <c r="A83" s="4">
+        <v>2</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C83" s="5">
+        <v>6</v>
       </c>
       <c r="D83" s="4">
         <v>2023</v>
@@ -2356,14 +2496,14 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
-        <v>16</v>
+      <c r="A84" s="4">
+        <v>2</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C84" s="5">
+        <v>7</v>
       </c>
       <c r="D84" s="4">
         <v>2023</v>
@@ -2377,14 +2517,14 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
-        <v>16</v>
+      <c r="A85" s="4">
+        <v>2</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C85" s="5">
+        <v>8</v>
       </c>
       <c r="D85" s="4">
         <v>2023</v>
@@ -2398,14 +2538,14 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>16</v>
+      <c r="A86" s="2">
+        <v>2</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C86" s="3">
+        <v>9</v>
       </c>
       <c r="D86" s="2">
         <v>2023</v>
@@ -2419,14 +2559,14 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>16</v>
+      <c r="A87" s="2">
+        <v>2</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C87" s="3">
+        <v>10</v>
       </c>
       <c r="D87" s="2">
         <v>2023</v>
@@ -2440,14 +2580,14 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>16</v>
+      <c r="A88" s="2">
+        <v>2</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C88" s="3">
+        <v>11</v>
       </c>
       <c r="D88" s="2">
         <v>2023</v>
@@ -2461,14 +2601,14 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>16</v>
+      <c r="A89" s="2">
+        <v>2</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C89" s="3">
+        <v>12</v>
       </c>
       <c r="D89" s="2">
         <v>2023</v>
@@ -2482,14 +2622,14 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>16</v>
+      <c r="A90" s="2">
+        <v>2</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1</v>
       </c>
       <c r="D90" s="2">
         <v>2024</v>
@@ -2503,14 +2643,14 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>16</v>
+      <c r="A91" s="2">
+        <v>2</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C91" s="3">
+        <v>2</v>
       </c>
       <c r="D91" s="2">
         <v>2024</v>
@@ -2524,14 +2664,14 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>16</v>
+      <c r="A92" s="2">
+        <v>2</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C92" s="3">
+        <v>3</v>
       </c>
       <c r="D92" s="2">
         <v>2024</v>
@@ -2545,14 +2685,14 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>16</v>
+      <c r="A93" s="2">
+        <v>2</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C93" s="3">
+        <v>4</v>
       </c>
       <c r="D93" s="2">
         <v>2024</v>
@@ -2566,14 +2706,14 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>16</v>
+      <c r="A94" s="2">
+        <v>2</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C94" s="3">
+        <v>5</v>
       </c>
       <c r="D94" s="2">
         <v>2024</v>
@@ -2587,14 +2727,14 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>16</v>
+      <c r="A95" s="2">
+        <v>2</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C95" s="3">
+        <v>6</v>
       </c>
       <c r="D95" s="2">
         <v>2024</v>
@@ -2608,14 +2748,14 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>16</v>
+      <c r="A96" s="2">
+        <v>2</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C96" s="3">
+        <v>7</v>
       </c>
       <c r="D96" s="2">
         <v>2024</v>
@@ -2628,15 +2768,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>16</v>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>2</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C97" s="3">
+        <v>8</v>
       </c>
       <c r="D97" s="2">
         <v>2024</v>
@@ -2649,15 +2789,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="4" t="s">
-        <v>17</v>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>3</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C98" s="5">
+        <v>9</v>
       </c>
       <c r="D98" s="4">
         <v>2020</v>
@@ -2669,16 +2809,23 @@
         <f>E98*8.25</f>
         <v>4707.5325000000003</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="4" t="s">
-        <v>17</v>
+      <c r="L98" s="15"/>
+      <c r="M98" s="15"/>
+      <c r="N98"/>
+      <c r="O98"/>
+      <c r="P98"/>
+      <c r="Q98"/>
+      <c r="R98"/>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>3</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C99" s="5">
+        <v>10</v>
       </c>
       <c r="D99" s="4">
         <v>2020</v>
@@ -2690,16 +2837,23 @@
         <f t="shared" ref="F99:F109" si="6">E99*8.25</f>
         <v>7793.28</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>17</v>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="15"/>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>3</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C100" s="5">
+        <v>11</v>
       </c>
       <c r="D100" s="4">
         <v>2020</v>
@@ -2711,16 +2865,23 @@
         <f t="shared" si="6"/>
         <v>5401.5225</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="4" t="s">
-        <v>17</v>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="15"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="15"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>3</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C101" s="5">
+        <v>12</v>
       </c>
       <c r="D101" s="4">
         <v>2020</v>
@@ -2732,16 +2893,23 @@
         <f t="shared" si="6"/>
         <v>2740.0724999999998</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="4" t="s">
-        <v>17</v>
+      <c r="L101" s="15"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="15"/>
+      <c r="O101" s="15"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="15"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>3</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C102" s="5">
+        <v>1</v>
       </c>
       <c r="D102" s="4">
         <v>2021</v>
@@ -2753,16 +2921,23 @@
         <f t="shared" si="6"/>
         <v>5150.97</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="4" t="s">
-        <v>17</v>
+      <c r="L102" s="15"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="15"/>
+      <c r="O102" s="15"/>
+      <c r="P102" s="15"/>
+      <c r="Q102" s="15"/>
+      <c r="R102" s="15"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>3</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C103" s="5">
+        <v>2</v>
       </c>
       <c r="D103" s="4">
         <v>2021</v>
@@ -2774,16 +2949,23 @@
         <f t="shared" si="6"/>
         <v>5469.915</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>17</v>
+      <c r="L103" s="15"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="15"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="15"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>3</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C104" s="5">
+        <v>3</v>
       </c>
       <c r="D104" s="4">
         <v>2021</v>
@@ -2795,16 +2977,23 @@
         <f t="shared" si="6"/>
         <v>7351.1624999999995</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="4" t="s">
-        <v>17</v>
+      <c r="L104" s="15"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="15"/>
+      <c r="O104" s="15"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="15"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>3</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C105" s="5">
+        <v>4</v>
       </c>
       <c r="D105" s="4">
         <v>2021</v>
@@ -2816,16 +3005,23 @@
         <f t="shared" si="6"/>
         <v>5310.9375</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>17</v>
+      <c r="L105" s="15"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="15"/>
+      <c r="O105" s="15"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15"/>
+      <c r="R105" s="15"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>3</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C106" s="5">
+        <v>5</v>
       </c>
       <c r="D106" s="4">
         <v>2021</v>
@@ -2837,16 +3033,23 @@
         <f t="shared" si="6"/>
         <v>2383.0950000000003</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>17</v>
+      <c r="L106" s="15"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="15"/>
+      <c r="O106" s="15"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15"/>
+      <c r="R106" s="15"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>3</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C107" s="5">
+        <v>6</v>
       </c>
       <c r="D107" s="4">
         <v>2021</v>
@@ -2858,16 +3061,23 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>17</v>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="15"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="15"/>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>3</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C108" s="5">
+        <v>7</v>
       </c>
       <c r="D108" s="4">
         <v>2021</v>
@@ -2879,16 +3089,23 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="4" t="s">
-        <v>17</v>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="15"/>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>3</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C109" s="5">
+        <v>8</v>
       </c>
       <c r="D109" s="4">
         <v>2021</v>
@@ -2900,16 +3117,23 @@
         <f t="shared" si="6"/>
         <v>541.11750000000006</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>17</v>
+      <c r="L109" s="15"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="15"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>3</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C110" s="3">
+        <v>9</v>
       </c>
       <c r="D110" s="2">
         <v>2021</v>
@@ -2922,15 +3146,15 @@
         <v>7752.4425000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>17</v>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>3</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C111" s="3">
+        <v>10</v>
       </c>
       <c r="D111" s="2">
         <v>2021</v>
@@ -2943,15 +3167,15 @@
         <v>6186.5924999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>17</v>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>3</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C112" s="3">
+        <v>11</v>
       </c>
       <c r="D112" s="2">
         <v>2021</v>
@@ -2965,14 +3189,14 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
-        <v>17</v>
+      <c r="A113" s="2">
+        <v>3</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C113" s="3">
+        <v>12</v>
       </c>
       <c r="D113" s="2">
         <v>2021</v>
@@ -2986,14 +3210,14 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>17</v>
+      <c r="A114" s="2">
+        <v>3</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C114" s="3">
+        <v>1</v>
       </c>
       <c r="D114" s="2">
         <v>2022</v>
@@ -3005,14 +3229,14 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>17</v>
+      <c r="A115" s="2">
+        <v>3</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C115" s="3">
+        <v>2</v>
       </c>
       <c r="D115" s="2">
         <v>2022</v>
@@ -3024,14 +3248,14 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
-        <v>17</v>
+      <c r="A116" s="2">
+        <v>3</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C116" s="3">
+        <v>3</v>
       </c>
       <c r="D116" s="2">
         <v>2022</v>
@@ -3043,14 +3267,14 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
-        <v>17</v>
+      <c r="A117" s="2">
+        <v>3</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C117" s="3">
+        <v>4</v>
       </c>
       <c r="D117" s="2">
         <v>2022</v>
@@ -3062,14 +3286,14 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
-        <v>17</v>
+      <c r="A118" s="2">
+        <v>3</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C118" s="3">
+        <v>5</v>
       </c>
       <c r="D118" s="2">
         <v>2022</v>
@@ -3081,14 +3305,14 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
-        <v>17</v>
+      <c r="A119" s="2">
+        <v>3</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C119" s="3">
+        <v>6</v>
       </c>
       <c r="D119" s="2">
         <v>2022</v>
@@ -3100,14 +3324,14 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
-        <v>17</v>
+      <c r="A120" s="2">
+        <v>3</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C120" s="3">
+        <v>7</v>
       </c>
       <c r="D120" s="2">
         <v>2022</v>
@@ -3119,14 +3343,14 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>17</v>
+      <c r="A121" s="2">
+        <v>3</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C121" s="3">
+        <v>8</v>
       </c>
       <c r="D121" s="2">
         <v>2022</v>
@@ -3138,14 +3362,14 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="4" t="s">
-        <v>17</v>
+      <c r="A122" s="4">
+        <v>3</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C122" s="5">
+        <v>9</v>
       </c>
       <c r="D122" s="4">
         <v>2022</v>
@@ -3157,14 +3381,14 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="4" t="s">
-        <v>17</v>
+      <c r="A123" s="4">
+        <v>3</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C123" s="5" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C123" s="5">
+        <v>10</v>
       </c>
       <c r="D123" s="4">
         <v>2022</v>
@@ -3176,14 +3400,14 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>17</v>
+      <c r="A124" s="4">
+        <v>3</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C124" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C124" s="5">
+        <v>11</v>
       </c>
       <c r="D124" s="4">
         <v>2022</v>
@@ -3195,14 +3419,14 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="4" t="s">
-        <v>17</v>
+      <c r="A125" s="4">
+        <v>3</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C125" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C125" s="5">
+        <v>12</v>
       </c>
       <c r="D125" s="4">
         <v>2022</v>
@@ -3214,14 +3438,14 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>17</v>
+      <c r="A126" s="4">
+        <v>3</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C126" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C126" s="5">
+        <v>1</v>
       </c>
       <c r="D126" s="4">
         <v>2023</v>
@@ -3235,14 +3459,14 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="4" t="s">
-        <v>17</v>
+      <c r="A127" s="4">
+        <v>3</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C127" s="5">
+        <v>2</v>
       </c>
       <c r="D127" s="4">
         <v>2023</v>
@@ -3256,14 +3480,14 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
-        <v>17</v>
+      <c r="A128" s="4">
+        <v>3</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C128" s="5">
+        <v>3</v>
       </c>
       <c r="D128" s="4">
         <v>2023</v>
@@ -3277,14 +3501,14 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="4" t="s">
-        <v>17</v>
+      <c r="A129" s="4">
+        <v>3</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C129" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C129" s="5">
+        <v>4</v>
       </c>
       <c r="D129" s="4">
         <v>2023</v>
@@ -3298,14 +3522,14 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="4" t="s">
-        <v>17</v>
+      <c r="A130" s="4">
+        <v>3</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C130" s="5">
+        <v>5</v>
       </c>
       <c r="D130" s="4">
         <v>2023</v>
@@ -3319,14 +3543,14 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="4" t="s">
-        <v>17</v>
+      <c r="A131" s="4">
+        <v>3</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C131" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C131" s="5">
+        <v>6</v>
       </c>
       <c r="D131" s="4">
         <v>2023</v>
@@ -3340,14 +3564,14 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="4" t="s">
-        <v>17</v>
+      <c r="A132" s="4">
+        <v>3</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C132" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C132" s="5">
+        <v>7</v>
       </c>
       <c r="D132" s="4">
         <v>2023</v>
@@ -3361,14 +3585,14 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="4" t="s">
-        <v>17</v>
+      <c r="A133" s="4">
+        <v>3</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C133" s="5">
+        <v>8</v>
       </c>
       <c r="D133" s="4">
         <v>2023</v>
@@ -3382,14 +3606,14 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>17</v>
+      <c r="A134" s="2">
+        <v>3</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C134" s="3">
+        <v>9</v>
       </c>
       <c r="D134" s="2">
         <v>2023</v>
@@ -3403,14 +3627,14 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
-        <v>17</v>
+      <c r="A135" s="2">
+        <v>3</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C135" s="3">
+        <v>10</v>
       </c>
       <c r="D135" s="2">
         <v>2023</v>
@@ -3424,14 +3648,14 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
-        <v>17</v>
+      <c r="A136" s="2">
+        <v>3</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C136" s="3">
+        <v>11</v>
       </c>
       <c r="D136" s="2">
         <v>2023</v>
@@ -3445,14 +3669,14 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
-        <v>17</v>
+      <c r="A137" s="2">
+        <v>3</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C137" s="3">
+        <v>12</v>
       </c>
       <c r="D137" s="2">
         <v>2023</v>
@@ -3466,14 +3690,14 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
-        <v>17</v>
+      <c r="A138" s="2">
+        <v>3</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C138" s="3">
+        <v>1</v>
       </c>
       <c r="D138" s="2">
         <v>2024</v>
@@ -3487,14 +3711,14 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
-        <v>17</v>
+      <c r="A139" s="2">
+        <v>3</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C139" s="3">
+        <v>2</v>
       </c>
       <c r="D139" s="2">
         <v>2024</v>
@@ -3508,14 +3732,14 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
-        <v>17</v>
+      <c r="A140" s="2">
+        <v>3</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C140" s="3">
+        <v>3</v>
       </c>
       <c r="D140" s="2">
         <v>2024</v>
@@ -3529,14 +3753,14 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
-        <v>17</v>
+      <c r="A141" s="2">
+        <v>3</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C141" s="3">
+        <v>4</v>
       </c>
       <c r="D141" s="2">
         <v>2024</v>
@@ -3550,14 +3774,14 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
-        <v>17</v>
+      <c r="A142" s="2">
+        <v>3</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C142" s="3">
+        <v>5</v>
       </c>
       <c r="D142" s="2">
         <v>2024</v>
@@ -3571,14 +3795,14 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
-        <v>17</v>
+      <c r="A143" s="2">
+        <v>3</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C143" s="3">
+        <v>6</v>
       </c>
       <c r="D143" s="2">
         <v>2024</v>
@@ -3592,14 +3816,14 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
-        <v>17</v>
+      <c r="A144" s="2">
+        <v>3</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C144" s="3">
+        <v>7</v>
       </c>
       <c r="D144" s="2">
         <v>2024</v>
@@ -3613,14 +3837,14 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
-        <v>17</v>
+      <c r="A145" s="2">
+        <v>3</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C145" s="3">
+        <v>8</v>
       </c>
       <c r="D145" s="2">
         <v>2024</v>
@@ -3634,14 +3858,14 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>18</v>
+      <c r="A146" s="4">
+        <v>4</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C146" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C146" s="5">
+        <v>9</v>
       </c>
       <c r="D146" s="4">
         <v>2020</v>
@@ -3655,14 +3879,14 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>18</v>
+      <c r="A147" s="4">
+        <v>4</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C147" s="5" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C147" s="5">
+        <v>10</v>
       </c>
       <c r="D147" s="4">
         <v>2020</v>
@@ -3676,14 +3900,14 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="4" t="s">
-        <v>18</v>
+      <c r="A148" s="4">
+        <v>4</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C148" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C148" s="5">
+        <v>11</v>
       </c>
       <c r="D148" s="4">
         <v>2020</v>
@@ -3697,14 +3921,14 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="4" t="s">
-        <v>18</v>
+      <c r="A149" s="4">
+        <v>4</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C149" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C149" s="5">
+        <v>12</v>
       </c>
       <c r="D149" s="4">
         <v>2020</v>
@@ -3718,14 +3942,14 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="4" t="s">
-        <v>18</v>
+      <c r="A150" s="4">
+        <v>4</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C150" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C150" s="5">
+        <v>1</v>
       </c>
       <c r="D150" s="4">
         <v>2021</v>
@@ -3739,14 +3963,14 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="4" t="s">
-        <v>18</v>
+      <c r="A151" s="4">
+        <v>4</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C151" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C151" s="5">
+        <v>2</v>
       </c>
       <c r="D151" s="4">
         <v>2021</v>
@@ -3760,14 +3984,14 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="4" t="s">
-        <v>18</v>
+      <c r="A152" s="4">
+        <v>4</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C152" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C152" s="5">
+        <v>3</v>
       </c>
       <c r="D152" s="4">
         <v>2021</v>
@@ -3781,14 +4005,14 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="4" t="s">
-        <v>18</v>
+      <c r="A153" s="4">
+        <v>4</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C153" s="5">
+        <v>4</v>
       </c>
       <c r="D153" s="4">
         <v>2021</v>
@@ -3802,14 +4026,14 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="4" t="s">
-        <v>18</v>
+      <c r="A154" s="4">
+        <v>4</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C154" s="5">
+        <v>5</v>
       </c>
       <c r="D154" s="4">
         <v>2021</v>
@@ -3823,14 +4047,14 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
-        <v>18</v>
+      <c r="A155" s="4">
+        <v>4</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C155" s="5">
+        <v>6</v>
       </c>
       <c r="D155" s="4">
         <v>2021</v>
@@ -3844,14 +4068,14 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>18</v>
+      <c r="A156" s="4">
+        <v>4</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C156" s="5">
+        <v>7</v>
       </c>
       <c r="D156" s="4">
         <v>2021</v>
@@ -3865,14 +4089,14 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>18</v>
+      <c r="A157" s="4">
+        <v>4</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C157" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C157" s="5">
+        <v>8</v>
       </c>
       <c r="D157" s="4">
         <v>2021</v>
@@ -3886,14 +4110,14 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
-        <v>18</v>
+      <c r="A158" s="2">
+        <v>4</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C158" s="3">
+        <v>9</v>
       </c>
       <c r="D158" s="2">
         <v>2021</v>
@@ -3907,14 +4131,14 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
-        <v>18</v>
+      <c r="A159" s="2">
+        <v>4</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C159" s="3">
+        <v>10</v>
       </c>
       <c r="D159" s="2">
         <v>2021</v>
@@ -3928,14 +4152,14 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>18</v>
+      <c r="A160" s="2">
+        <v>4</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C160" s="3">
+        <v>11</v>
       </c>
       <c r="D160" s="2">
         <v>2021</v>
@@ -3949,14 +4173,14 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>18</v>
+      <c r="A161" s="2">
+        <v>4</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C161" s="3">
+        <v>12</v>
       </c>
       <c r="D161" s="2">
         <v>2021</v>
@@ -3970,14 +4194,14 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
-        <v>18</v>
+      <c r="A162" s="2">
+        <v>4</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C162" s="3">
+        <v>1</v>
       </c>
       <c r="D162" s="2">
         <v>2022</v>
@@ -3989,14 +4213,14 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
-        <v>18</v>
+      <c r="A163" s="2">
+        <v>4</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C163" s="3">
+        <v>2</v>
       </c>
       <c r="D163" s="2">
         <v>2022</v>
@@ -4008,14 +4232,14 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
-        <v>18</v>
+      <c r="A164" s="2">
+        <v>4</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C164" s="3">
+        <v>3</v>
       </c>
       <c r="D164" s="2">
         <v>2022</v>
@@ -4027,14 +4251,14 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
-        <v>18</v>
+      <c r="A165" s="2">
+        <v>4</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C165" s="3">
+        <v>4</v>
       </c>
       <c r="D165" s="2">
         <v>2022</v>
@@ -4046,14 +4270,14 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
-        <v>18</v>
+      <c r="A166" s="2">
+        <v>4</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C166" s="3">
+        <v>5</v>
       </c>
       <c r="D166" s="2">
         <v>2022</v>
@@ -4065,14 +4289,14 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>18</v>
+      <c r="A167" s="2">
+        <v>4</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C167" s="3">
+        <v>6</v>
       </c>
       <c r="D167" s="2">
         <v>2022</v>
@@ -4084,14 +4308,14 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>18</v>
+      <c r="A168" s="2">
+        <v>4</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C168" s="3">
+        <v>7</v>
       </c>
       <c r="D168" s="2">
         <v>2022</v>
@@ -4103,14 +4327,14 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
-        <v>18</v>
+      <c r="A169" s="2">
+        <v>4</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C169" s="3">
+        <v>8</v>
       </c>
       <c r="D169" s="2">
         <v>2022</v>
@@ -4122,14 +4346,14 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="4" t="s">
-        <v>18</v>
+      <c r="A170" s="4">
+        <v>4</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C170" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C170" s="5">
+        <v>9</v>
       </c>
       <c r="D170" s="4">
         <v>2022</v>
@@ -4141,14 +4365,14 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="4" t="s">
-        <v>18</v>
+      <c r="A171" s="4">
+        <v>4</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C171" s="5" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C171" s="5">
+        <v>10</v>
       </c>
       <c r="D171" s="4">
         <v>2022</v>
@@ -4160,14 +4384,14 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="4" t="s">
-        <v>18</v>
+      <c r="A172" s="4">
+        <v>4</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C172" s="5">
+        <v>11</v>
       </c>
       <c r="D172" s="4">
         <v>2022</v>
@@ -4179,14 +4403,14 @@
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="4" t="s">
-        <v>18</v>
+      <c r="A173" s="4">
+        <v>4</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C173" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C173" s="5">
+        <v>12</v>
       </c>
       <c r="D173" s="4">
         <v>2022</v>
@@ -4198,14 +4422,14 @@
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="4" t="s">
-        <v>18</v>
+      <c r="A174" s="4">
+        <v>4</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C174" s="5">
+        <v>1</v>
       </c>
       <c r="D174" s="4">
         <v>2023</v>
@@ -4219,14 +4443,14 @@
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="4" t="s">
-        <v>18</v>
+      <c r="A175" s="4">
+        <v>4</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C175" s="5">
+        <v>2</v>
       </c>
       <c r="D175" s="4">
         <v>2023</v>
@@ -4240,14 +4464,14 @@
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="4" t="s">
-        <v>18</v>
+      <c r="A176" s="4">
+        <v>4</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C176" s="5">
+        <v>3</v>
       </c>
       <c r="D176" s="4">
         <v>2023</v>
@@ -4261,14 +4485,14 @@
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="4" t="s">
-        <v>18</v>
+      <c r="A177" s="4">
+        <v>4</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C177" s="5">
+        <v>4</v>
       </c>
       <c r="D177" s="4">
         <v>2023</v>
@@ -4282,14 +4506,14 @@
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="4" t="s">
-        <v>18</v>
+      <c r="A178" s="4">
+        <v>4</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C178" s="5">
+        <v>5</v>
       </c>
       <c r="D178" s="4">
         <v>2023</v>
@@ -4303,14 +4527,14 @@
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="4" t="s">
-        <v>18</v>
+      <c r="A179" s="4">
+        <v>4</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C179" s="5">
+        <v>6</v>
       </c>
       <c r="D179" s="4">
         <v>2023</v>
@@ -4324,14 +4548,14 @@
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="4" t="s">
-        <v>18</v>
+      <c r="A180" s="4">
+        <v>4</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C180" s="5">
+        <v>7</v>
       </c>
       <c r="D180" s="4">
         <v>2023</v>
@@ -4345,14 +4569,14 @@
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="4" t="s">
-        <v>18</v>
+      <c r="A181" s="4">
+        <v>4</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C181" s="5">
+        <v>8</v>
       </c>
       <c r="D181" s="4">
         <v>2023</v>
@@ -4366,14 +4590,14 @@
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>18</v>
+      <c r="A182" s="2">
+        <v>4</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C182" s="3">
+        <v>9</v>
       </c>
       <c r="D182" s="2">
         <v>2023</v>
@@ -4387,14 +4611,14 @@
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
-        <v>18</v>
+      <c r="A183" s="2">
+        <v>4</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C183" s="3">
+        <v>10</v>
       </c>
       <c r="D183" s="2">
         <v>2023</v>
@@ -4408,14 +4632,14 @@
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
-        <v>18</v>
+      <c r="A184" s="2">
+        <v>4</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C184" s="3">
+        <v>11</v>
       </c>
       <c r="D184" s="2">
         <v>2023</v>
@@ -4429,14 +4653,14 @@
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
-        <v>18</v>
+      <c r="A185" s="2">
+        <v>4</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C185" s="3">
+        <v>12</v>
       </c>
       <c r="D185" s="2">
         <v>2023</v>
@@ -4450,14 +4674,14 @@
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>18</v>
+      <c r="A186" s="2">
+        <v>4</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C186" s="3">
+        <v>1</v>
       </c>
       <c r="D186" s="2">
         <v>2024</v>
@@ -4471,14 +4695,14 @@
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>18</v>
+      <c r="A187" s="2">
+        <v>4</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C187" s="3">
+        <v>2</v>
       </c>
       <c r="D187" s="2">
         <v>2024</v>
@@ -4492,14 +4716,14 @@
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
-        <v>18</v>
+      <c r="A188" s="2">
+        <v>4</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C188" s="3">
+        <v>3</v>
       </c>
       <c r="D188" s="2">
         <v>2024</v>
@@ -4513,14 +4737,14 @@
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>18</v>
+      <c r="A189" s="2">
+        <v>4</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C189" s="3">
+        <v>4</v>
       </c>
       <c r="D189" s="2">
         <v>2024</v>
@@ -4534,14 +4758,14 @@
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>18</v>
+      <c r="A190" s="2">
+        <v>4</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C190" s="3">
+        <v>5</v>
       </c>
       <c r="D190" s="2">
         <v>2024</v>
@@ -4555,14 +4779,14 @@
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
-        <v>18</v>
+      <c r="A191" s="2">
+        <v>4</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C191" s="3">
+        <v>6</v>
       </c>
       <c r="D191" s="2">
         <v>2024</v>
@@ -4576,14 +4800,14 @@
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
-        <v>18</v>
+      <c r="A192" s="2">
+        <v>4</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C192" s="3">
+        <v>7</v>
       </c>
       <c r="D192" s="2">
         <v>2024</v>
@@ -4597,14 +4821,14 @@
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
-        <v>18</v>
+      <c r="A193" s="2">
+        <v>4</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C193" s="3">
+        <v>8</v>
       </c>
       <c r="D193" s="2">
         <v>2024</v>
@@ -4618,14 +4842,14 @@
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="4" t="s">
-        <v>19</v>
+      <c r="A194" s="4">
+        <v>5</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C194" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C194" s="5">
+        <v>9</v>
       </c>
       <c r="D194" s="4">
         <v>2020</v>
@@ -4639,14 +4863,14 @@
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="4" t="s">
-        <v>19</v>
+      <c r="A195" s="4">
+        <v>5</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C195" s="5">
+        <v>10</v>
       </c>
       <c r="D195" s="4">
         <v>2020</v>
@@ -4660,14 +4884,14 @@
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="4" t="s">
-        <v>19</v>
+      <c r="A196" s="4">
+        <v>5</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C196" s="5">
+        <v>11</v>
       </c>
       <c r="D196" s="4">
         <v>2020</v>
@@ -4681,14 +4905,14 @@
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
-        <v>19</v>
+      <c r="A197" s="4">
+        <v>5</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C197" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C197" s="5">
+        <v>12</v>
       </c>
       <c r="D197" s="4">
         <v>2020</v>
@@ -4702,14 +4926,14 @@
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
-        <v>19</v>
+      <c r="A198" s="4">
+        <v>5</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C198" s="5">
+        <v>1</v>
       </c>
       <c r="D198" s="4">
         <v>2021</v>
@@ -4723,14 +4947,14 @@
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="4" t="s">
-        <v>19</v>
+      <c r="A199" s="4">
+        <v>5</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C199" s="5">
+        <v>2</v>
       </c>
       <c r="D199" s="4">
         <v>2021</v>
@@ -4744,14 +4968,14 @@
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="4" t="s">
-        <v>19</v>
+      <c r="A200" s="4">
+        <v>5</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C200" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C200" s="5">
+        <v>3</v>
       </c>
       <c r="D200" s="4">
         <v>2021</v>
@@ -4765,14 +4989,14 @@
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="4" t="s">
-        <v>19</v>
+      <c r="A201" s="4">
+        <v>5</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C201" s="5">
+        <v>4</v>
       </c>
       <c r="D201" s="4">
         <v>2021</v>
@@ -4786,14 +5010,14 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="4" t="s">
-        <v>19</v>
+      <c r="A202" s="4">
+        <v>5</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C202" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C202" s="5">
+        <v>5</v>
       </c>
       <c r="D202" s="4">
         <v>2021</v>
@@ -4807,14 +5031,14 @@
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
-        <v>19</v>
+      <c r="A203" s="4">
+        <v>5</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C203" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C203" s="5">
+        <v>6</v>
       </c>
       <c r="D203" s="4">
         <v>2021</v>
@@ -4828,14 +5052,14 @@
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="4" t="s">
-        <v>19</v>
+      <c r="A204" s="4">
+        <v>5</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C204" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C204" s="5">
+        <v>7</v>
       </c>
       <c r="D204" s="4">
         <v>2021</v>
@@ -4849,14 +5073,14 @@
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="4" t="s">
-        <v>19</v>
+      <c r="A205" s="4">
+        <v>5</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C205" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C205" s="5">
+        <v>8</v>
       </c>
       <c r="D205" s="4">
         <v>2021</v>
@@ -4870,14 +5094,14 @@
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
-        <v>19</v>
+      <c r="A206" s="2">
+        <v>5</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C206" s="3">
+        <v>9</v>
       </c>
       <c r="D206" s="2">
         <v>2021</v>
@@ -4891,14 +5115,14 @@
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
-        <v>19</v>
+      <c r="A207" s="2">
+        <v>5</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C207" s="3">
+        <v>10</v>
       </c>
       <c r="D207" s="2">
         <v>2021</v>
@@ -4912,14 +5136,14 @@
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
-        <v>19</v>
+      <c r="A208" s="2">
+        <v>5</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C208" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C208" s="3">
+        <v>11</v>
       </c>
       <c r="D208" s="2">
         <v>2021</v>
@@ -4933,14 +5157,14 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
-        <v>19</v>
+      <c r="A209" s="2">
+        <v>5</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C209" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C209" s="3">
+        <v>12</v>
       </c>
       <c r="D209" s="2">
         <v>2021</v>
@@ -4954,14 +5178,14 @@
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
-        <v>19</v>
+      <c r="A210" s="2">
+        <v>5</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C210" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C210" s="3">
+        <v>1</v>
       </c>
       <c r="D210" s="2">
         <v>2022</v>
@@ -4973,14 +5197,14 @@
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
-        <v>19</v>
+      <c r="A211" s="2">
+        <v>5</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C211" s="3">
+        <v>2</v>
       </c>
       <c r="D211" s="2">
         <v>2022</v>
@@ -4992,14 +5216,14 @@
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
-        <v>19</v>
+      <c r="A212" s="2">
+        <v>5</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C212" s="3">
+        <v>3</v>
       </c>
       <c r="D212" s="2">
         <v>2022</v>
@@ -5011,14 +5235,14 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
-        <v>19</v>
+      <c r="A213" s="2">
+        <v>5</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C213" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C213" s="3">
+        <v>4</v>
       </c>
       <c r="D213" s="2">
         <v>2022</v>
@@ -5030,14 +5254,14 @@
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
-        <v>19</v>
+      <c r="A214" s="2">
+        <v>5</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C214" s="3">
+        <v>5</v>
       </c>
       <c r="D214" s="2">
         <v>2022</v>
@@ -5049,14 +5273,14 @@
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
-        <v>19</v>
+      <c r="A215" s="2">
+        <v>5</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C215" s="3">
+        <v>6</v>
       </c>
       <c r="D215" s="2">
         <v>2022</v>
@@ -5068,14 +5292,14 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
-        <v>19</v>
+      <c r="A216" s="2">
+        <v>5</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C216" s="3">
+        <v>7</v>
       </c>
       <c r="D216" s="2">
         <v>2022</v>
@@ -5087,14 +5311,14 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
-        <v>19</v>
+      <c r="A217" s="2">
+        <v>5</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C217" s="3">
+        <v>8</v>
       </c>
       <c r="D217" s="2">
         <v>2022</v>
@@ -5106,14 +5330,14 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="4" t="s">
-        <v>19</v>
+      <c r="A218" s="4">
+        <v>5</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C218" s="5">
+        <v>9</v>
       </c>
       <c r="D218" s="4">
         <v>2022</v>
@@ -5125,14 +5349,14 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
-        <v>19</v>
+      <c r="A219" s="4">
+        <v>5</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C219" s="5" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C219" s="5">
+        <v>10</v>
       </c>
       <c r="D219" s="4">
         <v>2022</v>
@@ -5144,14 +5368,14 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
-        <v>19</v>
+      <c r="A220" s="4">
+        <v>5</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C220" s="5">
+        <v>11</v>
       </c>
       <c r="D220" s="4">
         <v>2022</v>
@@ -5163,14 +5387,14 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="4" t="s">
-        <v>19</v>
+      <c r="A221" s="4">
+        <v>5</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C221" s="5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C221" s="5">
+        <v>12</v>
       </c>
       <c r="D221" s="4">
         <v>2022</v>
@@ -5182,14 +5406,14 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="4" t="s">
-        <v>19</v>
+      <c r="A222" s="4">
+        <v>5</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C222" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C222" s="5">
+        <v>1</v>
       </c>
       <c r="D222" s="4">
         <v>2023</v>
@@ -5203,14 +5427,14 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
-        <v>19</v>
+      <c r="A223" s="4">
+        <v>5</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C223" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C223" s="5">
+        <v>2</v>
       </c>
       <c r="D223" s="4">
         <v>2023</v>
@@ -5224,14 +5448,14 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="4" t="s">
-        <v>19</v>
+      <c r="A224" s="4">
+        <v>5</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C224" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C224" s="5">
+        <v>3</v>
       </c>
       <c r="D224" s="4">
         <v>2023</v>
@@ -5245,14 +5469,14 @@
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
-        <v>19</v>
+      <c r="A225" s="4">
+        <v>5</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C225" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C225" s="5">
+        <v>4</v>
       </c>
       <c r="D225" s="4">
         <v>2023</v>
@@ -5266,14 +5490,14 @@
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
-        <v>19</v>
+      <c r="A226" s="4">
+        <v>5</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C226" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C226" s="5">
+        <v>5</v>
       </c>
       <c r="D226" s="4">
         <v>2023</v>
@@ -5287,14 +5511,14 @@
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
-        <v>19</v>
+      <c r="A227" s="4">
+        <v>5</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C227" s="5">
+        <v>6</v>
       </c>
       <c r="D227" s="4">
         <v>2023</v>
@@ -5308,14 +5532,14 @@
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="4" t="s">
-        <v>19</v>
+      <c r="A228" s="4">
+        <v>5</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C228" s="5">
+        <v>7</v>
       </c>
       <c r="D228" s="4">
         <v>2023</v>
@@ -5329,14 +5553,14 @@
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="4" t="s">
-        <v>19</v>
+      <c r="A229" s="4">
+        <v>5</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C229" s="5">
+        <v>8</v>
       </c>
       <c r="D229" s="4">
         <v>2023</v>
@@ -5350,14 +5574,14 @@
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
-        <v>19</v>
+      <c r="A230" s="2">
+        <v>5</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="C230" s="3">
+        <v>9</v>
       </c>
       <c r="D230" s="2">
         <v>2023</v>
@@ -5371,14 +5595,14 @@
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
-        <v>19</v>
+      <c r="A231" s="2">
+        <v>5</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>3</v>
+        <v>3</v>
+      </c>
+      <c r="C231" s="3">
+        <v>10</v>
       </c>
       <c r="D231" s="2">
         <v>2023</v>
@@ -5392,14 +5616,14 @@
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
-        <v>19</v>
+      <c r="A232" s="2">
+        <v>5</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C232" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C232" s="3">
+        <v>11</v>
       </c>
       <c r="D232" s="2">
         <v>2023</v>
@@ -5413,14 +5637,14 @@
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
-        <v>19</v>
+      <c r="A233" s="2">
+        <v>5</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C233" s="3">
+        <v>12</v>
       </c>
       <c r="D233" s="2">
         <v>2023</v>
@@ -5434,14 +5658,14 @@
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
-        <v>19</v>
+      <c r="A234" s="2">
+        <v>5</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C234" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="C234" s="3">
+        <v>1</v>
       </c>
       <c r="D234" s="2">
         <v>2024</v>
@@ -5455,14 +5679,14 @@
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
-        <v>19</v>
+      <c r="A235" s="2">
+        <v>5</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C235" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C235" s="3">
+        <v>2</v>
       </c>
       <c r="D235" s="2">
         <v>2024</v>
@@ -5476,14 +5700,14 @@
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="2" t="s">
-        <v>19</v>
+      <c r="A236" s="2">
+        <v>5</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C236" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C236" s="3">
+        <v>3</v>
       </c>
       <c r="D236" s="2">
         <v>2024</v>
@@ -5497,14 +5721,14 @@
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
-        <v>19</v>
+      <c r="A237" s="2">
+        <v>5</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C237" s="3">
+        <v>4</v>
       </c>
       <c r="D237" s="2">
         <v>2024</v>
@@ -5518,14 +5742,14 @@
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="2" t="s">
-        <v>19</v>
+      <c r="A238" s="2">
+        <v>5</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C238" s="3">
+        <v>5</v>
       </c>
       <c r="D238" s="2">
         <v>2024</v>
@@ -5539,14 +5763,14 @@
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="2" t="s">
-        <v>19</v>
+      <c r="A239" s="2">
+        <v>5</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C239" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="C239" s="3">
+        <v>6</v>
       </c>
       <c r="D239" s="2">
         <v>2024</v>
@@ -5560,14 +5784,14 @@
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="2" t="s">
-        <v>19</v>
+      <c r="A240" s="2">
+        <v>5</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C240" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
+      </c>
+      <c r="C240" s="3">
+        <v>7</v>
       </c>
       <c r="D240" s="2">
         <v>2024</v>
@@ -5581,14 +5805,14 @@
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="2" t="s">
-        <v>19</v>
+      <c r="A241" s="2">
+        <v>5</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="C241" s="3">
+        <v>8</v>
       </c>
       <c r="D241" s="2">
         <v>2024</v>

--- a/DinningData.xlsx
+++ b/DinningData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m.mughees/Desktop/DailyHours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7561C47-8446-C543-9B92-70D3C03B8E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F164DC42-F400-D340-8D89-149C526759DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DE998561-EBAC-6C45-B2D5-E0BAD589018C}"/>
+    <workbookView xWindow="16040" yWindow="-26720" windowWidth="28800" windowHeight="16280" xr2:uid="{DE998561-EBAC-6C45-B2D5-E0BAD589018C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>DEP</t>
   </si>
@@ -45,18 +45,6 @@
   </si>
   <si>
     <t>Month</t>
-  </si>
-  <si>
-    <t>Fall</t>
-  </si>
-  <si>
-    <t>J-Term</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>Summer</t>
   </si>
   <si>
     <t>Hours</t>
@@ -541,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9694C3E-4676-5E45-83AA-01CD38B8296E}">
   <dimension ref="A1:T241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="L245" sqref="L245"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K230" sqref="K230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.2"/>
@@ -567,13 +555,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -582,8 +570,8 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
+      <c r="B2" s="4">
+        <v>1</v>
       </c>
       <c r="C2" s="5">
         <v>9</v>
@@ -605,8 +593,8 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
+      <c r="B3" s="4">
+        <v>1</v>
       </c>
       <c r="C3" s="5">
         <v>10</v>
@@ -628,8 +616,8 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
+      <c r="B4" s="4">
+        <v>1</v>
       </c>
       <c r="C4" s="5">
         <v>11</v>
@@ -651,8 +639,8 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
+      <c r="B5" s="4">
+        <v>1</v>
       </c>
       <c r="C5" s="5">
         <v>12</v>
@@ -674,8 +662,8 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
+      <c r="B6" s="4">
+        <v>2</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -697,8 +685,8 @@
       <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>5</v>
+      <c r="B7" s="4">
+        <v>3</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
@@ -720,8 +708,8 @@
       <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>5</v>
+      <c r="B8" s="4">
+        <v>3</v>
       </c>
       <c r="C8" s="5">
         <v>3</v>
@@ -743,8 +731,8 @@
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
+      <c r="B9" s="4">
+        <v>3</v>
       </c>
       <c r="C9" s="5">
         <v>4</v>
@@ -766,8 +754,8 @@
       <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
+      <c r="B10" s="4">
+        <v>3</v>
       </c>
       <c r="C10" s="5">
         <v>5</v>
@@ -789,8 +777,8 @@
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>6</v>
+      <c r="B11" s="4">
+        <v>4</v>
       </c>
       <c r="C11" s="5">
         <v>6</v>
@@ -812,8 +800,8 @@
       <c r="A12" s="4">
         <v>1</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
+      <c r="B12" s="4">
+        <v>4</v>
       </c>
       <c r="C12" s="5">
         <v>7</v>
@@ -835,8 +823,8 @@
       <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>6</v>
+      <c r="B13" s="4">
+        <v>4</v>
       </c>
       <c r="C13" s="5">
         <v>8</v>
@@ -858,8 +846,8 @@
       <c r="A14" s="2">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
+      <c r="B14" s="2">
+        <v>1</v>
       </c>
       <c r="C14" s="3">
         <v>9</v>
@@ -881,8 +869,8 @@
       <c r="A15" s="2">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>3</v>
+      <c r="B15" s="2">
+        <v>1</v>
       </c>
       <c r="C15" s="3">
         <v>10</v>
@@ -904,8 +892,8 @@
       <c r="A16" s="2">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>3</v>
+      <c r="B16" s="2">
+        <v>1</v>
       </c>
       <c r="C16" s="3">
         <v>11</v>
@@ -927,8 +915,8 @@
       <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>3</v>
+      <c r="B17" s="2">
+        <v>1</v>
       </c>
       <c r="C17" s="3">
         <v>12</v>
@@ -950,8 +938,8 @@
       <c r="A18" s="2">
         <v>1</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
+      <c r="B18" s="2">
+        <v>2</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -971,8 +959,8 @@
       <c r="A19" s="2">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
+      <c r="B19" s="2">
+        <v>3</v>
       </c>
       <c r="C19" s="3">
         <v>2</v>
@@ -992,8 +980,8 @@
       <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>5</v>
+      <c r="B20" s="2">
+        <v>3</v>
       </c>
       <c r="C20" s="3">
         <v>3</v>
@@ -1013,8 +1001,8 @@
       <c r="A21" s="2">
         <v>1</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>5</v>
+      <c r="B21" s="2">
+        <v>3</v>
       </c>
       <c r="C21" s="3">
         <v>4</v>
@@ -1028,14 +1016,13 @@
         <v>0</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>1</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>5</v>
+      <c r="B22" s="2">
+        <v>3</v>
       </c>
       <c r="C22" s="3">
         <v>5</v>
@@ -1055,8 +1042,8 @@
       <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>6</v>
+      <c r="B23" s="2">
+        <v>4</v>
       </c>
       <c r="C23" s="3">
         <v>6</v>
@@ -1076,8 +1063,8 @@
       <c r="A24" s="2">
         <v>1</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>6</v>
+      <c r="B24" s="2">
+        <v>4</v>
       </c>
       <c r="C24" s="3">
         <v>7</v>
@@ -1104,8 +1091,8 @@
       <c r="A25" s="2">
         <v>1</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
+      <c r="B25" s="2">
+        <v>4</v>
       </c>
       <c r="C25" s="3">
         <v>8</v>
@@ -1132,8 +1119,8 @@
       <c r="A26" s="4">
         <v>1</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>3</v>
+      <c r="B26" s="4">
+        <v>1</v>
       </c>
       <c r="C26" s="5">
         <v>9</v>
@@ -1160,8 +1147,8 @@
       <c r="A27" s="4">
         <v>1</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>3</v>
+      <c r="B27" s="4">
+        <v>1</v>
       </c>
       <c r="C27" s="5">
         <v>10</v>
@@ -1188,8 +1175,8 @@
       <c r="A28" s="4">
         <v>1</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>3</v>
+      <c r="B28" s="4">
+        <v>1</v>
       </c>
       <c r="C28" s="5">
         <v>11</v>
@@ -1216,8 +1203,8 @@
       <c r="A29" s="4">
         <v>1</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>3</v>
+      <c r="B29" s="4">
+        <v>1</v>
       </c>
       <c r="C29" s="5">
         <v>12</v>
@@ -1244,8 +1231,8 @@
       <c r="A30" s="4">
         <v>1</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>4</v>
+      <c r="B30" s="4">
+        <v>2</v>
       </c>
       <c r="C30" s="5">
         <v>1</v>
@@ -1274,8 +1261,8 @@
       <c r="A31" s="4">
         <v>1</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>5</v>
+      <c r="B31" s="4">
+        <v>3</v>
       </c>
       <c r="C31" s="5">
         <v>2</v>
@@ -1304,8 +1291,8 @@
       <c r="A32" s="4">
         <v>1</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>5</v>
+      <c r="B32" s="4">
+        <v>3</v>
       </c>
       <c r="C32" s="5">
         <v>3</v>
@@ -1334,8 +1321,8 @@
       <c r="A33" s="4">
         <v>1</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>5</v>
+      <c r="B33" s="4">
+        <v>3</v>
       </c>
       <c r="C33" s="5">
         <v>4</v>
@@ -1364,8 +1351,8 @@
       <c r="A34" s="4">
         <v>1</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>5</v>
+      <c r="B34" s="4">
+        <v>3</v>
       </c>
       <c r="C34" s="5">
         <v>5</v>
@@ -1394,8 +1381,8 @@
       <c r="A35" s="4">
         <v>1</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>6</v>
+      <c r="B35" s="4">
+        <v>4</v>
       </c>
       <c r="C35" s="5">
         <v>6</v>
@@ -1424,8 +1411,8 @@
       <c r="A36" s="4">
         <v>1</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>6</v>
+      <c r="B36" s="4">
+        <v>4</v>
       </c>
       <c r="C36" s="5">
         <v>7</v>
@@ -1448,8 +1435,8 @@
       <c r="A37" s="4">
         <v>1</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>6</v>
+      <c r="B37" s="4">
+        <v>4</v>
       </c>
       <c r="C37" s="5">
         <v>8</v>
@@ -1472,8 +1459,8 @@
       <c r="A38" s="2">
         <v>1</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>3</v>
+      <c r="B38" s="2">
+        <v>1</v>
       </c>
       <c r="C38" s="3">
         <v>9</v>
@@ -1494,8 +1481,8 @@
       <c r="A39" s="2">
         <v>1</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>3</v>
+      <c r="B39" s="2">
+        <v>1</v>
       </c>
       <c r="C39" s="3">
         <v>10</v>
@@ -1515,8 +1502,8 @@
       <c r="A40" s="2">
         <v>1</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>3</v>
+      <c r="B40" s="2">
+        <v>1</v>
       </c>
       <c r="C40" s="3">
         <v>11</v>
@@ -1536,8 +1523,8 @@
       <c r="A41" s="2">
         <v>1</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>3</v>
+      <c r="B41" s="2">
+        <v>1</v>
       </c>
       <c r="C41" s="3">
         <v>12</v>
@@ -1557,8 +1544,8 @@
       <c r="A42" s="2">
         <v>1</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>4</v>
+      <c r="B42" s="2">
+        <v>2</v>
       </c>
       <c r="C42" s="3">
         <v>1</v>
@@ -1578,8 +1565,8 @@
       <c r="A43" s="2">
         <v>1</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>5</v>
+      <c r="B43" s="2">
+        <v>3</v>
       </c>
       <c r="C43" s="3">
         <v>2</v>
@@ -1599,8 +1586,8 @@
       <c r="A44" s="2">
         <v>1</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>5</v>
+      <c r="B44" s="2">
+        <v>3</v>
       </c>
       <c r="C44" s="3">
         <v>3</v>
@@ -1620,8 +1607,8 @@
       <c r="A45" s="2">
         <v>1</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>5</v>
+      <c r="B45" s="2">
+        <v>3</v>
       </c>
       <c r="C45" s="3">
         <v>4</v>
@@ -1641,8 +1628,8 @@
       <c r="A46" s="2">
         <v>1</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>5</v>
+      <c r="B46" s="2">
+        <v>3</v>
       </c>
       <c r="C46" s="3">
         <v>5</v>
@@ -1662,8 +1649,8 @@
       <c r="A47" s="2">
         <v>1</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>6</v>
+      <c r="B47" s="2">
+        <v>4</v>
       </c>
       <c r="C47" s="3">
         <v>6</v>
@@ -1683,8 +1670,8 @@
       <c r="A48" s="2">
         <v>1</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>6</v>
+      <c r="B48" s="2">
+        <v>4</v>
       </c>
       <c r="C48" s="3">
         <v>7</v>
@@ -1704,8 +1691,8 @@
       <c r="A49" s="2">
         <v>1</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>6</v>
+      <c r="B49" s="2">
+        <v>4</v>
       </c>
       <c r="C49" s="3">
         <v>8</v>
@@ -1725,8 +1712,8 @@
       <c r="A50" s="4">
         <v>2</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>3</v>
+      <c r="B50" s="4">
+        <v>1</v>
       </c>
       <c r="C50" s="5">
         <v>9</v>
@@ -1746,8 +1733,8 @@
       <c r="A51" s="4">
         <v>2</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>3</v>
+      <c r="B51" s="4">
+        <v>1</v>
       </c>
       <c r="C51" s="5">
         <v>10</v>
@@ -1767,8 +1754,8 @@
       <c r="A52" s="4">
         <v>2</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>3</v>
+      <c r="B52" s="4">
+        <v>1</v>
       </c>
       <c r="C52" s="5">
         <v>11</v>
@@ -1788,8 +1775,8 @@
       <c r="A53" s="4">
         <v>2</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>3</v>
+      <c r="B53" s="4">
+        <v>1</v>
       </c>
       <c r="C53" s="5">
         <v>12</v>
@@ -1809,8 +1796,8 @@
       <c r="A54" s="4">
         <v>2</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>4</v>
+      <c r="B54" s="4">
+        <v>2</v>
       </c>
       <c r="C54" s="5">
         <v>1</v>
@@ -1830,8 +1817,8 @@
       <c r="A55" s="4">
         <v>2</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>5</v>
+      <c r="B55" s="4">
+        <v>3</v>
       </c>
       <c r="C55" s="5">
         <v>2</v>
@@ -1851,8 +1838,8 @@
       <c r="A56" s="4">
         <v>2</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>5</v>
+      <c r="B56" s="4">
+        <v>3</v>
       </c>
       <c r="C56" s="5">
         <v>3</v>
@@ -1872,8 +1859,8 @@
       <c r="A57" s="4">
         <v>2</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>5</v>
+      <c r="B57" s="4">
+        <v>3</v>
       </c>
       <c r="C57" s="5">
         <v>4</v>
@@ -1893,8 +1880,8 @@
       <c r="A58" s="4">
         <v>2</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>5</v>
+      <c r="B58" s="4">
+        <v>3</v>
       </c>
       <c r="C58" s="5">
         <v>5</v>
@@ -1914,8 +1901,8 @@
       <c r="A59" s="4">
         <v>2</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>6</v>
+      <c r="B59" s="4">
+        <v>4</v>
       </c>
       <c r="C59" s="5">
         <v>6</v>
@@ -1935,8 +1922,8 @@
       <c r="A60" s="4">
         <v>2</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>6</v>
+      <c r="B60" s="4">
+        <v>4</v>
       </c>
       <c r="C60" s="5">
         <v>7</v>
@@ -1956,8 +1943,8 @@
       <c r="A61" s="4">
         <v>2</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>6</v>
+      <c r="B61" s="4">
+        <v>4</v>
       </c>
       <c r="C61" s="5">
         <v>8</v>
@@ -1977,8 +1964,8 @@
       <c r="A62" s="2">
         <v>2</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>3</v>
+      <c r="B62" s="2">
+        <v>1</v>
       </c>
       <c r="C62" s="3">
         <v>9</v>
@@ -1998,8 +1985,8 @@
       <c r="A63" s="2">
         <v>2</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>3</v>
+      <c r="B63" s="2">
+        <v>1</v>
       </c>
       <c r="C63" s="3">
         <v>10</v>
@@ -2019,8 +2006,8 @@
       <c r="A64" s="2">
         <v>2</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>3</v>
+      <c r="B64" s="2">
+        <v>1</v>
       </c>
       <c r="C64" s="3">
         <v>11</v>
@@ -2040,8 +2027,8 @@
       <c r="A65" s="2">
         <v>2</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>3</v>
+      <c r="B65" s="2">
+        <v>1</v>
       </c>
       <c r="C65" s="3">
         <v>12</v>
@@ -2061,8 +2048,8 @@
       <c r="A66" s="2">
         <v>2</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>4</v>
+      <c r="B66" s="2">
+        <v>2</v>
       </c>
       <c r="C66" s="3">
         <v>1</v>
@@ -2080,8 +2067,8 @@
       <c r="A67" s="2">
         <v>2</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>5</v>
+      <c r="B67" s="2">
+        <v>3</v>
       </c>
       <c r="C67" s="3">
         <v>2</v>
@@ -2099,8 +2086,8 @@
       <c r="A68" s="2">
         <v>2</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>5</v>
+      <c r="B68" s="2">
+        <v>3</v>
       </c>
       <c r="C68" s="3">
         <v>3</v>
@@ -2118,8 +2105,8 @@
       <c r="A69" s="2">
         <v>2</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>5</v>
+      <c r="B69" s="2">
+        <v>3</v>
       </c>
       <c r="C69" s="3">
         <v>4</v>
@@ -2144,8 +2131,8 @@
       <c r="A70" s="2">
         <v>2</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>5</v>
+      <c r="B70" s="2">
+        <v>3</v>
       </c>
       <c r="C70" s="3">
         <v>5</v>
@@ -2170,8 +2157,8 @@
       <c r="A71" s="2">
         <v>2</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>6</v>
+      <c r="B71" s="2">
+        <v>4</v>
       </c>
       <c r="C71" s="3">
         <v>6</v>
@@ -2196,8 +2183,8 @@
       <c r="A72" s="2">
         <v>2</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>6</v>
+      <c r="B72" s="2">
+        <v>4</v>
       </c>
       <c r="C72" s="3">
         <v>7</v>
@@ -2222,8 +2209,8 @@
       <c r="A73" s="2">
         <v>2</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>6</v>
+      <c r="B73" s="2">
+        <v>4</v>
       </c>
       <c r="C73" s="3">
         <v>8</v>
@@ -2248,8 +2235,8 @@
       <c r="A74" s="4">
         <v>2</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>3</v>
+      <c r="B74" s="4">
+        <v>1</v>
       </c>
       <c r="C74" s="5">
         <v>9</v>
@@ -2274,8 +2261,8 @@
       <c r="A75" s="4">
         <v>2</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>3</v>
+      <c r="B75" s="4">
+        <v>1</v>
       </c>
       <c r="C75" s="5">
         <v>10</v>
@@ -2300,8 +2287,8 @@
       <c r="A76" s="4">
         <v>2</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>3</v>
+      <c r="B76" s="4">
+        <v>1</v>
       </c>
       <c r="C76" s="5">
         <v>11</v>
@@ -2326,8 +2313,8 @@
       <c r="A77" s="4">
         <v>2</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>3</v>
+      <c r="B77" s="4">
+        <v>1</v>
       </c>
       <c r="C77" s="5">
         <v>12</v>
@@ -2352,8 +2339,8 @@
       <c r="A78" s="4">
         <v>2</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>4</v>
+      <c r="B78" s="4">
+        <v>2</v>
       </c>
       <c r="C78" s="5">
         <v>1</v>
@@ -2380,8 +2367,8 @@
       <c r="A79" s="4">
         <v>2</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>5</v>
+      <c r="B79" s="4">
+        <v>3</v>
       </c>
       <c r="C79" s="5">
         <v>2</v>
@@ -2408,8 +2395,8 @@
       <c r="A80" s="4">
         <v>2</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>5</v>
+      <c r="B80" s="4">
+        <v>3</v>
       </c>
       <c r="C80" s="5">
         <v>3</v>
@@ -2436,8 +2423,8 @@
       <c r="A81" s="4">
         <v>2</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>5</v>
+      <c r="B81" s="4">
+        <v>3</v>
       </c>
       <c r="C81" s="5">
         <v>4</v>
@@ -2457,8 +2444,8 @@
       <c r="A82" s="4">
         <v>2</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>5</v>
+      <c r="B82" s="4">
+        <v>3</v>
       </c>
       <c r="C82" s="5">
         <v>5</v>
@@ -2478,8 +2465,8 @@
       <c r="A83" s="4">
         <v>2</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>6</v>
+      <c r="B83" s="4">
+        <v>4</v>
       </c>
       <c r="C83" s="5">
         <v>6</v>
@@ -2499,8 +2486,8 @@
       <c r="A84" s="4">
         <v>2</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>6</v>
+      <c r="B84" s="4">
+        <v>4</v>
       </c>
       <c r="C84" s="5">
         <v>7</v>
@@ -2520,8 +2507,8 @@
       <c r="A85" s="4">
         <v>2</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>6</v>
+      <c r="B85" s="4">
+        <v>4</v>
       </c>
       <c r="C85" s="5">
         <v>8</v>
@@ -2541,8 +2528,8 @@
       <c r="A86" s="2">
         <v>2</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>3</v>
+      <c r="B86" s="2">
+        <v>1</v>
       </c>
       <c r="C86" s="3">
         <v>9</v>
@@ -2562,8 +2549,8 @@
       <c r="A87" s="2">
         <v>2</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>3</v>
+      <c r="B87" s="2">
+        <v>1</v>
       </c>
       <c r="C87" s="3">
         <v>10</v>
@@ -2583,8 +2570,8 @@
       <c r="A88" s="2">
         <v>2</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>3</v>
+      <c r="B88" s="2">
+        <v>1</v>
       </c>
       <c r="C88" s="3">
         <v>11</v>
@@ -2604,8 +2591,8 @@
       <c r="A89" s="2">
         <v>2</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>3</v>
+      <c r="B89" s="2">
+        <v>1</v>
       </c>
       <c r="C89" s="3">
         <v>12</v>
@@ -2625,8 +2612,8 @@
       <c r="A90" s="2">
         <v>2</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>4</v>
+      <c r="B90" s="2">
+        <v>2</v>
       </c>
       <c r="C90" s="3">
         <v>1</v>
@@ -2646,8 +2633,8 @@
       <c r="A91" s="2">
         <v>2</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>5</v>
+      <c r="B91" s="2">
+        <v>3</v>
       </c>
       <c r="C91" s="3">
         <v>2</v>
@@ -2667,8 +2654,8 @@
       <c r="A92" s="2">
         <v>2</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>5</v>
+      <c r="B92" s="2">
+        <v>3</v>
       </c>
       <c r="C92" s="3">
         <v>3</v>
@@ -2688,8 +2675,8 @@
       <c r="A93" s="2">
         <v>2</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>5</v>
+      <c r="B93" s="2">
+        <v>3</v>
       </c>
       <c r="C93" s="3">
         <v>4</v>
@@ -2709,8 +2696,8 @@
       <c r="A94" s="2">
         <v>2</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>5</v>
+      <c r="B94" s="2">
+        <v>3</v>
       </c>
       <c r="C94" s="3">
         <v>5</v>
@@ -2730,8 +2717,8 @@
       <c r="A95" s="2">
         <v>2</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>6</v>
+      <c r="B95" s="2">
+        <v>4</v>
       </c>
       <c r="C95" s="3">
         <v>6</v>
@@ -2751,8 +2738,8 @@
       <c r="A96" s="2">
         <v>2</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>6</v>
+      <c r="B96" s="2">
+        <v>4</v>
       </c>
       <c r="C96" s="3">
         <v>7</v>
@@ -2772,8 +2759,8 @@
       <c r="A97" s="2">
         <v>2</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>6</v>
+      <c r="B97" s="2">
+        <v>4</v>
       </c>
       <c r="C97" s="3">
         <v>8</v>
@@ -2793,8 +2780,8 @@
       <c r="A98" s="4">
         <v>3</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>3</v>
+      <c r="B98" s="4">
+        <v>1</v>
       </c>
       <c r="C98" s="5">
         <v>9</v>
@@ -2821,8 +2808,8 @@
       <c r="A99" s="4">
         <v>3</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>3</v>
+      <c r="B99" s="4">
+        <v>1</v>
       </c>
       <c r="C99" s="5">
         <v>10</v>
@@ -2849,8 +2836,8 @@
       <c r="A100" s="4">
         <v>3</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>3</v>
+      <c r="B100" s="4">
+        <v>1</v>
       </c>
       <c r="C100" s="5">
         <v>11</v>
@@ -2877,8 +2864,8 @@
       <c r="A101" s="4">
         <v>3</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>3</v>
+      <c r="B101" s="4">
+        <v>1</v>
       </c>
       <c r="C101" s="5">
         <v>12</v>
@@ -2905,8 +2892,8 @@
       <c r="A102" s="4">
         <v>3</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>4</v>
+      <c r="B102" s="4">
+        <v>2</v>
       </c>
       <c r="C102" s="5">
         <v>1</v>
@@ -2933,8 +2920,8 @@
       <c r="A103" s="4">
         <v>3</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>5</v>
+      <c r="B103" s="4">
+        <v>3</v>
       </c>
       <c r="C103" s="5">
         <v>2</v>
@@ -2961,8 +2948,8 @@
       <c r="A104" s="4">
         <v>3</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>5</v>
+      <c r="B104" s="4">
+        <v>3</v>
       </c>
       <c r="C104" s="5">
         <v>3</v>
@@ -2989,8 +2976,8 @@
       <c r="A105" s="4">
         <v>3</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>5</v>
+      <c r="B105" s="4">
+        <v>3</v>
       </c>
       <c r="C105" s="5">
         <v>4</v>
@@ -3017,8 +3004,8 @@
       <c r="A106" s="4">
         <v>3</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>5</v>
+      <c r="B106" s="4">
+        <v>3</v>
       </c>
       <c r="C106" s="5">
         <v>5</v>
@@ -3045,8 +3032,8 @@
       <c r="A107" s="4">
         <v>3</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>6</v>
+      <c r="B107" s="4">
+        <v>4</v>
       </c>
       <c r="C107" s="5">
         <v>6</v>
@@ -3073,8 +3060,8 @@
       <c r="A108" s="4">
         <v>3</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>6</v>
+      <c r="B108" s="4">
+        <v>4</v>
       </c>
       <c r="C108" s="5">
         <v>7</v>
@@ -3101,8 +3088,8 @@
       <c r="A109" s="4">
         <v>3</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>6</v>
+      <c r="B109" s="4">
+        <v>4</v>
       </c>
       <c r="C109" s="5">
         <v>8</v>
@@ -3129,8 +3116,8 @@
       <c r="A110" s="2">
         <v>3</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>3</v>
+      <c r="B110" s="2">
+        <v>1</v>
       </c>
       <c r="C110" s="3">
         <v>9</v>
@@ -3150,8 +3137,8 @@
       <c r="A111" s="2">
         <v>3</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>3</v>
+      <c r="B111" s="2">
+        <v>1</v>
       </c>
       <c r="C111" s="3">
         <v>10</v>
@@ -3171,8 +3158,8 @@
       <c r="A112" s="2">
         <v>3</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>3</v>
+      <c r="B112" s="2">
+        <v>1</v>
       </c>
       <c r="C112" s="3">
         <v>11</v>
@@ -3192,8 +3179,8 @@
       <c r="A113" s="2">
         <v>3</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>3</v>
+      <c r="B113" s="2">
+        <v>1</v>
       </c>
       <c r="C113" s="3">
         <v>12</v>
@@ -3213,8 +3200,8 @@
       <c r="A114" s="2">
         <v>3</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>4</v>
+      <c r="B114" s="2">
+        <v>2</v>
       </c>
       <c r="C114" s="3">
         <v>1</v>
@@ -3232,8 +3219,8 @@
       <c r="A115" s="2">
         <v>3</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>5</v>
+      <c r="B115" s="2">
+        <v>3</v>
       </c>
       <c r="C115" s="3">
         <v>2</v>
@@ -3251,8 +3238,8 @@
       <c r="A116" s="2">
         <v>3</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>5</v>
+      <c r="B116" s="2">
+        <v>3</v>
       </c>
       <c r="C116" s="3">
         <v>3</v>
@@ -3270,8 +3257,8 @@
       <c r="A117" s="2">
         <v>3</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>5</v>
+      <c r="B117" s="2">
+        <v>3</v>
       </c>
       <c r="C117" s="3">
         <v>4</v>
@@ -3289,8 +3276,8 @@
       <c r="A118" s="2">
         <v>3</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>5</v>
+      <c r="B118" s="2">
+        <v>3</v>
       </c>
       <c r="C118" s="3">
         <v>5</v>
@@ -3308,8 +3295,8 @@
       <c r="A119" s="2">
         <v>3</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>6</v>
+      <c r="B119" s="2">
+        <v>4</v>
       </c>
       <c r="C119" s="3">
         <v>6</v>
@@ -3327,8 +3314,8 @@
       <c r="A120" s="2">
         <v>3</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>6</v>
+      <c r="B120" s="2">
+        <v>4</v>
       </c>
       <c r="C120" s="3">
         <v>7</v>
@@ -3346,8 +3333,8 @@
       <c r="A121" s="2">
         <v>3</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>6</v>
+      <c r="B121" s="2">
+        <v>4</v>
       </c>
       <c r="C121" s="3">
         <v>8</v>
@@ -3365,8 +3352,8 @@
       <c r="A122" s="4">
         <v>3</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>3</v>
+      <c r="B122" s="4">
+        <v>1</v>
       </c>
       <c r="C122" s="5">
         <v>9</v>
@@ -3384,8 +3371,8 @@
       <c r="A123" s="4">
         <v>3</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>3</v>
+      <c r="B123" s="4">
+        <v>1</v>
       </c>
       <c r="C123" s="5">
         <v>10</v>
@@ -3403,8 +3390,8 @@
       <c r="A124" s="4">
         <v>3</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>3</v>
+      <c r="B124" s="4">
+        <v>1</v>
       </c>
       <c r="C124" s="5">
         <v>11</v>
@@ -3422,8 +3409,8 @@
       <c r="A125" s="4">
         <v>3</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>3</v>
+      <c r="B125" s="4">
+        <v>1</v>
       </c>
       <c r="C125" s="5">
         <v>12</v>
@@ -3441,8 +3428,8 @@
       <c r="A126" s="4">
         <v>3</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>4</v>
+      <c r="B126" s="4">
+        <v>2</v>
       </c>
       <c r="C126" s="5">
         <v>1</v>
@@ -3462,8 +3449,8 @@
       <c r="A127" s="4">
         <v>3</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>5</v>
+      <c r="B127" s="4">
+        <v>3</v>
       </c>
       <c r="C127" s="5">
         <v>2</v>
@@ -3483,8 +3470,8 @@
       <c r="A128" s="4">
         <v>3</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>5</v>
+      <c r="B128" s="4">
+        <v>3</v>
       </c>
       <c r="C128" s="5">
         <v>3</v>
@@ -3504,8 +3491,8 @@
       <c r="A129" s="4">
         <v>3</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>5</v>
+      <c r="B129" s="4">
+        <v>3</v>
       </c>
       <c r="C129" s="5">
         <v>4</v>
@@ -3525,8 +3512,8 @@
       <c r="A130" s="4">
         <v>3</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>5</v>
+      <c r="B130" s="4">
+        <v>3</v>
       </c>
       <c r="C130" s="5">
         <v>5</v>
@@ -3546,8 +3533,8 @@
       <c r="A131" s="4">
         <v>3</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>6</v>
+      <c r="B131" s="4">
+        <v>4</v>
       </c>
       <c r="C131" s="5">
         <v>6</v>
@@ -3567,8 +3554,8 @@
       <c r="A132" s="4">
         <v>3</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>6</v>
+      <c r="B132" s="4">
+        <v>4</v>
       </c>
       <c r="C132" s="5">
         <v>7</v>
@@ -3588,8 +3575,8 @@
       <c r="A133" s="4">
         <v>3</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>6</v>
+      <c r="B133" s="4">
+        <v>4</v>
       </c>
       <c r="C133" s="5">
         <v>8</v>
@@ -3609,8 +3596,8 @@
       <c r="A134" s="2">
         <v>3</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>3</v>
+      <c r="B134" s="2">
+        <v>1</v>
       </c>
       <c r="C134" s="3">
         <v>9</v>
@@ -3630,8 +3617,8 @@
       <c r="A135" s="2">
         <v>3</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>3</v>
+      <c r="B135" s="2">
+        <v>1</v>
       </c>
       <c r="C135" s="3">
         <v>10</v>
@@ -3651,8 +3638,8 @@
       <c r="A136" s="2">
         <v>3</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>3</v>
+      <c r="B136" s="2">
+        <v>1</v>
       </c>
       <c r="C136" s="3">
         <v>11</v>
@@ -3672,8 +3659,8 @@
       <c r="A137" s="2">
         <v>3</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>3</v>
+      <c r="B137" s="2">
+        <v>1</v>
       </c>
       <c r="C137" s="3">
         <v>12</v>
@@ -3693,8 +3680,8 @@
       <c r="A138" s="2">
         <v>3</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>4</v>
+      <c r="B138" s="2">
+        <v>2</v>
       </c>
       <c r="C138" s="3">
         <v>1</v>
@@ -3714,8 +3701,8 @@
       <c r="A139" s="2">
         <v>3</v>
       </c>
-      <c r="B139" s="2" t="s">
-        <v>5</v>
+      <c r="B139" s="2">
+        <v>3</v>
       </c>
       <c r="C139" s="3">
         <v>2</v>
@@ -3735,8 +3722,8 @@
       <c r="A140" s="2">
         <v>3</v>
       </c>
-      <c r="B140" s="2" t="s">
-        <v>5</v>
+      <c r="B140" s="2">
+        <v>3</v>
       </c>
       <c r="C140" s="3">
         <v>3</v>
@@ -3756,8 +3743,8 @@
       <c r="A141" s="2">
         <v>3</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>5</v>
+      <c r="B141" s="2">
+        <v>3</v>
       </c>
       <c r="C141" s="3">
         <v>4</v>
@@ -3777,8 +3764,8 @@
       <c r="A142" s="2">
         <v>3</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>5</v>
+      <c r="B142" s="2">
+        <v>3</v>
       </c>
       <c r="C142" s="3">
         <v>5</v>
@@ -3798,8 +3785,8 @@
       <c r="A143" s="2">
         <v>3</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>6</v>
+      <c r="B143" s="2">
+        <v>4</v>
       </c>
       <c r="C143" s="3">
         <v>6</v>
@@ -3819,8 +3806,8 @@
       <c r="A144" s="2">
         <v>3</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>6</v>
+      <c r="B144" s="2">
+        <v>4</v>
       </c>
       <c r="C144" s="3">
         <v>7</v>
@@ -3840,8 +3827,8 @@
       <c r="A145" s="2">
         <v>3</v>
       </c>
-      <c r="B145" s="2" t="s">
-        <v>6</v>
+      <c r="B145" s="2">
+        <v>4</v>
       </c>
       <c r="C145" s="3">
         <v>8</v>
@@ -3861,8 +3848,8 @@
       <c r="A146" s="4">
         <v>4</v>
       </c>
-      <c r="B146" s="4" t="s">
-        <v>3</v>
+      <c r="B146" s="4">
+        <v>1</v>
       </c>
       <c r="C146" s="5">
         <v>9</v>
@@ -3882,8 +3869,8 @@
       <c r="A147" s="4">
         <v>4</v>
       </c>
-      <c r="B147" s="4" t="s">
-        <v>3</v>
+      <c r="B147" s="4">
+        <v>1</v>
       </c>
       <c r="C147" s="5">
         <v>10</v>
@@ -3903,8 +3890,8 @@
       <c r="A148" s="4">
         <v>4</v>
       </c>
-      <c r="B148" s="4" t="s">
-        <v>3</v>
+      <c r="B148" s="4">
+        <v>1</v>
       </c>
       <c r="C148" s="5">
         <v>11</v>
@@ -3924,8 +3911,8 @@
       <c r="A149" s="4">
         <v>4</v>
       </c>
-      <c r="B149" s="4" t="s">
-        <v>3</v>
+      <c r="B149" s="4">
+        <v>1</v>
       </c>
       <c r="C149" s="5">
         <v>12</v>
@@ -3945,8 +3932,8 @@
       <c r="A150" s="4">
         <v>4</v>
       </c>
-      <c r="B150" s="4" t="s">
-        <v>4</v>
+      <c r="B150" s="4">
+        <v>2</v>
       </c>
       <c r="C150" s="5">
         <v>1</v>
@@ -3966,8 +3953,8 @@
       <c r="A151" s="4">
         <v>4</v>
       </c>
-      <c r="B151" s="4" t="s">
-        <v>5</v>
+      <c r="B151" s="4">
+        <v>3</v>
       </c>
       <c r="C151" s="5">
         <v>2</v>
@@ -3987,8 +3974,8 @@
       <c r="A152" s="4">
         <v>4</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>5</v>
+      <c r="B152" s="4">
+        <v>3</v>
       </c>
       <c r="C152" s="5">
         <v>3</v>
@@ -4008,8 +3995,8 @@
       <c r="A153" s="4">
         <v>4</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>5</v>
+      <c r="B153" s="4">
+        <v>3</v>
       </c>
       <c r="C153" s="5">
         <v>4</v>
@@ -4029,8 +4016,8 @@
       <c r="A154" s="4">
         <v>4</v>
       </c>
-      <c r="B154" s="4" t="s">
-        <v>5</v>
+      <c r="B154" s="4">
+        <v>3</v>
       </c>
       <c r="C154" s="5">
         <v>5</v>
@@ -4050,8 +4037,8 @@
       <c r="A155" s="4">
         <v>4</v>
       </c>
-      <c r="B155" s="4" t="s">
-        <v>6</v>
+      <c r="B155" s="4">
+        <v>4</v>
       </c>
       <c r="C155" s="5">
         <v>6</v>
@@ -4071,8 +4058,8 @@
       <c r="A156" s="4">
         <v>4</v>
       </c>
-      <c r="B156" s="4" t="s">
-        <v>6</v>
+      <c r="B156" s="4">
+        <v>4</v>
       </c>
       <c r="C156" s="5">
         <v>7</v>
@@ -4092,8 +4079,8 @@
       <c r="A157" s="4">
         <v>4</v>
       </c>
-      <c r="B157" s="4" t="s">
-        <v>6</v>
+      <c r="B157" s="4">
+        <v>4</v>
       </c>
       <c r="C157" s="5">
         <v>8</v>
@@ -4113,8 +4100,8 @@
       <c r="A158" s="2">
         <v>4</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>3</v>
+      <c r="B158" s="2">
+        <v>1</v>
       </c>
       <c r="C158" s="3">
         <v>9</v>
@@ -4134,8 +4121,8 @@
       <c r="A159" s="2">
         <v>4</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>3</v>
+      <c r="B159" s="2">
+        <v>1</v>
       </c>
       <c r="C159" s="3">
         <v>10</v>
@@ -4155,8 +4142,8 @@
       <c r="A160" s="2">
         <v>4</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>3</v>
+      <c r="B160" s="2">
+        <v>1</v>
       </c>
       <c r="C160" s="3">
         <v>11</v>
@@ -4176,8 +4163,8 @@
       <c r="A161" s="2">
         <v>4</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>3</v>
+      <c r="B161" s="2">
+        <v>1</v>
       </c>
       <c r="C161" s="3">
         <v>12</v>
@@ -4197,8 +4184,8 @@
       <c r="A162" s="2">
         <v>4</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>4</v>
+      <c r="B162" s="2">
+        <v>2</v>
       </c>
       <c r="C162" s="3">
         <v>1</v>
@@ -4216,8 +4203,8 @@
       <c r="A163" s="2">
         <v>4</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>5</v>
+      <c r="B163" s="2">
+        <v>3</v>
       </c>
       <c r="C163" s="3">
         <v>2</v>
@@ -4235,8 +4222,8 @@
       <c r="A164" s="2">
         <v>4</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>5</v>
+      <c r="B164" s="2">
+        <v>3</v>
       </c>
       <c r="C164" s="3">
         <v>3</v>
@@ -4254,8 +4241,8 @@
       <c r="A165" s="2">
         <v>4</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>5</v>
+      <c r="B165" s="2">
+        <v>3</v>
       </c>
       <c r="C165" s="3">
         <v>4</v>
@@ -4273,8 +4260,8 @@
       <c r="A166" s="2">
         <v>4</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>5</v>
+      <c r="B166" s="2">
+        <v>3</v>
       </c>
       <c r="C166" s="3">
         <v>5</v>
@@ -4292,8 +4279,8 @@
       <c r="A167" s="2">
         <v>4</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>6</v>
+      <c r="B167" s="2">
+        <v>4</v>
       </c>
       <c r="C167" s="3">
         <v>6</v>
@@ -4311,8 +4298,8 @@
       <c r="A168" s="2">
         <v>4</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>6</v>
+      <c r="B168" s="2">
+        <v>4</v>
       </c>
       <c r="C168" s="3">
         <v>7</v>
@@ -4330,8 +4317,8 @@
       <c r="A169" s="2">
         <v>4</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>6</v>
+      <c r="B169" s="2">
+        <v>4</v>
       </c>
       <c r="C169" s="3">
         <v>8</v>
@@ -4349,8 +4336,8 @@
       <c r="A170" s="4">
         <v>4</v>
       </c>
-      <c r="B170" s="4" t="s">
-        <v>3</v>
+      <c r="B170" s="4">
+        <v>1</v>
       </c>
       <c r="C170" s="5">
         <v>9</v>
@@ -4368,8 +4355,8 @@
       <c r="A171" s="4">
         <v>4</v>
       </c>
-      <c r="B171" s="4" t="s">
-        <v>3</v>
+      <c r="B171" s="4">
+        <v>1</v>
       </c>
       <c r="C171" s="5">
         <v>10</v>
@@ -4387,8 +4374,8 @@
       <c r="A172" s="4">
         <v>4</v>
       </c>
-      <c r="B172" s="4" t="s">
-        <v>3</v>
+      <c r="B172" s="4">
+        <v>1</v>
       </c>
       <c r="C172" s="5">
         <v>11</v>
@@ -4406,8 +4393,8 @@
       <c r="A173" s="4">
         <v>4</v>
       </c>
-      <c r="B173" s="4" t="s">
-        <v>3</v>
+      <c r="B173" s="4">
+        <v>1</v>
       </c>
       <c r="C173" s="5">
         <v>12</v>
@@ -4425,8 +4412,8 @@
       <c r="A174" s="4">
         <v>4</v>
       </c>
-      <c r="B174" s="4" t="s">
-        <v>4</v>
+      <c r="B174" s="4">
+        <v>2</v>
       </c>
       <c r="C174" s="5">
         <v>1</v>
@@ -4446,8 +4433,8 @@
       <c r="A175" s="4">
         <v>4</v>
       </c>
-      <c r="B175" s="4" t="s">
-        <v>5</v>
+      <c r="B175" s="4">
+        <v>3</v>
       </c>
       <c r="C175" s="5">
         <v>2</v>
@@ -4467,8 +4454,8 @@
       <c r="A176" s="4">
         <v>4</v>
       </c>
-      <c r="B176" s="4" t="s">
-        <v>5</v>
+      <c r="B176" s="4">
+        <v>3</v>
       </c>
       <c r="C176" s="5">
         <v>3</v>
@@ -4488,8 +4475,8 @@
       <c r="A177" s="4">
         <v>4</v>
       </c>
-      <c r="B177" s="4" t="s">
-        <v>5</v>
+      <c r="B177" s="4">
+        <v>3</v>
       </c>
       <c r="C177" s="5">
         <v>4</v>
@@ -4509,8 +4496,8 @@
       <c r="A178" s="4">
         <v>4</v>
       </c>
-      <c r="B178" s="4" t="s">
-        <v>5</v>
+      <c r="B178" s="4">
+        <v>3</v>
       </c>
       <c r="C178" s="5">
         <v>5</v>
@@ -4530,8 +4517,8 @@
       <c r="A179" s="4">
         <v>4</v>
       </c>
-      <c r="B179" s="4" t="s">
-        <v>6</v>
+      <c r="B179" s="4">
+        <v>4</v>
       </c>
       <c r="C179" s="5">
         <v>6</v>
@@ -4551,8 +4538,8 @@
       <c r="A180" s="4">
         <v>4</v>
       </c>
-      <c r="B180" s="4" t="s">
-        <v>6</v>
+      <c r="B180" s="4">
+        <v>4</v>
       </c>
       <c r="C180" s="5">
         <v>7</v>
@@ -4572,8 +4559,8 @@
       <c r="A181" s="4">
         <v>4</v>
       </c>
-      <c r="B181" s="4" t="s">
-        <v>6</v>
+      <c r="B181" s="4">
+        <v>4</v>
       </c>
       <c r="C181" s="5">
         <v>8</v>
@@ -4593,8 +4580,8 @@
       <c r="A182" s="2">
         <v>4</v>
       </c>
-      <c r="B182" s="2" t="s">
-        <v>3</v>
+      <c r="B182" s="2">
+        <v>1</v>
       </c>
       <c r="C182" s="3">
         <v>9</v>
@@ -4614,8 +4601,8 @@
       <c r="A183" s="2">
         <v>4</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>3</v>
+      <c r="B183" s="2">
+        <v>1</v>
       </c>
       <c r="C183" s="3">
         <v>10</v>
@@ -4635,8 +4622,8 @@
       <c r="A184" s="2">
         <v>4</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>3</v>
+      <c r="B184" s="2">
+        <v>1</v>
       </c>
       <c r="C184" s="3">
         <v>11</v>
@@ -4656,8 +4643,8 @@
       <c r="A185" s="2">
         <v>4</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>3</v>
+      <c r="B185" s="2">
+        <v>1</v>
       </c>
       <c r="C185" s="3">
         <v>12</v>
@@ -4677,8 +4664,8 @@
       <c r="A186" s="2">
         <v>4</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>4</v>
+      <c r="B186" s="2">
+        <v>2</v>
       </c>
       <c r="C186" s="3">
         <v>1</v>
@@ -4698,8 +4685,8 @@
       <c r="A187" s="2">
         <v>4</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>5</v>
+      <c r="B187" s="2">
+        <v>3</v>
       </c>
       <c r="C187" s="3">
         <v>2</v>
@@ -4719,8 +4706,8 @@
       <c r="A188" s="2">
         <v>4</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>5</v>
+      <c r="B188" s="2">
+        <v>3</v>
       </c>
       <c r="C188" s="3">
         <v>3</v>
@@ -4740,8 +4727,8 @@
       <c r="A189" s="2">
         <v>4</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>5</v>
+      <c r="B189" s="2">
+        <v>3</v>
       </c>
       <c r="C189" s="3">
         <v>4</v>
@@ -4761,8 +4748,8 @@
       <c r="A190" s="2">
         <v>4</v>
       </c>
-      <c r="B190" s="2" t="s">
-        <v>5</v>
+      <c r="B190" s="2">
+        <v>3</v>
       </c>
       <c r="C190" s="3">
         <v>5</v>
@@ -4782,8 +4769,8 @@
       <c r="A191" s="2">
         <v>4</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>6</v>
+      <c r="B191" s="2">
+        <v>4</v>
       </c>
       <c r="C191" s="3">
         <v>6</v>
@@ -4803,8 +4790,8 @@
       <c r="A192" s="2">
         <v>4</v>
       </c>
-      <c r="B192" s="2" t="s">
-        <v>6</v>
+      <c r="B192" s="2">
+        <v>4</v>
       </c>
       <c r="C192" s="3">
         <v>7</v>
@@ -4824,8 +4811,8 @@
       <c r="A193" s="2">
         <v>4</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>6</v>
+      <c r="B193" s="2">
+        <v>4</v>
       </c>
       <c r="C193" s="3">
         <v>8</v>
@@ -4845,8 +4832,8 @@
       <c r="A194" s="4">
         <v>5</v>
       </c>
-      <c r="B194" s="4" t="s">
-        <v>3</v>
+      <c r="B194" s="4">
+        <v>1</v>
       </c>
       <c r="C194" s="5">
         <v>9</v>
@@ -4866,8 +4853,8 @@
       <c r="A195" s="4">
         <v>5</v>
       </c>
-      <c r="B195" s="4" t="s">
-        <v>3</v>
+      <c r="B195" s="4">
+        <v>1</v>
       </c>
       <c r="C195" s="5">
         <v>10</v>
@@ -4887,8 +4874,8 @@
       <c r="A196" s="4">
         <v>5</v>
       </c>
-      <c r="B196" s="4" t="s">
-        <v>3</v>
+      <c r="B196" s="4">
+        <v>1</v>
       </c>
       <c r="C196" s="5">
         <v>11</v>
@@ -4908,8 +4895,8 @@
       <c r="A197" s="4">
         <v>5</v>
       </c>
-      <c r="B197" s="4" t="s">
-        <v>3</v>
+      <c r="B197" s="4">
+        <v>1</v>
       </c>
       <c r="C197" s="5">
         <v>12</v>
@@ -4929,8 +4916,8 @@
       <c r="A198" s="4">
         <v>5</v>
       </c>
-      <c r="B198" s="4" t="s">
-        <v>4</v>
+      <c r="B198" s="4">
+        <v>2</v>
       </c>
       <c r="C198" s="5">
         <v>1</v>
@@ -4950,8 +4937,8 @@
       <c r="A199" s="4">
         <v>5</v>
       </c>
-      <c r="B199" s="4" t="s">
-        <v>5</v>
+      <c r="B199" s="4">
+        <v>3</v>
       </c>
       <c r="C199" s="5">
         <v>2</v>
@@ -4971,8 +4958,8 @@
       <c r="A200" s="4">
         <v>5</v>
       </c>
-      <c r="B200" s="4" t="s">
-        <v>5</v>
+      <c r="B200" s="4">
+        <v>3</v>
       </c>
       <c r="C200" s="5">
         <v>3</v>
@@ -4992,8 +4979,8 @@
       <c r="A201" s="4">
         <v>5</v>
       </c>
-      <c r="B201" s="4" t="s">
-        <v>5</v>
+      <c r="B201" s="4">
+        <v>3</v>
       </c>
       <c r="C201" s="5">
         <v>4</v>
@@ -5013,8 +5000,8 @@
       <c r="A202" s="4">
         <v>5</v>
       </c>
-      <c r="B202" s="4" t="s">
-        <v>5</v>
+      <c r="B202" s="4">
+        <v>3</v>
       </c>
       <c r="C202" s="5">
         <v>5</v>
@@ -5034,8 +5021,8 @@
       <c r="A203" s="4">
         <v>5</v>
       </c>
-      <c r="B203" s="4" t="s">
-        <v>6</v>
+      <c r="B203" s="4">
+        <v>4</v>
       </c>
       <c r="C203" s="5">
         <v>6</v>
@@ -5055,8 +5042,8 @@
       <c r="A204" s="4">
         <v>5</v>
       </c>
-      <c r="B204" s="4" t="s">
-        <v>6</v>
+      <c r="B204" s="4">
+        <v>4</v>
       </c>
       <c r="C204" s="5">
         <v>7</v>
@@ -5076,8 +5063,8 @@
       <c r="A205" s="4">
         <v>5</v>
       </c>
-      <c r="B205" s="4" t="s">
-        <v>6</v>
+      <c r="B205" s="4">
+        <v>4</v>
       </c>
       <c r="C205" s="5">
         <v>8</v>
@@ -5097,8 +5084,8 @@
       <c r="A206" s="2">
         <v>5</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>3</v>
+      <c r="B206" s="2">
+        <v>1</v>
       </c>
       <c r="C206" s="3">
         <v>9</v>
@@ -5118,8 +5105,8 @@
       <c r="A207" s="2">
         <v>5</v>
       </c>
-      <c r="B207" s="2" t="s">
-        <v>3</v>
+      <c r="B207" s="2">
+        <v>1</v>
       </c>
       <c r="C207" s="3">
         <v>10</v>
@@ -5139,8 +5126,8 @@
       <c r="A208" s="2">
         <v>5</v>
       </c>
-      <c r="B208" s="2" t="s">
-        <v>3</v>
+      <c r="B208" s="2">
+        <v>1</v>
       </c>
       <c r="C208" s="3">
         <v>11</v>
@@ -5160,8 +5147,8 @@
       <c r="A209" s="2">
         <v>5</v>
       </c>
-      <c r="B209" s="2" t="s">
-        <v>3</v>
+      <c r="B209" s="2">
+        <v>1</v>
       </c>
       <c r="C209" s="3">
         <v>12</v>
@@ -5181,8 +5168,8 @@
       <c r="A210" s="2">
         <v>5</v>
       </c>
-      <c r="B210" s="2" t="s">
-        <v>4</v>
+      <c r="B210" s="2">
+        <v>2</v>
       </c>
       <c r="C210" s="3">
         <v>1</v>
@@ -5200,8 +5187,8 @@
       <c r="A211" s="2">
         <v>5</v>
       </c>
-      <c r="B211" s="2" t="s">
-        <v>5</v>
+      <c r="B211" s="2">
+        <v>3</v>
       </c>
       <c r="C211" s="3">
         <v>2</v>
@@ -5219,8 +5206,8 @@
       <c r="A212" s="2">
         <v>5</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>5</v>
+      <c r="B212" s="2">
+        <v>3</v>
       </c>
       <c r="C212" s="3">
         <v>3</v>
@@ -5238,8 +5225,8 @@
       <c r="A213" s="2">
         <v>5</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>5</v>
+      <c r="B213" s="2">
+        <v>3</v>
       </c>
       <c r="C213" s="3">
         <v>4</v>
@@ -5257,8 +5244,8 @@
       <c r="A214" s="2">
         <v>5</v>
       </c>
-      <c r="B214" s="2" t="s">
-        <v>5</v>
+      <c r="B214" s="2">
+        <v>3</v>
       </c>
       <c r="C214" s="3">
         <v>5</v>
@@ -5276,8 +5263,8 @@
       <c r="A215" s="2">
         <v>5</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>6</v>
+      <c r="B215" s="2">
+        <v>4</v>
       </c>
       <c r="C215" s="3">
         <v>6</v>
@@ -5295,8 +5282,8 @@
       <c r="A216" s="2">
         <v>5</v>
       </c>
-      <c r="B216" s="2" t="s">
-        <v>6</v>
+      <c r="B216" s="2">
+        <v>4</v>
       </c>
       <c r="C216" s="3">
         <v>7</v>
@@ -5314,8 +5301,8 @@
       <c r="A217" s="2">
         <v>5</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>6</v>
+      <c r="B217" s="2">
+        <v>4</v>
       </c>
       <c r="C217" s="3">
         <v>8</v>
@@ -5333,8 +5320,8 @@
       <c r="A218" s="4">
         <v>5</v>
       </c>
-      <c r="B218" s="4" t="s">
-        <v>3</v>
+      <c r="B218" s="4">
+        <v>1</v>
       </c>
       <c r="C218" s="5">
         <v>9</v>
@@ -5352,8 +5339,8 @@
       <c r="A219" s="4">
         <v>5</v>
       </c>
-      <c r="B219" s="4" t="s">
-        <v>3</v>
+      <c r="B219" s="4">
+        <v>1</v>
       </c>
       <c r="C219" s="5">
         <v>10</v>
@@ -5371,8 +5358,8 @@
       <c r="A220" s="4">
         <v>5</v>
       </c>
-      <c r="B220" s="4" t="s">
-        <v>3</v>
+      <c r="B220" s="4">
+        <v>1</v>
       </c>
       <c r="C220" s="5">
         <v>11</v>
@@ -5390,8 +5377,8 @@
       <c r="A221" s="4">
         <v>5</v>
       </c>
-      <c r="B221" s="4" t="s">
-        <v>3</v>
+      <c r="B221" s="4">
+        <v>1</v>
       </c>
       <c r="C221" s="5">
         <v>12</v>
@@ -5409,8 +5396,8 @@
       <c r="A222" s="4">
         <v>5</v>
       </c>
-      <c r="B222" s="4" t="s">
-        <v>4</v>
+      <c r="B222" s="4">
+        <v>2</v>
       </c>
       <c r="C222" s="5">
         <v>1</v>
@@ -5430,8 +5417,8 @@
       <c r="A223" s="4">
         <v>5</v>
       </c>
-      <c r="B223" s="4" t="s">
-        <v>5</v>
+      <c r="B223" s="4">
+        <v>3</v>
       </c>
       <c r="C223" s="5">
         <v>2</v>
@@ -5451,8 +5438,8 @@
       <c r="A224" s="4">
         <v>5</v>
       </c>
-      <c r="B224" s="4" t="s">
-        <v>5</v>
+      <c r="B224" s="4">
+        <v>3</v>
       </c>
       <c r="C224" s="5">
         <v>3</v>
@@ -5472,8 +5459,8 @@
       <c r="A225" s="4">
         <v>5</v>
       </c>
-      <c r="B225" s="4" t="s">
-        <v>5</v>
+      <c r="B225" s="4">
+        <v>3</v>
       </c>
       <c r="C225" s="5">
         <v>4</v>
@@ -5493,8 +5480,8 @@
       <c r="A226" s="4">
         <v>5</v>
       </c>
-      <c r="B226" s="4" t="s">
-        <v>5</v>
+      <c r="B226" s="4">
+        <v>3</v>
       </c>
       <c r="C226" s="5">
         <v>5</v>
@@ -5514,8 +5501,8 @@
       <c r="A227" s="4">
         <v>5</v>
       </c>
-      <c r="B227" s="4" t="s">
-        <v>6</v>
+      <c r="B227" s="4">
+        <v>4</v>
       </c>
       <c r="C227" s="5">
         <v>6</v>
@@ -5535,8 +5522,8 @@
       <c r="A228" s="4">
         <v>5</v>
       </c>
-      <c r="B228" s="4" t="s">
-        <v>6</v>
+      <c r="B228" s="4">
+        <v>4</v>
       </c>
       <c r="C228" s="5">
         <v>7</v>
@@ -5556,8 +5543,8 @@
       <c r="A229" s="4">
         <v>5</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>6</v>
+      <c r="B229" s="4">
+        <v>4</v>
       </c>
       <c r="C229" s="5">
         <v>8</v>
@@ -5577,8 +5564,8 @@
       <c r="A230" s="2">
         <v>5</v>
       </c>
-      <c r="B230" s="2" t="s">
-        <v>3</v>
+      <c r="B230" s="2">
+        <v>1</v>
       </c>
       <c r="C230" s="3">
         <v>9</v>
@@ -5598,8 +5585,8 @@
       <c r="A231" s="2">
         <v>5</v>
       </c>
-      <c r="B231" s="2" t="s">
-        <v>3</v>
+      <c r="B231" s="2">
+        <v>1</v>
       </c>
       <c r="C231" s="3">
         <v>10</v>
@@ -5619,8 +5606,8 @@
       <c r="A232" s="2">
         <v>5</v>
       </c>
-      <c r="B232" s="2" t="s">
-        <v>3</v>
+      <c r="B232" s="2">
+        <v>1</v>
       </c>
       <c r="C232" s="3">
         <v>11</v>
@@ -5640,8 +5627,8 @@
       <c r="A233" s="2">
         <v>5</v>
       </c>
-      <c r="B233" s="2" t="s">
-        <v>3</v>
+      <c r="B233" s="2">
+        <v>1</v>
       </c>
       <c r="C233" s="3">
         <v>12</v>
@@ -5661,8 +5648,8 @@
       <c r="A234" s="2">
         <v>5</v>
       </c>
-      <c r="B234" s="2" t="s">
-        <v>4</v>
+      <c r="B234" s="2">
+        <v>2</v>
       </c>
       <c r="C234" s="3">
         <v>1</v>
@@ -5682,8 +5669,8 @@
       <c r="A235" s="2">
         <v>5</v>
       </c>
-      <c r="B235" s="2" t="s">
-        <v>5</v>
+      <c r="B235" s="2">
+        <v>3</v>
       </c>
       <c r="C235" s="3">
         <v>2</v>
@@ -5703,8 +5690,8 @@
       <c r="A236" s="2">
         <v>5</v>
       </c>
-      <c r="B236" s="2" t="s">
-        <v>5</v>
+      <c r="B236" s="2">
+        <v>3</v>
       </c>
       <c r="C236" s="3">
         <v>3</v>
@@ -5724,8 +5711,8 @@
       <c r="A237" s="2">
         <v>5</v>
       </c>
-      <c r="B237" s="2" t="s">
-        <v>5</v>
+      <c r="B237" s="2">
+        <v>3</v>
       </c>
       <c r="C237" s="3">
         <v>4</v>
@@ -5745,8 +5732,8 @@
       <c r="A238" s="2">
         <v>5</v>
       </c>
-      <c r="B238" s="2" t="s">
-        <v>5</v>
+      <c r="B238" s="2">
+        <v>3</v>
       </c>
       <c r="C238" s="3">
         <v>5</v>
@@ -5766,8 +5753,8 @@
       <c r="A239" s="2">
         <v>5</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>6</v>
+      <c r="B239" s="2">
+        <v>4</v>
       </c>
       <c r="C239" s="3">
         <v>6</v>
@@ -5787,8 +5774,8 @@
       <c r="A240" s="2">
         <v>5</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>6</v>
+      <c r="B240" s="2">
+        <v>4</v>
       </c>
       <c r="C240" s="3">
         <v>7</v>
@@ -5808,8 +5795,8 @@
       <c r="A241" s="2">
         <v>5</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>6</v>
+      <c r="B241" s="2">
+        <v>4</v>
       </c>
       <c r="C241" s="3">
         <v>8</v>

--- a/DinningData.xlsx
+++ b/DinningData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m.mughees/Desktop/DailyHours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F164DC42-F400-D340-8D89-149C526759DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B87450-8C21-CF46-A60F-60E3857A81A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16040" yWindow="-26720" windowWidth="28800" windowHeight="16280" xr2:uid="{DE998561-EBAC-6C45-B2D5-E0BAD589018C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DE998561-EBAC-6C45-B2D5-E0BAD589018C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -141,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -187,12 +187,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9694C3E-4676-5E45-83AA-01CD38B8296E}">
   <dimension ref="A1:T241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K230" sqref="K230"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.2"/>
@@ -934,7 +928,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -947,15 +941,17 @@
       <c r="D18" s="2">
         <v>2022</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="13">
+        <v>1413.2157629999999</v>
+      </c>
       <c r="F18" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11659.030044749999</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1</v>
       </c>
@@ -968,15 +964,17 @@
       <c r="D19" s="2">
         <v>2022</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="13">
+        <v>1122.31664</v>
+      </c>
       <c r="F19" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9259.1122799999994</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -989,15 +987,17 @@
       <c r="D20" s="2">
         <v>2022</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="13">
+        <v>1082.625438</v>
+      </c>
       <c r="F20" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8931.6598635000009</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -1010,14 +1010,16 @@
       <c r="D21" s="2">
         <v>2022</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="13">
+        <v>1042.9342369999999</v>
+      </c>
       <c r="F21" s="8">
         <f t="shared" ref="F21:F49" si="2">E21*9.25</f>
-        <v>0</v>
+        <v>9647.1416922499993</v>
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -1030,15 +1032,17 @@
       <c r="D22" s="2">
         <v>2022</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="13">
+        <v>1003.243036</v>
+      </c>
       <c r="F22" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9279.9980830000004</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -1051,15 +1055,17 @@
       <c r="D23" s="2">
         <v>2022</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="13">
+        <v>712.34391300000004</v>
+      </c>
       <c r="F23" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6589.1811952500002</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -1072,10 +1078,12 @@
       <c r="D24" s="2">
         <v>2022</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="13">
+        <v>672.65271099999995</v>
+      </c>
       <c r="F24" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6222.03757675</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1087,7 +1095,7 @@
       <c r="S24" s="16"/>
       <c r="T24" s="15"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -1100,10 +1108,12 @@
       <c r="D25" s="2">
         <v>2022</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="13">
+        <v>632.96150999999998</v>
+      </c>
       <c r="F25" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5854.8939675000001</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1115,7 +1125,7 @@
       <c r="S25" s="16"/>
       <c r="T25" s="15"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>1</v>
       </c>
@@ -1128,10 +1138,12 @@
       <c r="D26" s="4">
         <v>2022</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="12">
+        <v>1346.8940749999999</v>
+      </c>
       <c r="F26" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12458.770193749999</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1143,7 +1155,7 @@
       <c r="S26" s="16"/>
       <c r="T26" s="15"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>1</v>
       </c>
@@ -1156,10 +1168,12 @@
       <c r="D27" s="4">
         <v>2022</v>
       </c>
-      <c r="E27" s="18"/>
+      <c r="E27" s="12">
+        <v>1307.2028740000001</v>
+      </c>
       <c r="F27" s="9">
         <f>E27*9.25</f>
-        <v>0</v>
+        <v>12091.6265845</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -1171,7 +1185,7 @@
       <c r="S27" s="16"/>
       <c r="T27" s="15"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>1</v>
       </c>
@@ -1184,10 +1198,12 @@
       <c r="D28" s="4">
         <v>2022</v>
       </c>
-      <c r="E28" s="18"/>
+      <c r="E28" s="12">
+        <v>1267.511673</v>
+      </c>
       <c r="F28" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11724.482975249999</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -1199,7 +1215,7 @@
       <c r="S28" s="16"/>
       <c r="T28" s="15"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>1</v>
       </c>
@@ -1212,10 +1228,12 @@
       <c r="D29" s="4">
         <v>2022</v>
       </c>
-      <c r="E29" s="18"/>
+      <c r="E29" s="12">
+        <v>1227.820471</v>
+      </c>
       <c r="F29" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11357.339356750001</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>

--- a/DinningData.xlsx
+++ b/DinningData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m.mughees/Desktop/DailyHours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FA98F7-37CF-0244-A4F3-96C1136D968A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F015619-58A3-884A-86A1-DB15764A0919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DE998561-EBAC-6C45-B2D5-E0BAD589018C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{DE998561-EBAC-6C45-B2D5-E0BAD589018C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cleaned Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Data for Linear" sheetId="2" r:id="rId2"/>
+    <sheet name="Data for 2025 pred" sheetId="3" r:id="rId2"/>
+    <sheet name="Data for Linear" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="32">
   <si>
     <t>DEP</t>
   </si>
@@ -232,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,6 +287,39 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9694C3E-4676-5E45-83AA-01CD38B8296E}">
   <dimension ref="A1:T241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.2"/>
@@ -6033,11 +6067,6278 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED2650A-6E4F-6D49-92A6-976CF649E6D8}">
+  <dimension ref="A1:T286"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="31" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="32" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="22" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="23">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24">
+        <v>9</v>
+      </c>
+      <c r="D2" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E2" s="25">
+        <v>3859.98</v>
+      </c>
+      <c r="F2" s="22">
+        <f>E2*8.25</f>
+        <v>31844.834999999999</v>
+      </c>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+    </row>
+    <row r="3" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24">
+        <v>10</v>
+      </c>
+      <c r="D3" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E3" s="25">
+        <v>4722.9799999999996</v>
+      </c>
+      <c r="F3" s="22">
+        <f t="shared" ref="F3:F13" si="0">E3*8.25</f>
+        <v>38964.584999999999</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24">
+        <v>11</v>
+      </c>
+      <c r="D4" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E4" s="25">
+        <v>2842.68</v>
+      </c>
+      <c r="F4" s="22">
+        <f t="shared" si="0"/>
+        <v>23452.109999999997</v>
+      </c>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>1</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24">
+        <v>12</v>
+      </c>
+      <c r="D5" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E5" s="25">
+        <v>1348.5</v>
+      </c>
+      <c r="F5" s="22">
+        <f t="shared" si="0"/>
+        <v>11125.125</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>1</v>
+      </c>
+      <c r="B6" s="23">
+        <v>2</v>
+      </c>
+      <c r="C6" s="24">
+        <v>1</v>
+      </c>
+      <c r="D6" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E6" s="25">
+        <v>2247.9899999999998</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" si="0"/>
+        <v>18545.9175</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+    </row>
+    <row r="7" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>1</v>
+      </c>
+      <c r="B7" s="23">
+        <v>3</v>
+      </c>
+      <c r="C7" s="24">
+        <v>2</v>
+      </c>
+      <c r="D7" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E7" s="25">
+        <v>2226.9699999999998</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" si="0"/>
+        <v>18372.502499999999</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>1</v>
+      </c>
+      <c r="B8" s="23">
+        <v>3</v>
+      </c>
+      <c r="C8" s="24">
+        <v>3</v>
+      </c>
+      <c r="D8" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E8" s="25">
+        <v>2554.3200000000002</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="0"/>
+        <v>21073.140000000003</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>1</v>
+      </c>
+      <c r="B9" s="23">
+        <v>3</v>
+      </c>
+      <c r="C9" s="24">
+        <v>4</v>
+      </c>
+      <c r="D9" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E9" s="25">
+        <v>1805.98</v>
+      </c>
+      <c r="F9" s="22">
+        <f t="shared" si="0"/>
+        <v>14899.335000000001</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>1</v>
+      </c>
+      <c r="B10" s="23">
+        <v>3</v>
+      </c>
+      <c r="C10" s="24">
+        <v>5</v>
+      </c>
+      <c r="D10" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E10" s="25">
+        <v>1089.94</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" si="0"/>
+        <v>8992.005000000001</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>1</v>
+      </c>
+      <c r="B11" s="23">
+        <v>4</v>
+      </c>
+      <c r="C11" s="24">
+        <v>6</v>
+      </c>
+      <c r="D11" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E11" s="25">
+        <v>262.36</v>
+      </c>
+      <c r="F11" s="22">
+        <f t="shared" si="0"/>
+        <v>2164.4700000000003</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>1</v>
+      </c>
+      <c r="B12" s="23">
+        <v>4</v>
+      </c>
+      <c r="C12" s="24">
+        <v>7</v>
+      </c>
+      <c r="D12" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E12" s="25">
+        <v>209.56</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" si="0"/>
+        <v>1728.8700000000001</v>
+      </c>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>1</v>
+      </c>
+      <c r="B13" s="23">
+        <v>4</v>
+      </c>
+      <c r="C13" s="24">
+        <v>8</v>
+      </c>
+      <c r="D13" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E13" s="25">
+        <v>509.91</v>
+      </c>
+      <c r="F13" s="22">
+        <f t="shared" si="0"/>
+        <v>4206.7575000000006</v>
+      </c>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>1</v>
+      </c>
+      <c r="B14" s="23">
+        <v>1</v>
+      </c>
+      <c r="C14" s="24">
+        <v>9</v>
+      </c>
+      <c r="D14" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E14" s="25">
+        <v>2854.16</v>
+      </c>
+      <c r="F14" s="22">
+        <f>E14*8.25</f>
+        <v>23546.82</v>
+      </c>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+    </row>
+    <row r="15" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>1</v>
+      </c>
+      <c r="B15" s="23">
+        <v>1</v>
+      </c>
+      <c r="C15" s="24">
+        <v>10</v>
+      </c>
+      <c r="D15" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E15" s="25">
+        <v>2101.19</v>
+      </c>
+      <c r="F15" s="22">
+        <f t="shared" ref="F15:F20" si="1">E15*8.25</f>
+        <v>17334.817500000001</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" ht="22" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>1</v>
+      </c>
+      <c r="B16" s="23">
+        <v>1</v>
+      </c>
+      <c r="C16" s="24">
+        <v>11</v>
+      </c>
+      <c r="D16" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E16" s="25">
+        <v>1941.71</v>
+      </c>
+      <c r="F16" s="22">
+        <f t="shared" si="1"/>
+        <v>16019.1075</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>1</v>
+      </c>
+      <c r="B17" s="23">
+        <v>1</v>
+      </c>
+      <c r="C17" s="24">
+        <v>12</v>
+      </c>
+      <c r="D17" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E17" s="25">
+        <v>900.42</v>
+      </c>
+      <c r="F17" s="22">
+        <f t="shared" si="1"/>
+        <v>7428.4649999999992</v>
+      </c>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A18" s="23">
+        <v>1</v>
+      </c>
+      <c r="B18" s="23">
+        <v>2</v>
+      </c>
+      <c r="C18" s="24">
+        <v>1</v>
+      </c>
+      <c r="D18" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E18" s="25">
+        <v>1413.2157629999999</v>
+      </c>
+      <c r="F18" s="22">
+        <f t="shared" si="1"/>
+        <v>11659.030044749999</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A19" s="23">
+        <v>1</v>
+      </c>
+      <c r="B19" s="23">
+        <v>3</v>
+      </c>
+      <c r="C19" s="24">
+        <v>2</v>
+      </c>
+      <c r="D19" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E19" s="25">
+        <v>1122.31664</v>
+      </c>
+      <c r="F19" s="22">
+        <f t="shared" si="1"/>
+        <v>9259.1122799999994</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A20" s="23">
+        <v>1</v>
+      </c>
+      <c r="B20" s="23">
+        <v>3</v>
+      </c>
+      <c r="C20" s="24">
+        <v>3</v>
+      </c>
+      <c r="D20" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E20" s="25">
+        <v>1082.625438</v>
+      </c>
+      <c r="F20" s="22">
+        <f t="shared" si="1"/>
+        <v>8931.6598635000009</v>
+      </c>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A21" s="23">
+        <v>1</v>
+      </c>
+      <c r="B21" s="23">
+        <v>3</v>
+      </c>
+      <c r="C21" s="24">
+        <v>4</v>
+      </c>
+      <c r="D21" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E21" s="25">
+        <v>1042.9342369999999</v>
+      </c>
+      <c r="F21" s="22">
+        <f t="shared" ref="F21:F58" si="2">E21*9.25</f>
+        <v>9647.1416922499993</v>
+      </c>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A22" s="23">
+        <v>1</v>
+      </c>
+      <c r="B22" s="23">
+        <v>3</v>
+      </c>
+      <c r="C22" s="24">
+        <v>5</v>
+      </c>
+      <c r="D22" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E22" s="25">
+        <v>1003.243036</v>
+      </c>
+      <c r="F22" s="22">
+        <f t="shared" si="2"/>
+        <v>9279.9980830000004</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A23" s="23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="23">
+        <v>4</v>
+      </c>
+      <c r="C23" s="24">
+        <v>6</v>
+      </c>
+      <c r="D23" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E23" s="25">
+        <v>712.34391300000004</v>
+      </c>
+      <c r="F23" s="22">
+        <f t="shared" si="2"/>
+        <v>6589.1811952500002</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A24" s="23">
+        <v>1</v>
+      </c>
+      <c r="B24" s="23">
+        <v>4</v>
+      </c>
+      <c r="C24" s="24">
+        <v>7</v>
+      </c>
+      <c r="D24" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E24" s="25">
+        <v>672.65271099999995</v>
+      </c>
+      <c r="F24" s="22">
+        <f t="shared" si="2"/>
+        <v>6222.03757675</v>
+      </c>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="26"/>
+    </row>
+    <row r="25" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A25" s="23">
+        <v>1</v>
+      </c>
+      <c r="B25" s="23">
+        <v>4</v>
+      </c>
+      <c r="C25" s="24">
+        <v>8</v>
+      </c>
+      <c r="D25" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E25" s="25">
+        <v>632.96150999999998</v>
+      </c>
+      <c r="F25" s="22">
+        <f t="shared" si="2"/>
+        <v>5854.8939675000001</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="26"/>
+    </row>
+    <row r="26" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A26" s="23">
+        <v>1</v>
+      </c>
+      <c r="B26" s="23">
+        <v>1</v>
+      </c>
+      <c r="C26" s="24">
+        <v>9</v>
+      </c>
+      <c r="D26" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E26" s="25">
+        <v>1346.8940749999999</v>
+      </c>
+      <c r="F26" s="22">
+        <f t="shared" si="2"/>
+        <v>12458.770193749999</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="26"/>
+    </row>
+    <row r="27" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <v>1</v>
+      </c>
+      <c r="B27" s="23">
+        <v>1</v>
+      </c>
+      <c r="C27" s="24">
+        <v>10</v>
+      </c>
+      <c r="D27" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E27" s="25">
+        <v>1307.2028740000001</v>
+      </c>
+      <c r="F27" s="22">
+        <f>E27*9.25</f>
+        <v>12091.6265845</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="26"/>
+    </row>
+    <row r="28" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A28" s="23">
+        <v>1</v>
+      </c>
+      <c r="B28" s="23">
+        <v>1</v>
+      </c>
+      <c r="C28" s="24">
+        <v>11</v>
+      </c>
+      <c r="D28" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E28" s="25">
+        <v>1267.511673</v>
+      </c>
+      <c r="F28" s="22">
+        <f t="shared" si="2"/>
+        <v>11724.482975249999</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="26"/>
+    </row>
+    <row r="29" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A29" s="23">
+        <v>1</v>
+      </c>
+      <c r="B29" s="23">
+        <v>1</v>
+      </c>
+      <c r="C29" s="24">
+        <v>12</v>
+      </c>
+      <c r="D29" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E29" s="25">
+        <v>1227.820471</v>
+      </c>
+      <c r="F29" s="22">
+        <f t="shared" si="2"/>
+        <v>11357.339356750001</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="26"/>
+    </row>
+    <row r="30" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A30" s="23">
+        <v>1</v>
+      </c>
+      <c r="B30" s="23">
+        <v>2</v>
+      </c>
+      <c r="C30" s="24">
+        <v>1</v>
+      </c>
+      <c r="D30" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E30" s="25">
+        <v>985.28</v>
+      </c>
+      <c r="F30" s="22">
+        <f t="shared" si="2"/>
+        <v>9113.84</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="26"/>
+    </row>
+    <row r="31" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A31" s="23">
+        <v>1</v>
+      </c>
+      <c r="B31" s="23">
+        <v>3</v>
+      </c>
+      <c r="C31" s="24">
+        <v>2</v>
+      </c>
+      <c r="D31" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E31" s="25">
+        <v>1122.92</v>
+      </c>
+      <c r="F31" s="22">
+        <f t="shared" si="2"/>
+        <v>10387.01</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="26"/>
+    </row>
+    <row r="32" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A32" s="23">
+        <v>1</v>
+      </c>
+      <c r="B32" s="23">
+        <v>3</v>
+      </c>
+      <c r="C32" s="24">
+        <v>3</v>
+      </c>
+      <c r="D32" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E32" s="25">
+        <v>726.02</v>
+      </c>
+      <c r="F32" s="22">
+        <f t="shared" si="2"/>
+        <v>6715.6849999999995</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="26"/>
+    </row>
+    <row r="33" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A33" s="23">
+        <v>1</v>
+      </c>
+      <c r="B33" s="23">
+        <v>3</v>
+      </c>
+      <c r="C33" s="24">
+        <v>4</v>
+      </c>
+      <c r="D33" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E33" s="25">
+        <v>855.91</v>
+      </c>
+      <c r="F33" s="22">
+        <f t="shared" si="2"/>
+        <v>7917.1674999999996</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="26"/>
+    </row>
+    <row r="34" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A34" s="23">
+        <v>1</v>
+      </c>
+      <c r="B34" s="23">
+        <v>3</v>
+      </c>
+      <c r="C34" s="24">
+        <v>5</v>
+      </c>
+      <c r="D34" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E34" s="25">
+        <v>494.04</v>
+      </c>
+      <c r="F34" s="22">
+        <f t="shared" si="2"/>
+        <v>4569.87</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="26"/>
+    </row>
+    <row r="35" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A35" s="23">
+        <v>1</v>
+      </c>
+      <c r="B35" s="23">
+        <v>4</v>
+      </c>
+      <c r="C35" s="24">
+        <v>6</v>
+      </c>
+      <c r="D35" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E35" s="25">
+        <v>0</v>
+      </c>
+      <c r="F35" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="28"/>
+    </row>
+    <row r="36" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A36" s="23">
+        <v>1</v>
+      </c>
+      <c r="B36" s="23">
+        <v>4</v>
+      </c>
+      <c r="C36" s="24">
+        <v>7</v>
+      </c>
+      <c r="D36" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E36" s="25">
+        <v>0</v>
+      </c>
+      <c r="F36" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="N36" s="26"/>
+    </row>
+    <row r="37" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A37" s="23">
+        <v>1</v>
+      </c>
+      <c r="B37" s="23">
+        <v>4</v>
+      </c>
+      <c r="C37" s="24">
+        <v>8</v>
+      </c>
+      <c r="D37" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E37" s="25">
+        <v>216.39</v>
+      </c>
+      <c r="F37" s="22">
+        <f t="shared" si="2"/>
+        <v>2001.6074999999998</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="N37" s="26"/>
+    </row>
+    <row r="38" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A38" s="23">
+        <v>1</v>
+      </c>
+      <c r="B38" s="23">
+        <v>1</v>
+      </c>
+      <c r="C38" s="24">
+        <v>9</v>
+      </c>
+      <c r="D38" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E38" s="25">
+        <v>2085.0500000000002</v>
+      </c>
+      <c r="F38" s="22">
+        <f t="shared" si="2"/>
+        <v>19286.712500000001</v>
+      </c>
+      <c r="N38" s="26"/>
+    </row>
+    <row r="39" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A39" s="23">
+        <v>1</v>
+      </c>
+      <c r="B39" s="23">
+        <v>1</v>
+      </c>
+      <c r="C39" s="24">
+        <v>10</v>
+      </c>
+      <c r="D39" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E39" s="25">
+        <v>1815.03</v>
+      </c>
+      <c r="F39" s="22">
+        <f t="shared" si="2"/>
+        <v>16789.0275</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A40" s="23">
+        <v>1</v>
+      </c>
+      <c r="B40" s="23">
+        <v>1</v>
+      </c>
+      <c r="C40" s="24">
+        <v>11</v>
+      </c>
+      <c r="D40" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E40" s="25">
+        <v>1581.2</v>
+      </c>
+      <c r="F40" s="22">
+        <f t="shared" si="2"/>
+        <v>14626.1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A41" s="23">
+        <v>1</v>
+      </c>
+      <c r="B41" s="23">
+        <v>1</v>
+      </c>
+      <c r="C41" s="24">
+        <v>12</v>
+      </c>
+      <c r="D41" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E41" s="25">
+        <v>695.89</v>
+      </c>
+      <c r="F41" s="22">
+        <f t="shared" si="2"/>
+        <v>6436.9825000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A42" s="23">
+        <v>1</v>
+      </c>
+      <c r="B42" s="23">
+        <v>2</v>
+      </c>
+      <c r="C42" s="24">
+        <v>1</v>
+      </c>
+      <c r="D42" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E42" s="25">
+        <v>948.63</v>
+      </c>
+      <c r="F42" s="22">
+        <f t="shared" si="2"/>
+        <v>8774.8274999999994</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A43" s="23">
+        <v>1</v>
+      </c>
+      <c r="B43" s="23">
+        <v>3</v>
+      </c>
+      <c r="C43" s="24">
+        <v>2</v>
+      </c>
+      <c r="D43" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E43" s="25">
+        <v>1057.5899999999999</v>
+      </c>
+      <c r="F43" s="22">
+        <f t="shared" si="2"/>
+        <v>9782.7074999999986</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A44" s="23">
+        <v>1</v>
+      </c>
+      <c r="B44" s="23">
+        <v>3</v>
+      </c>
+      <c r="C44" s="24">
+        <v>3</v>
+      </c>
+      <c r="D44" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E44" s="25">
+        <v>694.67</v>
+      </c>
+      <c r="F44" s="22">
+        <f t="shared" si="2"/>
+        <v>6425.6974999999993</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A45" s="23">
+        <v>1</v>
+      </c>
+      <c r="B45" s="23">
+        <v>3</v>
+      </c>
+      <c r="C45" s="24">
+        <v>4</v>
+      </c>
+      <c r="D45" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E45" s="25">
+        <v>1065.52</v>
+      </c>
+      <c r="F45" s="22">
+        <f t="shared" si="2"/>
+        <v>9856.06</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A46" s="23">
+        <v>1</v>
+      </c>
+      <c r="B46" s="23">
+        <v>3</v>
+      </c>
+      <c r="C46" s="24">
+        <v>5</v>
+      </c>
+      <c r="D46" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E46" s="25">
+        <v>418.67</v>
+      </c>
+      <c r="F46" s="22">
+        <f t="shared" si="2"/>
+        <v>3872.6975000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A47" s="23">
+        <v>1</v>
+      </c>
+      <c r="B47" s="23">
+        <v>4</v>
+      </c>
+      <c r="C47" s="24">
+        <v>6</v>
+      </c>
+      <c r="D47" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E47" s="25">
+        <v>0</v>
+      </c>
+      <c r="F47" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="22" x14ac:dyDescent="0.25">
+      <c r="A48" s="23">
+        <v>1</v>
+      </c>
+      <c r="B48" s="23">
+        <v>4</v>
+      </c>
+      <c r="C48" s="24">
+        <v>7</v>
+      </c>
+      <c r="D48" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E48" s="25">
+        <v>0</v>
+      </c>
+      <c r="F48" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A49" s="23">
+        <v>1</v>
+      </c>
+      <c r="B49" s="23">
+        <v>4</v>
+      </c>
+      <c r="C49" s="24">
+        <v>8</v>
+      </c>
+      <c r="D49" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E49" s="25">
+        <v>0</v>
+      </c>
+      <c r="F49" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A50" s="23">
+        <v>1</v>
+      </c>
+      <c r="B50" s="23">
+        <v>1</v>
+      </c>
+      <c r="C50" s="24">
+        <v>9</v>
+      </c>
+      <c r="D50" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E50" s="25"/>
+      <c r="F50" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A51" s="23">
+        <v>1</v>
+      </c>
+      <c r="B51" s="23">
+        <v>1</v>
+      </c>
+      <c r="C51" s="24">
+        <v>10</v>
+      </c>
+      <c r="D51" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A52" s="23">
+        <v>1</v>
+      </c>
+      <c r="B52" s="23">
+        <v>1</v>
+      </c>
+      <c r="C52" s="24">
+        <v>11</v>
+      </c>
+      <c r="D52" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E52" s="25"/>
+      <c r="F52" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A53" s="23">
+        <v>1</v>
+      </c>
+      <c r="B53" s="23">
+        <v>1</v>
+      </c>
+      <c r="C53" s="24">
+        <v>12</v>
+      </c>
+      <c r="D53" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E53" s="25"/>
+      <c r="F53" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A54" s="23">
+        <v>1</v>
+      </c>
+      <c r="B54" s="23">
+        <v>2</v>
+      </c>
+      <c r="C54" s="24">
+        <v>1</v>
+      </c>
+      <c r="D54" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E54" s="25"/>
+      <c r="F54" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
+        <v>1</v>
+      </c>
+      <c r="B55" s="23">
+        <v>3</v>
+      </c>
+      <c r="C55" s="24">
+        <v>2</v>
+      </c>
+      <c r="D55" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E55" s="25"/>
+      <c r="F55" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A56" s="23">
+        <v>1</v>
+      </c>
+      <c r="B56" s="23">
+        <v>3</v>
+      </c>
+      <c r="C56" s="24">
+        <v>3</v>
+      </c>
+      <c r="D56" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E56" s="25"/>
+      <c r="F56" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A57" s="23">
+        <v>1</v>
+      </c>
+      <c r="B57" s="23">
+        <v>3</v>
+      </c>
+      <c r="C57" s="24">
+        <v>4</v>
+      </c>
+      <c r="D57" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E57" s="25"/>
+      <c r="F57" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A58" s="23">
+        <v>1</v>
+      </c>
+      <c r="B58" s="23">
+        <v>3</v>
+      </c>
+      <c r="C58" s="24">
+        <v>5</v>
+      </c>
+      <c r="D58" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E58" s="25"/>
+      <c r="F58" s="22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A59" s="23">
+        <v>2</v>
+      </c>
+      <c r="B59" s="23">
+        <v>1</v>
+      </c>
+      <c r="C59" s="24">
+        <v>9</v>
+      </c>
+      <c r="D59" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E59" s="25">
+        <v>900.17</v>
+      </c>
+      <c r="F59" s="22">
+        <f>E59*8.25</f>
+        <v>7426.4024999999992</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A60" s="23">
+        <v>2</v>
+      </c>
+      <c r="B60" s="23">
+        <v>1</v>
+      </c>
+      <c r="C60" s="24">
+        <v>10</v>
+      </c>
+      <c r="D60" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E60" s="25">
+        <v>1136.8</v>
+      </c>
+      <c r="F60" s="22">
+        <f t="shared" ref="F60:F70" si="3">E60*8.25</f>
+        <v>9378.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A61" s="23">
+        <v>2</v>
+      </c>
+      <c r="B61" s="23">
+        <v>1</v>
+      </c>
+      <c r="C61" s="24">
+        <v>11</v>
+      </c>
+      <c r="D61" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E61" s="25">
+        <v>665.3</v>
+      </c>
+      <c r="F61" s="22">
+        <f t="shared" si="3"/>
+        <v>5488.7249999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A62" s="23">
+        <v>2</v>
+      </c>
+      <c r="B62" s="23">
+        <v>1</v>
+      </c>
+      <c r="C62" s="24">
+        <v>12</v>
+      </c>
+      <c r="D62" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E62" s="25">
+        <v>507.24</v>
+      </c>
+      <c r="F62" s="22">
+        <f t="shared" si="3"/>
+        <v>4184.7300000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A63" s="23">
+        <v>2</v>
+      </c>
+      <c r="B63" s="23">
+        <v>2</v>
+      </c>
+      <c r="C63" s="24">
+        <v>1</v>
+      </c>
+      <c r="D63" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E63" s="25">
+        <v>820.95</v>
+      </c>
+      <c r="F63" s="22">
+        <f t="shared" si="3"/>
+        <v>6772.8375000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A64" s="23">
+        <v>2</v>
+      </c>
+      <c r="B64" s="23">
+        <v>3</v>
+      </c>
+      <c r="C64" s="24">
+        <v>2</v>
+      </c>
+      <c r="D64" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E64" s="25">
+        <v>810.24</v>
+      </c>
+      <c r="F64" s="22">
+        <f t="shared" si="3"/>
+        <v>6684.4800000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A65" s="23">
+        <v>2</v>
+      </c>
+      <c r="B65" s="23">
+        <v>3</v>
+      </c>
+      <c r="C65" s="24">
+        <v>3</v>
+      </c>
+      <c r="D65" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E65" s="25">
+        <v>901.99</v>
+      </c>
+      <c r="F65" s="22">
+        <f t="shared" si="3"/>
+        <v>7441.4175000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A66" s="23">
+        <v>2</v>
+      </c>
+      <c r="B66" s="23">
+        <v>3</v>
+      </c>
+      <c r="C66" s="24">
+        <v>4</v>
+      </c>
+      <c r="D66" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E66" s="25">
+        <v>632.70000000000005</v>
+      </c>
+      <c r="F66" s="22">
+        <f t="shared" si="3"/>
+        <v>5219.7750000000005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A67" s="23">
+        <v>2</v>
+      </c>
+      <c r="B67" s="23">
+        <v>3</v>
+      </c>
+      <c r="C67" s="24">
+        <v>5</v>
+      </c>
+      <c r="D67" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E67" s="25">
+        <v>270.14</v>
+      </c>
+      <c r="F67" s="22">
+        <f t="shared" si="3"/>
+        <v>2228.6549999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A68" s="23">
+        <v>2</v>
+      </c>
+      <c r="B68" s="23">
+        <v>4</v>
+      </c>
+      <c r="C68" s="24">
+        <v>6</v>
+      </c>
+      <c r="D68" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E68" s="25">
+        <v>0</v>
+      </c>
+      <c r="F68" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A69" s="23">
+        <v>2</v>
+      </c>
+      <c r="B69" s="23">
+        <v>4</v>
+      </c>
+      <c r="C69" s="24">
+        <v>7</v>
+      </c>
+      <c r="D69" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E69" s="25">
+        <v>0</v>
+      </c>
+      <c r="F69" s="22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A70" s="23">
+        <v>2</v>
+      </c>
+      <c r="B70" s="23">
+        <v>4</v>
+      </c>
+      <c r="C70" s="24">
+        <v>8</v>
+      </c>
+      <c r="D70" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E70" s="25">
+        <v>11.14</v>
+      </c>
+      <c r="F70" s="22">
+        <f t="shared" si="3"/>
+        <v>91.905000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A71" s="23">
+        <v>2</v>
+      </c>
+      <c r="B71" s="23">
+        <v>1</v>
+      </c>
+      <c r="C71" s="24">
+        <v>9</v>
+      </c>
+      <c r="D71" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E71" s="25">
+        <v>1400.84</v>
+      </c>
+      <c r="F71" s="22">
+        <f>E71*8.25</f>
+        <v>11556.929999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A72" s="23">
+        <v>2</v>
+      </c>
+      <c r="B72" s="23">
+        <v>1</v>
+      </c>
+      <c r="C72" s="24">
+        <v>10</v>
+      </c>
+      <c r="D72" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E72" s="25">
+        <v>1042.28</v>
+      </c>
+      <c r="F72" s="22">
+        <f t="shared" ref="F72:F77" si="4">E72*8.25</f>
+        <v>8598.81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A73" s="23">
+        <v>2</v>
+      </c>
+      <c r="B73" s="23">
+        <v>1</v>
+      </c>
+      <c r="C73" s="24">
+        <v>11</v>
+      </c>
+      <c r="D73" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E73" s="25">
+        <v>943.14</v>
+      </c>
+      <c r="F73" s="22">
+        <f t="shared" si="4"/>
+        <v>7780.9049999999997</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A74" s="23">
+        <v>2</v>
+      </c>
+      <c r="B74" s="23">
+        <v>1</v>
+      </c>
+      <c r="C74" s="24">
+        <v>12</v>
+      </c>
+      <c r="D74" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E74" s="25">
+        <v>489.77</v>
+      </c>
+      <c r="F74" s="22">
+        <f t="shared" si="4"/>
+        <v>4040.6025</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A75" s="23">
+        <v>2</v>
+      </c>
+      <c r="B75" s="23">
+        <v>2</v>
+      </c>
+      <c r="C75" s="24">
+        <v>1</v>
+      </c>
+      <c r="D75" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E75" s="25">
+        <v>1134.449069</v>
+      </c>
+      <c r="F75" s="22">
+        <f t="shared" si="4"/>
+        <v>9359.2048192500006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A76" s="23">
+        <v>2</v>
+      </c>
+      <c r="B76" s="23">
+        <v>3</v>
+      </c>
+      <c r="C76" s="24">
+        <v>2</v>
+      </c>
+      <c r="D76" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E76" s="25">
+        <v>843.54994499999998</v>
+      </c>
+      <c r="F76" s="22">
+        <f t="shared" si="4"/>
+        <v>6959.2870462499995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A77" s="23">
+        <v>2</v>
+      </c>
+      <c r="B77" s="23">
+        <v>3</v>
+      </c>
+      <c r="C77" s="24">
+        <v>3</v>
+      </c>
+      <c r="D77" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E77" s="25">
+        <v>803.858744</v>
+      </c>
+      <c r="F77" s="22">
+        <f t="shared" si="4"/>
+        <v>6631.8346380000003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A78" s="23">
+        <v>2</v>
+      </c>
+      <c r="B78" s="23">
+        <v>3</v>
+      </c>
+      <c r="C78" s="24">
+        <v>4</v>
+      </c>
+      <c r="D78" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E78" s="25">
+        <v>764.16754300000002</v>
+      </c>
+      <c r="F78" s="22">
+        <f t="shared" ref="F78:F150" si="5">E78*9.25</f>
+        <v>7068.5497727500006</v>
+      </c>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26"/>
+      <c r="R78" s="26"/>
+      <c r="S78" s="26"/>
+    </row>
+    <row r="79" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A79" s="23">
+        <v>2</v>
+      </c>
+      <c r="B79" s="23">
+        <v>3</v>
+      </c>
+      <c r="C79" s="24">
+        <v>5</v>
+      </c>
+      <c r="D79" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E79" s="25">
+        <v>724.47634100000005</v>
+      </c>
+      <c r="F79" s="22">
+        <f t="shared" si="5"/>
+        <v>6701.4061542500003</v>
+      </c>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="26"/>
+      <c r="S79" s="26"/>
+    </row>
+    <row r="80" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A80" s="23">
+        <v>2</v>
+      </c>
+      <c r="B80" s="23">
+        <v>4</v>
+      </c>
+      <c r="C80" s="24">
+        <v>6</v>
+      </c>
+      <c r="D80" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E80" s="25">
+        <v>433.57721800000002</v>
+      </c>
+      <c r="F80" s="22">
+        <f t="shared" si="5"/>
+        <v>4010.5892665000001</v>
+      </c>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="26"/>
+      <c r="P80" s="26"/>
+      <c r="Q80" s="26"/>
+      <c r="R80" s="26"/>
+      <c r="S80" s="26"/>
+    </row>
+    <row r="81" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A81" s="23">
+        <v>2</v>
+      </c>
+      <c r="B81" s="23">
+        <v>4</v>
+      </c>
+      <c r="C81" s="24">
+        <v>7</v>
+      </c>
+      <c r="D81" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E81" s="25">
+        <v>393.88601699999998</v>
+      </c>
+      <c r="F81" s="22">
+        <f t="shared" si="5"/>
+        <v>3643.4456572499998</v>
+      </c>
+      <c r="M81" s="26"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="26"/>
+      <c r="Q81" s="26"/>
+      <c r="R81" s="26"/>
+      <c r="S81" s="26"/>
+    </row>
+    <row r="82" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A82" s="23">
+        <v>2</v>
+      </c>
+      <c r="B82" s="23">
+        <v>4</v>
+      </c>
+      <c r="C82" s="24">
+        <v>8</v>
+      </c>
+      <c r="D82" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E82" s="25">
+        <v>354.194816</v>
+      </c>
+      <c r="F82" s="22">
+        <f t="shared" si="5"/>
+        <v>3276.302048</v>
+      </c>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="26"/>
+      <c r="R82" s="26"/>
+      <c r="S82" s="26"/>
+    </row>
+    <row r="83" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A83" s="23">
+        <v>2</v>
+      </c>
+      <c r="B83" s="23">
+        <v>1</v>
+      </c>
+      <c r="C83" s="24">
+        <v>9</v>
+      </c>
+      <c r="D83" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E83" s="25">
+        <v>1068.127381</v>
+      </c>
+      <c r="F83" s="22">
+        <f t="shared" si="5"/>
+        <v>9880.17827425</v>
+      </c>
+      <c r="M83" s="26"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="26"/>
+      <c r="P83" s="26"/>
+      <c r="Q83" s="26"/>
+      <c r="R83" s="26"/>
+      <c r="S83" s="26"/>
+    </row>
+    <row r="84" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A84" s="23">
+        <v>2</v>
+      </c>
+      <c r="B84" s="23">
+        <v>1</v>
+      </c>
+      <c r="C84" s="24">
+        <v>10</v>
+      </c>
+      <c r="D84" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E84" s="25">
+        <v>1028.436179</v>
+      </c>
+      <c r="F84" s="22">
+        <f t="shared" si="5"/>
+        <v>9513.0346557499997</v>
+      </c>
+      <c r="M84" s="26"/>
+      <c r="N84" s="26"/>
+      <c r="O84" s="26"/>
+      <c r="P84" s="26"/>
+      <c r="Q84" s="26"/>
+      <c r="R84" s="26"/>
+      <c r="S84" s="26"/>
+    </row>
+    <row r="85" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A85" s="23">
+        <v>2</v>
+      </c>
+      <c r="B85" s="23">
+        <v>1</v>
+      </c>
+      <c r="C85" s="24">
+        <v>11</v>
+      </c>
+      <c r="D85" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E85" s="25">
+        <v>988.74497799999995</v>
+      </c>
+      <c r="F85" s="22">
+        <f t="shared" si="5"/>
+        <v>9145.891046499999</v>
+      </c>
+      <c r="M85" s="26"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="26"/>
+      <c r="P85" s="26"/>
+      <c r="Q85" s="26"/>
+      <c r="R85" s="26"/>
+      <c r="S85" s="26"/>
+    </row>
+    <row r="86" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A86" s="23">
+        <v>2</v>
+      </c>
+      <c r="B86" s="23">
+        <v>1</v>
+      </c>
+      <c r="C86" s="24">
+        <v>12</v>
+      </c>
+      <c r="D86" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E86" s="25">
+        <v>949.05377699999997</v>
+      </c>
+      <c r="F86" s="22">
+        <f t="shared" si="5"/>
+        <v>8778.7474372500001</v>
+      </c>
+      <c r="M86" s="26"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="26"/>
+      <c r="P86" s="26"/>
+      <c r="Q86" s="26"/>
+      <c r="R86" s="26"/>
+      <c r="S86" s="26"/>
+    </row>
+    <row r="87" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A87" s="23">
+        <v>2</v>
+      </c>
+      <c r="B87" s="23">
+        <v>2</v>
+      </c>
+      <c r="C87" s="24">
+        <v>1</v>
+      </c>
+      <c r="D87" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E87" s="25">
+        <v>418.1</v>
+      </c>
+      <c r="F87" s="22">
+        <f t="shared" si="5"/>
+        <v>3867.4250000000002</v>
+      </c>
+      <c r="M87" s="26"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="26"/>
+      <c r="P87" s="26"/>
+      <c r="Q87" s="26"/>
+      <c r="R87" s="26"/>
+      <c r="S87" s="26"/>
+    </row>
+    <row r="88" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A88" s="23">
+        <v>2</v>
+      </c>
+      <c r="B88" s="23">
+        <v>3</v>
+      </c>
+      <c r="C88" s="24">
+        <v>2</v>
+      </c>
+      <c r="D88" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E88" s="25">
+        <v>529.87</v>
+      </c>
+      <c r="F88" s="22">
+        <f t="shared" si="5"/>
+        <v>4901.2974999999997</v>
+      </c>
+      <c r="M88" s="26"/>
+      <c r="N88" s="26"/>
+      <c r="O88" s="26"/>
+      <c r="P88" s="26"/>
+      <c r="Q88" s="26"/>
+      <c r="R88" s="26"/>
+      <c r="S88" s="26"/>
+    </row>
+    <row r="89" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A89" s="23">
+        <v>2</v>
+      </c>
+      <c r="B89" s="23">
+        <v>3</v>
+      </c>
+      <c r="C89" s="24">
+        <v>3</v>
+      </c>
+      <c r="D89" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E89" s="25">
+        <v>493.22</v>
+      </c>
+      <c r="F89" s="22">
+        <f t="shared" si="5"/>
+        <v>4562.2849999999999</v>
+      </c>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="26"/>
+      <c r="P89" s="26"/>
+      <c r="Q89" s="26"/>
+      <c r="R89" s="26"/>
+      <c r="S89" s="26"/>
+    </row>
+    <row r="90" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A90" s="23">
+        <v>2</v>
+      </c>
+      <c r="B90" s="23">
+        <v>3</v>
+      </c>
+      <c r="C90" s="24">
+        <v>4</v>
+      </c>
+      <c r="D90" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E90" s="25">
+        <v>540.75</v>
+      </c>
+      <c r="F90" s="22">
+        <f t="shared" si="5"/>
+        <v>5001.9375</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A91" s="23">
+        <v>2</v>
+      </c>
+      <c r="B91" s="23">
+        <v>3</v>
+      </c>
+      <c r="C91" s="24">
+        <v>5</v>
+      </c>
+      <c r="D91" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E91" s="25">
+        <v>344.74</v>
+      </c>
+      <c r="F91" s="22">
+        <f t="shared" si="5"/>
+        <v>3188.8450000000003</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A92" s="23">
+        <v>2</v>
+      </c>
+      <c r="B92" s="23">
+        <v>4</v>
+      </c>
+      <c r="C92" s="24">
+        <v>6</v>
+      </c>
+      <c r="D92" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E92" s="25">
+        <v>0</v>
+      </c>
+      <c r="F92" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A93" s="23">
+        <v>2</v>
+      </c>
+      <c r="B93" s="23">
+        <v>4</v>
+      </c>
+      <c r="C93" s="24">
+        <v>7</v>
+      </c>
+      <c r="D93" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E93" s="25">
+        <v>0</v>
+      </c>
+      <c r="F93" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A94" s="23">
+        <v>2</v>
+      </c>
+      <c r="B94" s="23">
+        <v>4</v>
+      </c>
+      <c r="C94" s="24">
+        <v>8</v>
+      </c>
+      <c r="D94" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E94" s="25">
+        <v>31.75</v>
+      </c>
+      <c r="F94" s="22">
+        <f t="shared" si="5"/>
+        <v>293.6875</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A95" s="23">
+        <v>2</v>
+      </c>
+      <c r="B95" s="23">
+        <v>1</v>
+      </c>
+      <c r="C95" s="24">
+        <v>9</v>
+      </c>
+      <c r="D95" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E95" s="25">
+        <v>1018.35</v>
+      </c>
+      <c r="F95" s="22">
+        <f t="shared" si="5"/>
+        <v>9419.7375000000011</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A96" s="23">
+        <v>2</v>
+      </c>
+      <c r="B96" s="23">
+        <v>1</v>
+      </c>
+      <c r="C96" s="24">
+        <v>10</v>
+      </c>
+      <c r="D96" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E96" s="25">
+        <v>926.12</v>
+      </c>
+      <c r="F96" s="22">
+        <f t="shared" si="5"/>
+        <v>8566.61</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A97" s="23">
+        <v>2</v>
+      </c>
+      <c r="B97" s="23">
+        <v>1</v>
+      </c>
+      <c r="C97" s="24">
+        <v>11</v>
+      </c>
+      <c r="D97" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E97" s="25">
+        <v>888.89</v>
+      </c>
+      <c r="F97" s="22">
+        <f t="shared" si="5"/>
+        <v>8222.2325000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A98" s="23">
+        <v>2</v>
+      </c>
+      <c r="B98" s="23">
+        <v>1</v>
+      </c>
+      <c r="C98" s="24">
+        <v>12</v>
+      </c>
+      <c r="D98" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E98" s="25">
+        <v>389.21</v>
+      </c>
+      <c r="F98" s="22">
+        <f t="shared" si="5"/>
+        <v>3600.1924999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A99" s="23">
+        <v>2</v>
+      </c>
+      <c r="B99" s="23">
+        <v>2</v>
+      </c>
+      <c r="C99" s="24">
+        <v>1</v>
+      </c>
+      <c r="D99" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E99" s="25">
+        <v>683.68</v>
+      </c>
+      <c r="F99" s="22">
+        <f t="shared" si="5"/>
+        <v>6324.04</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A100" s="23">
+        <v>2</v>
+      </c>
+      <c r="B100" s="23">
+        <v>3</v>
+      </c>
+      <c r="C100" s="24">
+        <v>2</v>
+      </c>
+      <c r="D100" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E100" s="25">
+        <v>896.31</v>
+      </c>
+      <c r="F100" s="22">
+        <f t="shared" si="5"/>
+        <v>8290.8675000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A101" s="23">
+        <v>2</v>
+      </c>
+      <c r="B101" s="23">
+        <v>3</v>
+      </c>
+      <c r="C101" s="24">
+        <v>3</v>
+      </c>
+      <c r="D101" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E101" s="25">
+        <v>540.88</v>
+      </c>
+      <c r="F101" s="22">
+        <f t="shared" si="5"/>
+        <v>5003.1400000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A102" s="23">
+        <v>2</v>
+      </c>
+      <c r="B102" s="23">
+        <v>3</v>
+      </c>
+      <c r="C102" s="24">
+        <v>4</v>
+      </c>
+      <c r="D102" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E102" s="25">
+        <v>847.78</v>
+      </c>
+      <c r="F102" s="22">
+        <f t="shared" si="5"/>
+        <v>7841.9650000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A103" s="23">
+        <v>2</v>
+      </c>
+      <c r="B103" s="23">
+        <v>3</v>
+      </c>
+      <c r="C103" s="24">
+        <v>5</v>
+      </c>
+      <c r="D103" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E103" s="25">
+        <v>330.86</v>
+      </c>
+      <c r="F103" s="22">
+        <f t="shared" si="5"/>
+        <v>3060.4549999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A104" s="23">
+        <v>2</v>
+      </c>
+      <c r="B104" s="23">
+        <v>4</v>
+      </c>
+      <c r="C104" s="24">
+        <v>6</v>
+      </c>
+      <c r="D104" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E104" s="25">
+        <v>0</v>
+      </c>
+      <c r="F104" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A105" s="23">
+        <v>2</v>
+      </c>
+      <c r="B105" s="23">
+        <v>4</v>
+      </c>
+      <c r="C105" s="24">
+        <v>7</v>
+      </c>
+      <c r="D105" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E105" s="25">
+        <v>0</v>
+      </c>
+      <c r="F105" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A106" s="23">
+        <v>2</v>
+      </c>
+      <c r="B106" s="23">
+        <v>4</v>
+      </c>
+      <c r="C106" s="24">
+        <v>8</v>
+      </c>
+      <c r="D106" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E106" s="25">
+        <v>0</v>
+      </c>
+      <c r="F106" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A107" s="23">
+        <v>2</v>
+      </c>
+      <c r="B107" s="23">
+        <v>1</v>
+      </c>
+      <c r="C107" s="24">
+        <v>9</v>
+      </c>
+      <c r="D107" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E107" s="25"/>
+      <c r="F107" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L107" s="26"/>
+      <c r="M107" s="26"/>
+      <c r="N107" s="28"/>
+      <c r="O107" s="28"/>
+      <c r="P107" s="28"/>
+      <c r="Q107" s="28"/>
+      <c r="R107" s="28"/>
+    </row>
+    <row r="108" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A108" s="23">
+        <v>2</v>
+      </c>
+      <c r="B108" s="23">
+        <v>1</v>
+      </c>
+      <c r="C108" s="24">
+        <v>10</v>
+      </c>
+      <c r="D108" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E108" s="25"/>
+      <c r="F108" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L108" s="26"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="26"/>
+      <c r="O108" s="26"/>
+      <c r="P108" s="26"/>
+      <c r="Q108" s="26"/>
+      <c r="R108" s="26"/>
+    </row>
+    <row r="109" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A109" s="23">
+        <v>2</v>
+      </c>
+      <c r="B109" s="23">
+        <v>1</v>
+      </c>
+      <c r="C109" s="24">
+        <v>11</v>
+      </c>
+      <c r="D109" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E109" s="25"/>
+      <c r="F109" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L109" s="26"/>
+      <c r="M109" s="26"/>
+      <c r="N109" s="26"/>
+      <c r="O109" s="26"/>
+      <c r="P109" s="26"/>
+      <c r="Q109" s="26"/>
+      <c r="R109" s="26"/>
+    </row>
+    <row r="110" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A110" s="23">
+        <v>2</v>
+      </c>
+      <c r="B110" s="23">
+        <v>1</v>
+      </c>
+      <c r="C110" s="24">
+        <v>12</v>
+      </c>
+      <c r="D110" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E110" s="25"/>
+      <c r="F110" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L110" s="26"/>
+      <c r="M110" s="26"/>
+      <c r="N110" s="26"/>
+      <c r="O110" s="26"/>
+      <c r="P110" s="26"/>
+      <c r="Q110" s="26"/>
+      <c r="R110" s="26"/>
+    </row>
+    <row r="111" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A111" s="23">
+        <v>2</v>
+      </c>
+      <c r="B111" s="23">
+        <v>2</v>
+      </c>
+      <c r="C111" s="24">
+        <v>1</v>
+      </c>
+      <c r="D111" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E111" s="25"/>
+      <c r="F111" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L111" s="26"/>
+      <c r="M111" s="26"/>
+      <c r="N111" s="26"/>
+      <c r="O111" s="26"/>
+      <c r="P111" s="26"/>
+      <c r="Q111" s="26"/>
+      <c r="R111" s="26"/>
+    </row>
+    <row r="112" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A112" s="23">
+        <v>2</v>
+      </c>
+      <c r="B112" s="23">
+        <v>3</v>
+      </c>
+      <c r="C112" s="24">
+        <v>2</v>
+      </c>
+      <c r="D112" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E112" s="25"/>
+      <c r="F112" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L112" s="26"/>
+      <c r="M112" s="26"/>
+      <c r="N112" s="26"/>
+      <c r="O112" s="26"/>
+      <c r="P112" s="26"/>
+      <c r="Q112" s="26"/>
+      <c r="R112" s="26"/>
+    </row>
+    <row r="113" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A113" s="23">
+        <v>2</v>
+      </c>
+      <c r="B113" s="23">
+        <v>3</v>
+      </c>
+      <c r="C113" s="24">
+        <v>3</v>
+      </c>
+      <c r="D113" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E113" s="25"/>
+      <c r="F113" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L113" s="26"/>
+      <c r="M113" s="26"/>
+      <c r="N113" s="26"/>
+      <c r="O113" s="26"/>
+      <c r="P113" s="26"/>
+      <c r="Q113" s="26"/>
+      <c r="R113" s="26"/>
+    </row>
+    <row r="114" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A114" s="23">
+        <v>2</v>
+      </c>
+      <c r="B114" s="23">
+        <v>3</v>
+      </c>
+      <c r="C114" s="24">
+        <v>4</v>
+      </c>
+      <c r="D114" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E114" s="25"/>
+      <c r="F114" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L114" s="26"/>
+      <c r="M114" s="26"/>
+      <c r="N114" s="26"/>
+      <c r="O114" s="26"/>
+      <c r="P114" s="26"/>
+      <c r="Q114" s="26"/>
+      <c r="R114" s="26"/>
+    </row>
+    <row r="115" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A115" s="23">
+        <v>2</v>
+      </c>
+      <c r="B115" s="23">
+        <v>3</v>
+      </c>
+      <c r="C115" s="24">
+        <v>5</v>
+      </c>
+      <c r="D115" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E115" s="25"/>
+      <c r="F115" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L115" s="26"/>
+      <c r="M115" s="26"/>
+      <c r="N115" s="26"/>
+      <c r="O115" s="26"/>
+      <c r="P115" s="26"/>
+      <c r="Q115" s="26"/>
+      <c r="R115" s="26"/>
+    </row>
+    <row r="116" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A116" s="23">
+        <v>3</v>
+      </c>
+      <c r="B116" s="23">
+        <v>1</v>
+      </c>
+      <c r="C116" s="24">
+        <v>9</v>
+      </c>
+      <c r="D116" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E116" s="25">
+        <v>570.61</v>
+      </c>
+      <c r="F116" s="22">
+        <f>E116*8.25</f>
+        <v>4707.5325000000003</v>
+      </c>
+      <c r="L116" s="26"/>
+      <c r="M116" s="26"/>
+      <c r="N116" s="26"/>
+      <c r="O116" s="26"/>
+      <c r="P116" s="26"/>
+      <c r="Q116" s="26"/>
+      <c r="R116" s="26"/>
+    </row>
+    <row r="117" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A117" s="23">
+        <v>3</v>
+      </c>
+      <c r="B117" s="23">
+        <v>1</v>
+      </c>
+      <c r="C117" s="24">
+        <v>10</v>
+      </c>
+      <c r="D117" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E117" s="25">
+        <v>944.64</v>
+      </c>
+      <c r="F117" s="22">
+        <f t="shared" ref="F117:F127" si="6">E117*8.25</f>
+        <v>7793.28</v>
+      </c>
+      <c r="L117" s="26"/>
+      <c r="M117" s="26"/>
+      <c r="N117" s="26"/>
+      <c r="O117" s="26"/>
+      <c r="P117" s="26"/>
+      <c r="Q117" s="26"/>
+      <c r="R117" s="26"/>
+    </row>
+    <row r="118" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A118" s="23">
+        <v>3</v>
+      </c>
+      <c r="B118" s="23">
+        <v>1</v>
+      </c>
+      <c r="C118" s="24">
+        <v>11</v>
+      </c>
+      <c r="D118" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E118" s="25">
+        <v>654.73</v>
+      </c>
+      <c r="F118" s="22">
+        <f t="shared" si="6"/>
+        <v>5401.5225</v>
+      </c>
+      <c r="L118" s="26"/>
+      <c r="M118" s="26"/>
+      <c r="N118" s="26"/>
+      <c r="O118" s="26"/>
+      <c r="P118" s="26"/>
+      <c r="Q118" s="26"/>
+      <c r="R118" s="28"/>
+    </row>
+    <row r="119" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A119" s="23">
+        <v>3</v>
+      </c>
+      <c r="B119" s="23">
+        <v>1</v>
+      </c>
+      <c r="C119" s="24">
+        <v>12</v>
+      </c>
+      <c r="D119" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E119" s="25">
+        <v>332.13</v>
+      </c>
+      <c r="F119" s="22">
+        <f t="shared" si="6"/>
+        <v>2740.0724999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A120" s="23">
+        <v>3</v>
+      </c>
+      <c r="B120" s="23">
+        <v>2</v>
+      </c>
+      <c r="C120" s="24">
+        <v>1</v>
+      </c>
+      <c r="D120" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E120" s="25">
+        <v>624.36</v>
+      </c>
+      <c r="F120" s="22">
+        <f t="shared" si="6"/>
+        <v>5150.97</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A121" s="23">
+        <v>3</v>
+      </c>
+      <c r="B121" s="23">
+        <v>3</v>
+      </c>
+      <c r="C121" s="24">
+        <v>2</v>
+      </c>
+      <c r="D121" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E121" s="25">
+        <v>663.02</v>
+      </c>
+      <c r="F121" s="22">
+        <f t="shared" si="6"/>
+        <v>5469.915</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A122" s="23">
+        <v>3</v>
+      </c>
+      <c r="B122" s="23">
+        <v>3</v>
+      </c>
+      <c r="C122" s="24">
+        <v>3</v>
+      </c>
+      <c r="D122" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E122" s="25">
+        <v>891.05</v>
+      </c>
+      <c r="F122" s="22">
+        <f t="shared" si="6"/>
+        <v>7351.1624999999995</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A123" s="23">
+        <v>3</v>
+      </c>
+      <c r="B123" s="23">
+        <v>3</v>
+      </c>
+      <c r="C123" s="24">
+        <v>4</v>
+      </c>
+      <c r="D123" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E123" s="25">
+        <v>643.75</v>
+      </c>
+      <c r="F123" s="22">
+        <f t="shared" si="6"/>
+        <v>5310.9375</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A124" s="23">
+        <v>3</v>
+      </c>
+      <c r="B124" s="23">
+        <v>3</v>
+      </c>
+      <c r="C124" s="24">
+        <v>5</v>
+      </c>
+      <c r="D124" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E124" s="25">
+        <v>288.86</v>
+      </c>
+      <c r="F124" s="22">
+        <f t="shared" si="6"/>
+        <v>2383.0950000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A125" s="23">
+        <v>3</v>
+      </c>
+      <c r="B125" s="23">
+        <v>4</v>
+      </c>
+      <c r="C125" s="24">
+        <v>6</v>
+      </c>
+      <c r="D125" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E125" s="25">
+        <v>0</v>
+      </c>
+      <c r="F125" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A126" s="23">
+        <v>3</v>
+      </c>
+      <c r="B126" s="23">
+        <v>4</v>
+      </c>
+      <c r="C126" s="24">
+        <v>7</v>
+      </c>
+      <c r="D126" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E126" s="25">
+        <v>0</v>
+      </c>
+      <c r="F126" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A127" s="23">
+        <v>3</v>
+      </c>
+      <c r="B127" s="23">
+        <v>4</v>
+      </c>
+      <c r="C127" s="24">
+        <v>8</v>
+      </c>
+      <c r="D127" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E127" s="25">
+        <v>65.59</v>
+      </c>
+      <c r="F127" s="22">
+        <f t="shared" si="6"/>
+        <v>541.11750000000006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" ht="22" x14ac:dyDescent="0.25">
+      <c r="A128" s="23">
+        <v>3</v>
+      </c>
+      <c r="B128" s="23">
+        <v>1</v>
+      </c>
+      <c r="C128" s="24">
+        <v>9</v>
+      </c>
+      <c r="D128" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E128" s="25">
+        <v>939.69</v>
+      </c>
+      <c r="F128" s="22">
+        <f>E128*8.25</f>
+        <v>7752.4425000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A129" s="23">
+        <v>3</v>
+      </c>
+      <c r="B129" s="23">
+        <v>1</v>
+      </c>
+      <c r="C129" s="24">
+        <v>10</v>
+      </c>
+      <c r="D129" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E129" s="25">
+        <v>749.89</v>
+      </c>
+      <c r="F129" s="22">
+        <f t="shared" ref="F129:F134" si="7">E129*8.25</f>
+        <v>6186.5924999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A130" s="23">
+        <v>3</v>
+      </c>
+      <c r="B130" s="23">
+        <v>1</v>
+      </c>
+      <c r="C130" s="24">
+        <v>11</v>
+      </c>
+      <c r="D130" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E130" s="25">
+        <v>681.9</v>
+      </c>
+      <c r="F130" s="22">
+        <f t="shared" si="7"/>
+        <v>5625.6750000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A131" s="23">
+        <v>3</v>
+      </c>
+      <c r="B131" s="23">
+        <v>1</v>
+      </c>
+      <c r="C131" s="24">
+        <v>12</v>
+      </c>
+      <c r="D131" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E131" s="25">
+        <v>329.66</v>
+      </c>
+      <c r="F131" s="22">
+        <f t="shared" si="7"/>
+        <v>2719.6950000000002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A132" s="23">
+        <v>3</v>
+      </c>
+      <c r="B132" s="23">
+        <v>2</v>
+      </c>
+      <c r="C132" s="24">
+        <v>1</v>
+      </c>
+      <c r="D132" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E132" s="25">
+        <v>855.68237399999998</v>
+      </c>
+      <c r="F132" s="22">
+        <f t="shared" si="7"/>
+        <v>7059.3795854999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A133" s="23">
+        <v>3</v>
+      </c>
+      <c r="B133" s="23">
+        <v>3</v>
+      </c>
+      <c r="C133" s="24">
+        <v>2</v>
+      </c>
+      <c r="D133" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E133" s="25">
+        <v>564.78325099999995</v>
+      </c>
+      <c r="F133" s="22">
+        <f t="shared" si="7"/>
+        <v>4659.4618207499998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A134" s="23">
+        <v>3</v>
+      </c>
+      <c r="B134" s="23">
+        <v>3</v>
+      </c>
+      <c r="C134" s="24">
+        <v>3</v>
+      </c>
+      <c r="D134" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E134" s="25">
+        <v>525.09204899999997</v>
+      </c>
+      <c r="F134" s="22">
+        <f t="shared" si="7"/>
+        <v>4332.0094042499995</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A135" s="23">
+        <v>3</v>
+      </c>
+      <c r="B135" s="23">
+        <v>3</v>
+      </c>
+      <c r="C135" s="24">
+        <v>4</v>
+      </c>
+      <c r="D135" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E135" s="25">
+        <v>485.400848</v>
+      </c>
+      <c r="F135" s="22">
+        <f t="shared" si="5"/>
+        <v>4489.9578439999996</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A136" s="23">
+        <v>3</v>
+      </c>
+      <c r="B136" s="23">
+        <v>3</v>
+      </c>
+      <c r="C136" s="24">
+        <v>5</v>
+      </c>
+      <c r="D136" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E136" s="25">
+        <v>445.70964700000002</v>
+      </c>
+      <c r="F136" s="22">
+        <f t="shared" si="5"/>
+        <v>4122.8142347499997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A137" s="23">
+        <v>3</v>
+      </c>
+      <c r="B137" s="23">
+        <v>4</v>
+      </c>
+      <c r="C137" s="24">
+        <v>6</v>
+      </c>
+      <c r="D137" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E137" s="25">
+        <v>154.81052399999999</v>
+      </c>
+      <c r="F137" s="22">
+        <f t="shared" si="5"/>
+        <v>1431.997347</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A138" s="23">
+        <v>3</v>
+      </c>
+      <c r="B138" s="23">
+        <v>4</v>
+      </c>
+      <c r="C138" s="24">
+        <v>7</v>
+      </c>
+      <c r="D138" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E138" s="25">
+        <v>115.119322</v>
+      </c>
+      <c r="F138" s="22">
+        <f t="shared" si="5"/>
+        <v>1064.8537285</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A139" s="23">
+        <v>3</v>
+      </c>
+      <c r="B139" s="23">
+        <v>4</v>
+      </c>
+      <c r="C139" s="24">
+        <v>8</v>
+      </c>
+      <c r="D139" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E139" s="25">
+        <v>75.428121000000004</v>
+      </c>
+      <c r="F139" s="22">
+        <f t="shared" si="5"/>
+        <v>697.71011925000005</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A140" s="23">
+        <v>3</v>
+      </c>
+      <c r="B140" s="23">
+        <v>1</v>
+      </c>
+      <c r="C140" s="24">
+        <v>9</v>
+      </c>
+      <c r="D140" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E140" s="25">
+        <v>789.36068599999999</v>
+      </c>
+      <c r="F140" s="22">
+        <f t="shared" si="5"/>
+        <v>7301.5863454999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A141" s="23">
+        <v>3</v>
+      </c>
+      <c r="B141" s="23">
+        <v>1</v>
+      </c>
+      <c r="C141" s="24">
+        <v>10</v>
+      </c>
+      <c r="D141" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E141" s="25">
+        <v>749.66948500000001</v>
+      </c>
+      <c r="F141" s="22">
+        <f t="shared" si="5"/>
+        <v>6934.4427362500001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A142" s="23">
+        <v>3</v>
+      </c>
+      <c r="B142" s="23">
+        <v>1</v>
+      </c>
+      <c r="C142" s="24">
+        <v>11</v>
+      </c>
+      <c r="D142" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E142" s="25">
+        <v>709.97828400000003</v>
+      </c>
+      <c r="F142" s="22">
+        <f t="shared" si="5"/>
+        <v>6567.2991270000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A143" s="23">
+        <v>3</v>
+      </c>
+      <c r="B143" s="23">
+        <v>1</v>
+      </c>
+      <c r="C143" s="24">
+        <v>12</v>
+      </c>
+      <c r="D143" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E143" s="25">
+        <v>670.28708200000005</v>
+      </c>
+      <c r="F143" s="22">
+        <f t="shared" si="5"/>
+        <v>6200.1555085000009</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A144" s="23">
+        <v>3</v>
+      </c>
+      <c r="B144" s="23">
+        <v>2</v>
+      </c>
+      <c r="C144" s="24">
+        <v>1</v>
+      </c>
+      <c r="D144" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E144" s="25">
+        <v>409.03</v>
+      </c>
+      <c r="F144" s="22">
+        <f t="shared" si="5"/>
+        <v>3783.5274999999997</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A145" s="23">
+        <v>3</v>
+      </c>
+      <c r="B145" s="23">
+        <v>3</v>
+      </c>
+      <c r="C145" s="24">
+        <v>2</v>
+      </c>
+      <c r="D145" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E145" s="25">
+        <v>527.34</v>
+      </c>
+      <c r="F145" s="22">
+        <f t="shared" si="5"/>
+        <v>4877.8950000000004</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A146" s="23">
+        <v>3</v>
+      </c>
+      <c r="B146" s="23">
+        <v>3</v>
+      </c>
+      <c r="C146" s="24">
+        <v>3</v>
+      </c>
+      <c r="D146" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E146" s="25">
+        <v>539.16</v>
+      </c>
+      <c r="F146" s="22">
+        <f t="shared" si="5"/>
+        <v>4987.2299999999996</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A147" s="23">
+        <v>3</v>
+      </c>
+      <c r="B147" s="23">
+        <v>3</v>
+      </c>
+      <c r="C147" s="24">
+        <v>4</v>
+      </c>
+      <c r="D147" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E147" s="25">
+        <v>480</v>
+      </c>
+      <c r="F147" s="22">
+        <f t="shared" si="5"/>
+        <v>4440</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A148" s="23">
+        <v>3</v>
+      </c>
+      <c r="B148" s="23">
+        <v>3</v>
+      </c>
+      <c r="C148" s="24">
+        <v>5</v>
+      </c>
+      <c r="D148" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E148" s="25">
+        <v>294.11</v>
+      </c>
+      <c r="F148" s="22">
+        <f t="shared" si="5"/>
+        <v>2720.5174999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A149" s="23">
+        <v>3</v>
+      </c>
+      <c r="B149" s="23">
+        <v>4</v>
+      </c>
+      <c r="C149" s="24">
+        <v>6</v>
+      </c>
+      <c r="D149" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E149" s="25">
+        <v>0</v>
+      </c>
+      <c r="F149" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A150" s="23">
+        <v>3</v>
+      </c>
+      <c r="B150" s="23">
+        <v>4</v>
+      </c>
+      <c r="C150" s="24">
+        <v>7</v>
+      </c>
+      <c r="D150" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E150" s="25">
+        <v>0</v>
+      </c>
+      <c r="F150" s="22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A151" s="23">
+        <v>3</v>
+      </c>
+      <c r="B151" s="23">
+        <v>4</v>
+      </c>
+      <c r="C151" s="24">
+        <v>8</v>
+      </c>
+      <c r="D151" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E151" s="25">
+        <v>35.869999999999997</v>
+      </c>
+      <c r="F151" s="22">
+        <f t="shared" ref="F151:F220" si="8">E151*9.25</f>
+        <v>331.79749999999996</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A152" s="23">
+        <v>3</v>
+      </c>
+      <c r="B152" s="23">
+        <v>1</v>
+      </c>
+      <c r="C152" s="24">
+        <v>9</v>
+      </c>
+      <c r="D152" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E152" s="25">
+        <v>653.09</v>
+      </c>
+      <c r="F152" s="22">
+        <f t="shared" si="8"/>
+        <v>6041.0825000000004</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A153" s="23">
+        <v>3</v>
+      </c>
+      <c r="B153" s="23">
+        <v>1</v>
+      </c>
+      <c r="C153" s="24">
+        <v>10</v>
+      </c>
+      <c r="D153" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E153" s="25">
+        <v>572.16</v>
+      </c>
+      <c r="F153" s="22">
+        <f t="shared" si="8"/>
+        <v>5292.48</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A154" s="23">
+        <v>3</v>
+      </c>
+      <c r="B154" s="23">
+        <v>1</v>
+      </c>
+      <c r="C154" s="24">
+        <v>11</v>
+      </c>
+      <c r="D154" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E154" s="25">
+        <v>476.08</v>
+      </c>
+      <c r="F154" s="22">
+        <f t="shared" si="8"/>
+        <v>4403.74</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A155" s="23">
+        <v>3</v>
+      </c>
+      <c r="B155" s="23">
+        <v>1</v>
+      </c>
+      <c r="C155" s="24">
+        <v>12</v>
+      </c>
+      <c r="D155" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E155" s="25">
+        <v>275.44</v>
+      </c>
+      <c r="F155" s="22">
+        <f t="shared" si="8"/>
+        <v>2547.8200000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A156" s="23">
+        <v>3</v>
+      </c>
+      <c r="B156" s="23">
+        <v>2</v>
+      </c>
+      <c r="C156" s="24">
+        <v>1</v>
+      </c>
+      <c r="D156" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E156" s="25">
+        <v>276.18</v>
+      </c>
+      <c r="F156" s="22">
+        <f t="shared" si="8"/>
+        <v>2554.665</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A157" s="23">
+        <v>3</v>
+      </c>
+      <c r="B157" s="23">
+        <v>3</v>
+      </c>
+      <c r="C157" s="24">
+        <v>2</v>
+      </c>
+      <c r="D157" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E157" s="25">
+        <v>495.02</v>
+      </c>
+      <c r="F157" s="22">
+        <f t="shared" si="8"/>
+        <v>4578.9349999999995</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A158" s="23">
+        <v>3</v>
+      </c>
+      <c r="B158" s="23">
+        <v>3</v>
+      </c>
+      <c r="C158" s="24">
+        <v>3</v>
+      </c>
+      <c r="D158" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E158" s="25">
+        <v>321.52999999999997</v>
+      </c>
+      <c r="F158" s="22">
+        <f t="shared" si="8"/>
+        <v>2974.1524999999997</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A159" s="23">
+        <v>3</v>
+      </c>
+      <c r="B159" s="23">
+        <v>3</v>
+      </c>
+      <c r="C159" s="24">
+        <v>4</v>
+      </c>
+      <c r="D159" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E159" s="25">
+        <v>426.84</v>
+      </c>
+      <c r="F159" s="22">
+        <f t="shared" si="8"/>
+        <v>3948.27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A160" s="23">
+        <v>3</v>
+      </c>
+      <c r="B160" s="23">
+        <v>3</v>
+      </c>
+      <c r="C160" s="24">
+        <v>5</v>
+      </c>
+      <c r="D160" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E160" s="25">
+        <v>207.12</v>
+      </c>
+      <c r="F160" s="22">
+        <f t="shared" si="8"/>
+        <v>1915.8600000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A161" s="23">
+        <v>3</v>
+      </c>
+      <c r="B161" s="23">
+        <v>4</v>
+      </c>
+      <c r="C161" s="24">
+        <v>6</v>
+      </c>
+      <c r="D161" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E161" s="25">
+        <v>0</v>
+      </c>
+      <c r="F161" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A162" s="23">
+        <v>3</v>
+      </c>
+      <c r="B162" s="23">
+        <v>4</v>
+      </c>
+      <c r="C162" s="24">
+        <v>7</v>
+      </c>
+      <c r="D162" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E162" s="25">
+        <v>0</v>
+      </c>
+      <c r="F162" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A163" s="23">
+        <v>3</v>
+      </c>
+      <c r="B163" s="23">
+        <v>4</v>
+      </c>
+      <c r="C163" s="24">
+        <v>8</v>
+      </c>
+      <c r="D163" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E163" s="25">
+        <v>0</v>
+      </c>
+      <c r="F163" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A164" s="23">
+        <v>3</v>
+      </c>
+      <c r="B164" s="23">
+        <v>1</v>
+      </c>
+      <c r="C164" s="24">
+        <v>9</v>
+      </c>
+      <c r="D164" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E164" s="25"/>
+      <c r="F164" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A165" s="23">
+        <v>3</v>
+      </c>
+      <c r="B165" s="23">
+        <v>1</v>
+      </c>
+      <c r="C165" s="24">
+        <v>10</v>
+      </c>
+      <c r="D165" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E165" s="25"/>
+      <c r="F165" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A166" s="23">
+        <v>3</v>
+      </c>
+      <c r="B166" s="23">
+        <v>1</v>
+      </c>
+      <c r="C166" s="24">
+        <v>11</v>
+      </c>
+      <c r="D166" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E166" s="25"/>
+      <c r="F166" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A167" s="23">
+        <v>3</v>
+      </c>
+      <c r="B167" s="23">
+        <v>1</v>
+      </c>
+      <c r="C167" s="24">
+        <v>12</v>
+      </c>
+      <c r="D167" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E167" s="25"/>
+      <c r="F167" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A168" s="23">
+        <v>3</v>
+      </c>
+      <c r="B168" s="23">
+        <v>2</v>
+      </c>
+      <c r="C168" s="24">
+        <v>1</v>
+      </c>
+      <c r="D168" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E168" s="25"/>
+      <c r="F168" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A169" s="23">
+        <v>3</v>
+      </c>
+      <c r="B169" s="23">
+        <v>3</v>
+      </c>
+      <c r="C169" s="24">
+        <v>2</v>
+      </c>
+      <c r="D169" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E169" s="25"/>
+      <c r="F169" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A170" s="23">
+        <v>3</v>
+      </c>
+      <c r="B170" s="23">
+        <v>3</v>
+      </c>
+      <c r="C170" s="24">
+        <v>3</v>
+      </c>
+      <c r="D170" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E170" s="25"/>
+      <c r="F170" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A171" s="23">
+        <v>3</v>
+      </c>
+      <c r="B171" s="23">
+        <v>3</v>
+      </c>
+      <c r="C171" s="24">
+        <v>4</v>
+      </c>
+      <c r="D171" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E171" s="25"/>
+      <c r="F171" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A172" s="23">
+        <v>3</v>
+      </c>
+      <c r="B172" s="23">
+        <v>3</v>
+      </c>
+      <c r="C172" s="24">
+        <v>5</v>
+      </c>
+      <c r="D172" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E172" s="25"/>
+      <c r="F172" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A173" s="23">
+        <v>4</v>
+      </c>
+      <c r="B173" s="23">
+        <v>1</v>
+      </c>
+      <c r="C173" s="24">
+        <v>9</v>
+      </c>
+      <c r="D173" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E173" s="29">
+        <v>191.95</v>
+      </c>
+      <c r="F173" s="22">
+        <f>E173*8.25</f>
+        <v>1583.5874999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A174" s="23">
+        <v>4</v>
+      </c>
+      <c r="B174" s="23">
+        <v>1</v>
+      </c>
+      <c r="C174" s="24">
+        <v>10</v>
+      </c>
+      <c r="D174" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E174" s="29">
+        <v>312.37</v>
+      </c>
+      <c r="F174" s="22">
+        <f t="shared" ref="F174:F184" si="9">E174*8.25</f>
+        <v>2577.0525000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A175" s="23">
+        <v>4</v>
+      </c>
+      <c r="B175" s="23">
+        <v>1</v>
+      </c>
+      <c r="C175" s="24">
+        <v>11</v>
+      </c>
+      <c r="D175" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E175" s="29">
+        <v>186.53</v>
+      </c>
+      <c r="F175" s="22">
+        <f t="shared" si="9"/>
+        <v>1538.8724999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A176" s="23">
+        <v>4</v>
+      </c>
+      <c r="B176" s="23">
+        <v>1</v>
+      </c>
+      <c r="C176" s="24">
+        <v>12</v>
+      </c>
+      <c r="D176" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E176" s="29">
+        <v>80.510000000000005</v>
+      </c>
+      <c r="F176" s="22">
+        <f t="shared" si="9"/>
+        <v>664.2075000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A177" s="23">
+        <v>4</v>
+      </c>
+      <c r="B177" s="23">
+        <v>2</v>
+      </c>
+      <c r="C177" s="24">
+        <v>1</v>
+      </c>
+      <c r="D177" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E177" s="29">
+        <v>104.51</v>
+      </c>
+      <c r="F177" s="22">
+        <f t="shared" si="9"/>
+        <v>862.2075000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A178" s="23">
+        <v>4</v>
+      </c>
+      <c r="B178" s="23">
+        <v>3</v>
+      </c>
+      <c r="C178" s="24">
+        <v>2</v>
+      </c>
+      <c r="D178" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E178" s="29">
+        <v>248.15</v>
+      </c>
+      <c r="F178" s="22">
+        <f t="shared" si="9"/>
+        <v>2047.2375</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A179" s="23">
+        <v>4</v>
+      </c>
+      <c r="B179" s="23">
+        <v>3</v>
+      </c>
+      <c r="C179" s="24">
+        <v>3</v>
+      </c>
+      <c r="D179" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E179" s="29">
+        <v>314.17</v>
+      </c>
+      <c r="F179" s="22">
+        <f t="shared" si="9"/>
+        <v>2591.9025000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A180" s="23">
+        <v>4</v>
+      </c>
+      <c r="B180" s="23">
+        <v>3</v>
+      </c>
+      <c r="C180" s="24">
+        <v>4</v>
+      </c>
+      <c r="D180" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E180" s="29">
+        <v>266.29000000000002</v>
+      </c>
+      <c r="F180" s="22">
+        <f t="shared" si="9"/>
+        <v>2196.8925000000004</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A181" s="23">
+        <v>4</v>
+      </c>
+      <c r="B181" s="23">
+        <v>3</v>
+      </c>
+      <c r="C181" s="24">
+        <v>5</v>
+      </c>
+      <c r="D181" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E181" s="29">
+        <v>116.69</v>
+      </c>
+      <c r="F181" s="22">
+        <f t="shared" si="9"/>
+        <v>962.6925</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A182" s="23">
+        <v>4</v>
+      </c>
+      <c r="B182" s="23">
+        <v>4</v>
+      </c>
+      <c r="C182" s="24">
+        <v>6</v>
+      </c>
+      <c r="D182" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E182" s="29">
+        <v>0</v>
+      </c>
+      <c r="F182" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A183" s="23">
+        <v>4</v>
+      </c>
+      <c r="B183" s="23">
+        <v>4</v>
+      </c>
+      <c r="C183" s="24">
+        <v>7</v>
+      </c>
+      <c r="D183" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E183" s="29">
+        <v>0</v>
+      </c>
+      <c r="F183" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A184" s="23">
+        <v>4</v>
+      </c>
+      <c r="B184" s="23">
+        <v>4</v>
+      </c>
+      <c r="C184" s="24">
+        <v>8</v>
+      </c>
+      <c r="D184" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E184" s="29">
+        <v>0</v>
+      </c>
+      <c r="F184" s="22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A185" s="23">
+        <v>4</v>
+      </c>
+      <c r="B185" s="23">
+        <v>1</v>
+      </c>
+      <c r="C185" s="24">
+        <v>9</v>
+      </c>
+      <c r="D185" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E185" s="29">
+        <v>266.22000000000003</v>
+      </c>
+      <c r="F185" s="22">
+        <f>E185*8.25</f>
+        <v>2196.3150000000001</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A186" s="23">
+        <v>4</v>
+      </c>
+      <c r="B186" s="23">
+        <v>1</v>
+      </c>
+      <c r="C186" s="24">
+        <v>10</v>
+      </c>
+      <c r="D186" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E186" s="29">
+        <v>223.53</v>
+      </c>
+      <c r="F186" s="22">
+        <f t="shared" ref="F186:F191" si="10">E186*8.25</f>
+        <v>1844.1224999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A187" s="23">
+        <v>4</v>
+      </c>
+      <c r="B187" s="23">
+        <v>1</v>
+      </c>
+      <c r="C187" s="24">
+        <v>11</v>
+      </c>
+      <c r="D187" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E187" s="29">
+        <v>210.47</v>
+      </c>
+      <c r="F187" s="22">
+        <f t="shared" si="10"/>
+        <v>1736.3775000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A188" s="23">
+        <v>4</v>
+      </c>
+      <c r="B188" s="23">
+        <v>1</v>
+      </c>
+      <c r="C188" s="24">
+        <v>12</v>
+      </c>
+      <c r="D188" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E188" s="29">
+        <v>123.31</v>
+      </c>
+      <c r="F188" s="22">
+        <f t="shared" si="10"/>
+        <v>1017.3075</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A189" s="23">
+        <v>4</v>
+      </c>
+      <c r="B189" s="23">
+        <v>2</v>
+      </c>
+      <c r="C189" s="24">
+        <v>1</v>
+      </c>
+      <c r="D189" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E189" s="25">
+        <v>576.91567999999995</v>
+      </c>
+      <c r="F189" s="22">
+        <f t="shared" si="10"/>
+        <v>4759.5543599999992</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A190" s="23">
+        <v>4</v>
+      </c>
+      <c r="B190" s="23">
+        <v>3</v>
+      </c>
+      <c r="C190" s="24">
+        <v>2</v>
+      </c>
+      <c r="D190" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E190" s="25">
+        <v>286.01655599999998</v>
+      </c>
+      <c r="F190" s="22">
+        <f t="shared" si="10"/>
+        <v>2359.636587</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A191" s="23">
+        <v>4</v>
+      </c>
+      <c r="B191" s="23">
+        <v>3</v>
+      </c>
+      <c r="C191" s="24">
+        <v>3</v>
+      </c>
+      <c r="D191" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E191" s="25">
+        <v>246.325355</v>
+      </c>
+      <c r="F191" s="22">
+        <f t="shared" si="10"/>
+        <v>2032.18417875</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A192" s="23">
+        <v>4</v>
+      </c>
+      <c r="B192" s="23">
+        <v>3</v>
+      </c>
+      <c r="C192" s="24">
+        <v>4</v>
+      </c>
+      <c r="D192" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E192" s="25">
+        <v>206.634154</v>
+      </c>
+      <c r="F192" s="22">
+        <f t="shared" si="8"/>
+        <v>1911.3659244999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A193" s="23">
+        <v>4</v>
+      </c>
+      <c r="B193" s="23">
+        <v>3</v>
+      </c>
+      <c r="C193" s="24">
+        <v>5</v>
+      </c>
+      <c r="D193" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E193" s="25">
+        <v>166.94295299999999</v>
+      </c>
+      <c r="F193" s="22">
+        <f t="shared" si="8"/>
+        <v>1544.2223152499998</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A194" s="23">
+        <v>4</v>
+      </c>
+      <c r="B194" s="23">
+        <v>4</v>
+      </c>
+      <c r="C194" s="24">
+        <v>6</v>
+      </c>
+      <c r="D194" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E194" s="25">
+        <v>0</v>
+      </c>
+      <c r="F194" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A195" s="23">
+        <v>4</v>
+      </c>
+      <c r="B195" s="23">
+        <v>4</v>
+      </c>
+      <c r="C195" s="24">
+        <v>7</v>
+      </c>
+      <c r="D195" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E195" s="25">
+        <v>0</v>
+      </c>
+      <c r="F195" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A196" s="23">
+        <v>4</v>
+      </c>
+      <c r="B196" s="23">
+        <v>4</v>
+      </c>
+      <c r="C196" s="24">
+        <v>8</v>
+      </c>
+      <c r="D196" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E196" s="25">
+        <v>0</v>
+      </c>
+      <c r="F196" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A197" s="23">
+        <v>4</v>
+      </c>
+      <c r="B197" s="23">
+        <v>1</v>
+      </c>
+      <c r="C197" s="24">
+        <v>9</v>
+      </c>
+      <c r="D197" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E197" s="25">
+        <v>510.59399200000001</v>
+      </c>
+      <c r="F197" s="22">
+        <f t="shared" si="8"/>
+        <v>4722.9944260000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A198" s="23">
+        <v>4</v>
+      </c>
+      <c r="B198" s="23">
+        <v>1</v>
+      </c>
+      <c r="C198" s="24">
+        <v>10</v>
+      </c>
+      <c r="D198" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E198" s="25">
+        <v>470.90279099999998</v>
+      </c>
+      <c r="F198" s="22">
+        <f t="shared" si="8"/>
+        <v>4355.8508167499995</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A199" s="23">
+        <v>4</v>
+      </c>
+      <c r="B199" s="23">
+        <v>1</v>
+      </c>
+      <c r="C199" s="24">
+        <v>11</v>
+      </c>
+      <c r="D199" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E199" s="25">
+        <v>431.211589</v>
+      </c>
+      <c r="F199" s="22">
+        <f t="shared" si="8"/>
+        <v>3988.7071982500001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A200" s="23">
+        <v>4</v>
+      </c>
+      <c r="B200" s="23">
+        <v>1</v>
+      </c>
+      <c r="C200" s="24">
+        <v>12</v>
+      </c>
+      <c r="D200" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E200" s="25">
+        <v>391.52038800000003</v>
+      </c>
+      <c r="F200" s="22">
+        <f t="shared" si="8"/>
+        <v>3621.5635890000003</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A201" s="23">
+        <v>4</v>
+      </c>
+      <c r="B201" s="23">
+        <v>2</v>
+      </c>
+      <c r="C201" s="24">
+        <v>1</v>
+      </c>
+      <c r="D201" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E201" s="29">
+        <v>220.26</v>
+      </c>
+      <c r="F201" s="22">
+        <f t="shared" si="8"/>
+        <v>2037.405</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A202" s="23">
+        <v>4</v>
+      </c>
+      <c r="B202" s="23">
+        <v>3</v>
+      </c>
+      <c r="C202" s="24">
+        <v>2</v>
+      </c>
+      <c r="D202" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E202" s="29">
+        <v>305.91000000000003</v>
+      </c>
+      <c r="F202" s="22">
+        <f t="shared" si="8"/>
+        <v>2829.6675</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A203" s="23">
+        <v>4</v>
+      </c>
+      <c r="B203" s="23">
+        <v>3</v>
+      </c>
+      <c r="C203" s="24">
+        <v>3</v>
+      </c>
+      <c r="D203" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E203" s="29">
+        <v>212.57</v>
+      </c>
+      <c r="F203" s="22">
+        <f t="shared" si="8"/>
+        <v>1966.2725</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A204" s="23">
+        <v>4</v>
+      </c>
+      <c r="B204" s="23">
+        <v>3</v>
+      </c>
+      <c r="C204" s="24">
+        <v>4</v>
+      </c>
+      <c r="D204" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E204" s="29">
+        <v>250.63</v>
+      </c>
+      <c r="F204" s="22">
+        <f t="shared" si="8"/>
+        <v>2318.3274999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A205" s="23">
+        <v>4</v>
+      </c>
+      <c r="B205" s="23">
+        <v>3</v>
+      </c>
+      <c r="C205" s="24">
+        <v>5</v>
+      </c>
+      <c r="D205" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E205" s="29">
+        <v>164.15</v>
+      </c>
+      <c r="F205" s="22">
+        <f t="shared" si="8"/>
+        <v>1518.3875</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A206" s="23">
+        <v>4</v>
+      </c>
+      <c r="B206" s="23">
+        <v>4</v>
+      </c>
+      <c r="C206" s="24">
+        <v>6</v>
+      </c>
+      <c r="D206" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E206" s="29">
+        <v>0</v>
+      </c>
+      <c r="F206" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A207" s="23">
+        <v>4</v>
+      </c>
+      <c r="B207" s="23">
+        <v>4</v>
+      </c>
+      <c r="C207" s="24">
+        <v>7</v>
+      </c>
+      <c r="D207" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E207" s="29">
+        <v>0</v>
+      </c>
+      <c r="F207" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A208" s="23">
+        <v>4</v>
+      </c>
+      <c r="B208" s="23">
+        <v>4</v>
+      </c>
+      <c r="C208" s="24">
+        <v>8</v>
+      </c>
+      <c r="D208" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E208" s="29">
+        <v>11.5</v>
+      </c>
+      <c r="F208" s="22">
+        <f t="shared" si="8"/>
+        <v>106.375</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A209" s="23">
+        <v>4</v>
+      </c>
+      <c r="B209" s="23">
+        <v>1</v>
+      </c>
+      <c r="C209" s="24">
+        <v>9</v>
+      </c>
+      <c r="D209" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E209" s="29">
+        <v>295.35000000000002</v>
+      </c>
+      <c r="F209" s="22">
+        <f t="shared" si="8"/>
+        <v>2731.9875000000002</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A210" s="23">
+        <v>4</v>
+      </c>
+      <c r="B210" s="23">
+        <v>1</v>
+      </c>
+      <c r="C210" s="24">
+        <v>10</v>
+      </c>
+      <c r="D210" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E210" s="29">
+        <v>207.13</v>
+      </c>
+      <c r="F210" s="22">
+        <f t="shared" si="8"/>
+        <v>1915.9524999999999</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A211" s="23">
+        <v>4</v>
+      </c>
+      <c r="B211" s="23">
+        <v>1</v>
+      </c>
+      <c r="C211" s="24">
+        <v>11</v>
+      </c>
+      <c r="D211" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E211" s="29">
+        <v>195.95</v>
+      </c>
+      <c r="F211" s="22">
+        <f t="shared" si="8"/>
+        <v>1812.5374999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A212" s="23">
+        <v>4</v>
+      </c>
+      <c r="B212" s="23">
+        <v>1</v>
+      </c>
+      <c r="C212" s="24">
+        <v>12</v>
+      </c>
+      <c r="D212" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E212" s="29">
+        <v>102.81</v>
+      </c>
+      <c r="F212" s="22">
+        <f t="shared" si="8"/>
+        <v>950.99250000000006</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A213" s="23">
+        <v>4</v>
+      </c>
+      <c r="B213" s="23">
+        <v>2</v>
+      </c>
+      <c r="C213" s="24">
+        <v>1</v>
+      </c>
+      <c r="D213" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E213" s="29">
+        <v>198.52</v>
+      </c>
+      <c r="F213" s="22">
+        <f t="shared" si="8"/>
+        <v>1836.3100000000002</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A214" s="23">
+        <v>4</v>
+      </c>
+      <c r="B214" s="23">
+        <v>3</v>
+      </c>
+      <c r="C214" s="24">
+        <v>2</v>
+      </c>
+      <c r="D214" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E214" s="29">
+        <v>261.43</v>
+      </c>
+      <c r="F214" s="22">
+        <f t="shared" si="8"/>
+        <v>2418.2275</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A215" s="23">
+        <v>4</v>
+      </c>
+      <c r="B215" s="23">
+        <v>3</v>
+      </c>
+      <c r="C215" s="24">
+        <v>3</v>
+      </c>
+      <c r="D215" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E215" s="29">
+        <v>142.9</v>
+      </c>
+      <c r="F215" s="22">
+        <f t="shared" si="8"/>
+        <v>1321.825</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A216" s="23">
+        <v>4</v>
+      </c>
+      <c r="B216" s="23">
+        <v>3</v>
+      </c>
+      <c r="C216" s="24">
+        <v>4</v>
+      </c>
+      <c r="D216" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E216" s="29">
+        <v>203.57</v>
+      </c>
+      <c r="F216" s="22">
+        <f t="shared" si="8"/>
+        <v>1883.0225</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A217" s="23">
+        <v>4</v>
+      </c>
+      <c r="B217" s="23">
+        <v>3</v>
+      </c>
+      <c r="C217" s="24">
+        <v>5</v>
+      </c>
+      <c r="D217" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E217" s="29">
+        <v>90.84</v>
+      </c>
+      <c r="F217" s="22">
+        <f t="shared" si="8"/>
+        <v>840.27</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A218" s="23">
+        <v>4</v>
+      </c>
+      <c r="B218" s="23">
+        <v>4</v>
+      </c>
+      <c r="C218" s="24">
+        <v>6</v>
+      </c>
+      <c r="D218" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E218" s="29">
+        <v>0</v>
+      </c>
+      <c r="F218" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A219" s="23">
+        <v>4</v>
+      </c>
+      <c r="B219" s="23">
+        <v>4</v>
+      </c>
+      <c r="C219" s="24">
+        <v>7</v>
+      </c>
+      <c r="D219" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E219" s="29">
+        <v>0</v>
+      </c>
+      <c r="F219" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A220" s="23">
+        <v>4</v>
+      </c>
+      <c r="B220" s="23">
+        <v>4</v>
+      </c>
+      <c r="C220" s="24">
+        <v>8</v>
+      </c>
+      <c r="D220" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E220" s="29">
+        <v>0</v>
+      </c>
+      <c r="F220" s="22">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A221" s="23">
+        <v>4</v>
+      </c>
+      <c r="B221" s="23">
+        <v>1</v>
+      </c>
+      <c r="C221" s="24">
+        <v>9</v>
+      </c>
+      <c r="D221" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E221" s="25"/>
+      <c r="F221" s="22">
+        <f t="shared" ref="F221:F229" si="11">E221*9.25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A222" s="23">
+        <v>4</v>
+      </c>
+      <c r="B222" s="23">
+        <v>1</v>
+      </c>
+      <c r="C222" s="24">
+        <v>10</v>
+      </c>
+      <c r="D222" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E222" s="25"/>
+      <c r="F222" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A223" s="23">
+        <v>4</v>
+      </c>
+      <c r="B223" s="23">
+        <v>1</v>
+      </c>
+      <c r="C223" s="24">
+        <v>11</v>
+      </c>
+      <c r="D223" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E223" s="25"/>
+      <c r="F223" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A224" s="23">
+        <v>4</v>
+      </c>
+      <c r="B224" s="23">
+        <v>1</v>
+      </c>
+      <c r="C224" s="24">
+        <v>12</v>
+      </c>
+      <c r="D224" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E224" s="25"/>
+      <c r="F224" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A225" s="23">
+        <v>4</v>
+      </c>
+      <c r="B225" s="23">
+        <v>2</v>
+      </c>
+      <c r="C225" s="24">
+        <v>1</v>
+      </c>
+      <c r="D225" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E225" s="25"/>
+      <c r="F225" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A226" s="23">
+        <v>4</v>
+      </c>
+      <c r="B226" s="23">
+        <v>3</v>
+      </c>
+      <c r="C226" s="24">
+        <v>2</v>
+      </c>
+      <c r="D226" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E226" s="25"/>
+      <c r="F226" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A227" s="23">
+        <v>4</v>
+      </c>
+      <c r="B227" s="23">
+        <v>3</v>
+      </c>
+      <c r="C227" s="24">
+        <v>3</v>
+      </c>
+      <c r="D227" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E227" s="25"/>
+      <c r="F227" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A228" s="23">
+        <v>4</v>
+      </c>
+      <c r="B228" s="23">
+        <v>3</v>
+      </c>
+      <c r="C228" s="24">
+        <v>4</v>
+      </c>
+      <c r="D228" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E228" s="25"/>
+      <c r="F228" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A229" s="23">
+        <v>4</v>
+      </c>
+      <c r="B229" s="23">
+        <v>3</v>
+      </c>
+      <c r="C229" s="24">
+        <v>5</v>
+      </c>
+      <c r="D229" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E229" s="25"/>
+      <c r="F229" s="22">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A230" s="23">
+        <v>5</v>
+      </c>
+      <c r="B230" s="23">
+        <v>1</v>
+      </c>
+      <c r="C230" s="24">
+        <v>9</v>
+      </c>
+      <c r="D230" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E230" s="29">
+        <v>0</v>
+      </c>
+      <c r="F230" s="22">
+        <f>E230*8.25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A231" s="23">
+        <v>5</v>
+      </c>
+      <c r="B231" s="23">
+        <v>1</v>
+      </c>
+      <c r="C231" s="24">
+        <v>10</v>
+      </c>
+      <c r="D231" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E231" s="29">
+        <v>0</v>
+      </c>
+      <c r="F231" s="22">
+        <f t="shared" ref="F231:F241" si="12">E231*8.25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A232" s="23">
+        <v>5</v>
+      </c>
+      <c r="B232" s="23">
+        <v>1</v>
+      </c>
+      <c r="C232" s="24">
+        <v>11</v>
+      </c>
+      <c r="D232" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E232" s="29">
+        <v>0</v>
+      </c>
+      <c r="F232" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A233" s="23">
+        <v>5</v>
+      </c>
+      <c r="B233" s="23">
+        <v>1</v>
+      </c>
+      <c r="C233" s="24">
+        <v>12</v>
+      </c>
+      <c r="D233" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E233" s="29">
+        <v>0</v>
+      </c>
+      <c r="F233" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A234" s="23">
+        <v>5</v>
+      </c>
+      <c r="B234" s="23">
+        <v>2</v>
+      </c>
+      <c r="C234" s="24">
+        <v>1</v>
+      </c>
+      <c r="D234" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E234" s="29">
+        <v>0</v>
+      </c>
+      <c r="F234" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A235" s="23">
+        <v>5</v>
+      </c>
+      <c r="B235" s="23">
+        <v>3</v>
+      </c>
+      <c r="C235" s="24">
+        <v>2</v>
+      </c>
+      <c r="D235" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E235" s="29">
+        <v>0</v>
+      </c>
+      <c r="F235" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A236" s="23">
+        <v>5</v>
+      </c>
+      <c r="B236" s="23">
+        <v>3</v>
+      </c>
+      <c r="C236" s="24">
+        <v>3</v>
+      </c>
+      <c r="D236" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E236" s="29">
+        <v>0</v>
+      </c>
+      <c r="F236" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A237" s="23">
+        <v>5</v>
+      </c>
+      <c r="B237" s="23">
+        <v>3</v>
+      </c>
+      <c r="C237" s="24">
+        <v>4</v>
+      </c>
+      <c r="D237" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E237" s="29">
+        <v>0</v>
+      </c>
+      <c r="F237" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A238" s="23">
+        <v>5</v>
+      </c>
+      <c r="B238" s="23">
+        <v>3</v>
+      </c>
+      <c r="C238" s="24">
+        <v>5</v>
+      </c>
+      <c r="D238" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E238" s="29">
+        <v>0</v>
+      </c>
+      <c r="F238" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A239" s="23">
+        <v>5</v>
+      </c>
+      <c r="B239" s="23">
+        <v>4</v>
+      </c>
+      <c r="C239" s="24">
+        <v>6</v>
+      </c>
+      <c r="D239" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E239" s="29">
+        <v>96</v>
+      </c>
+      <c r="F239" s="22">
+        <f t="shared" si="12"/>
+        <v>792</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A240" s="23">
+        <v>5</v>
+      </c>
+      <c r="B240" s="23">
+        <v>4</v>
+      </c>
+      <c r="C240" s="24">
+        <v>7</v>
+      </c>
+      <c r="D240" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E240" s="29">
+        <v>0</v>
+      </c>
+      <c r="F240" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A241" s="23">
+        <v>5</v>
+      </c>
+      <c r="B241" s="23">
+        <v>4</v>
+      </c>
+      <c r="C241" s="24">
+        <v>8</v>
+      </c>
+      <c r="D241" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E241" s="29">
+        <v>17.8</v>
+      </c>
+      <c r="F241" s="22">
+        <f t="shared" si="12"/>
+        <v>146.85</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A242" s="23">
+        <v>5</v>
+      </c>
+      <c r="B242" s="23">
+        <v>1</v>
+      </c>
+      <c r="C242" s="24">
+        <v>9</v>
+      </c>
+      <c r="D242" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E242" s="29">
+        <v>289.29000000000002</v>
+      </c>
+      <c r="F242" s="22">
+        <f>E242*8.25</f>
+        <v>2386.6425000000004</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A243" s="23">
+        <v>5</v>
+      </c>
+      <c r="B243" s="23">
+        <v>1</v>
+      </c>
+      <c r="C243" s="24">
+        <v>10</v>
+      </c>
+      <c r="D243" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E243" s="29">
+        <v>454.43</v>
+      </c>
+      <c r="F243" s="22">
+        <f t="shared" ref="F243:F248" si="13">E243*8.25</f>
+        <v>3749.0475000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A244" s="23">
+        <v>5</v>
+      </c>
+      <c r="B244" s="23">
+        <v>1</v>
+      </c>
+      <c r="C244" s="24">
+        <v>11</v>
+      </c>
+      <c r="D244" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E244" s="29">
+        <v>329.54</v>
+      </c>
+      <c r="F244" s="22">
+        <f t="shared" si="13"/>
+        <v>2718.7050000000004</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A245" s="23">
+        <v>5</v>
+      </c>
+      <c r="B245" s="23">
+        <v>1</v>
+      </c>
+      <c r="C245" s="24">
+        <v>12</v>
+      </c>
+      <c r="D245" s="23">
+        <v>2021</v>
+      </c>
+      <c r="E245" s="29">
+        <v>240.04</v>
+      </c>
+      <c r="F245" s="22">
+        <f t="shared" si="13"/>
+        <v>1980.33</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="A246" s="23">
+        <v>5</v>
+      </c>
+      <c r="B246" s="23">
+        <v>2</v>
+      </c>
+      <c r="C246" s="24">
+        <v>1</v>
+      </c>
+      <c r="D246" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E246" s="30">
+        <v>298.14898499999998</v>
+      </c>
+      <c r="F246" s="22">
+        <f t="shared" si="13"/>
+        <v>2459.7291262499998</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="22" x14ac:dyDescent="0.2">
+      <c r="A247" s="23">
+        <v>5</v>
+      </c>
+      <c r="B247" s="23">
+        <v>3</v>
+      </c>
+      <c r="C247" s="24">
+        <v>2</v>
+      </c>
+      <c r="D247" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E247" s="30">
+        <v>7.2498620000000003</v>
+      </c>
+      <c r="F247" s="22">
+        <f t="shared" si="13"/>
+        <v>59.811361500000004</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A248" s="23">
+        <v>5</v>
+      </c>
+      <c r="B248" s="23">
+        <v>3</v>
+      </c>
+      <c r="C248" s="24">
+        <v>3</v>
+      </c>
+      <c r="D248" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E248" s="25">
+        <v>0</v>
+      </c>
+      <c r="F248" s="22">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A249" s="23">
+        <v>5</v>
+      </c>
+      <c r="B249" s="23">
+        <v>3</v>
+      </c>
+      <c r="C249" s="24">
+        <v>4</v>
+      </c>
+      <c r="D249" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E249" s="25">
+        <v>0</v>
+      </c>
+      <c r="F249" s="22">
+        <f t="shared" ref="F249:F286" si="14">E249*9.25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A250" s="23">
+        <v>5</v>
+      </c>
+      <c r="B250" s="23">
+        <v>3</v>
+      </c>
+      <c r="C250" s="24">
+        <v>5</v>
+      </c>
+      <c r="D250" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E250" s="25">
+        <v>0</v>
+      </c>
+      <c r="F250" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A251" s="23">
+        <v>5</v>
+      </c>
+      <c r="B251" s="23">
+        <v>4</v>
+      </c>
+      <c r="C251" s="24">
+        <v>6</v>
+      </c>
+      <c r="D251" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E251" s="25">
+        <v>0</v>
+      </c>
+      <c r="F251" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A252" s="23">
+        <v>5</v>
+      </c>
+      <c r="B252" s="23">
+        <v>4</v>
+      </c>
+      <c r="C252" s="24">
+        <v>7</v>
+      </c>
+      <c r="D252" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E252" s="25">
+        <v>0</v>
+      </c>
+      <c r="F252" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A253" s="23">
+        <v>5</v>
+      </c>
+      <c r="B253" s="23">
+        <v>4</v>
+      </c>
+      <c r="C253" s="24">
+        <v>8</v>
+      </c>
+      <c r="D253" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E253" s="25">
+        <v>0</v>
+      </c>
+      <c r="F253" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A254" s="23">
+        <v>5</v>
+      </c>
+      <c r="B254" s="23">
+        <v>1</v>
+      </c>
+      <c r="C254" s="24">
+        <v>9</v>
+      </c>
+      <c r="D254" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E254" s="25">
+        <v>231.82729699999999</v>
+      </c>
+      <c r="F254" s="22">
+        <f t="shared" si="14"/>
+        <v>2144.4024972499997</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A255" s="23">
+        <v>5</v>
+      </c>
+      <c r="B255" s="23">
+        <v>1</v>
+      </c>
+      <c r="C255" s="24">
+        <v>10</v>
+      </c>
+      <c r="D255" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E255" s="25">
+        <v>192.13609600000001</v>
+      </c>
+      <c r="F255" s="22">
+        <f t="shared" si="14"/>
+        <v>1777.2588880000001</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A256" s="23">
+        <v>5</v>
+      </c>
+      <c r="B256" s="23">
+        <v>1</v>
+      </c>
+      <c r="C256" s="24">
+        <v>11</v>
+      </c>
+      <c r="D256" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E256" s="25">
+        <v>152.444895</v>
+      </c>
+      <c r="F256" s="22">
+        <f t="shared" si="14"/>
+        <v>1410.11527875</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A257" s="23">
+        <v>5</v>
+      </c>
+      <c r="B257" s="23">
+        <v>1</v>
+      </c>
+      <c r="C257" s="24">
+        <v>12</v>
+      </c>
+      <c r="D257" s="23">
+        <v>2022</v>
+      </c>
+      <c r="E257" s="25">
+        <v>112.753694</v>
+      </c>
+      <c r="F257" s="22">
+        <f t="shared" si="14"/>
+        <v>1042.9716695</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A258" s="23">
+        <v>5</v>
+      </c>
+      <c r="B258" s="23">
+        <v>2</v>
+      </c>
+      <c r="C258" s="24">
+        <v>1</v>
+      </c>
+      <c r="D258" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E258" s="29">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="F258" s="22">
+        <f t="shared" si="14"/>
+        <v>326.52499999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A259" s="23">
+        <v>5</v>
+      </c>
+      <c r="B259" s="23">
+        <v>3</v>
+      </c>
+      <c r="C259" s="24">
+        <v>2</v>
+      </c>
+      <c r="D259" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E259" s="29">
+        <v>107.78</v>
+      </c>
+      <c r="F259" s="22">
+        <f t="shared" si="14"/>
+        <v>996.96500000000003</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A260" s="23">
+        <v>5</v>
+      </c>
+      <c r="B260" s="23">
+        <v>3</v>
+      </c>
+      <c r="C260" s="24">
+        <v>3</v>
+      </c>
+      <c r="D260" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E260" s="29">
+        <v>69.2</v>
+      </c>
+      <c r="F260" s="22">
+        <f t="shared" si="14"/>
+        <v>640.1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A261" s="23">
+        <v>5</v>
+      </c>
+      <c r="B261" s="23">
+        <v>3</v>
+      </c>
+      <c r="C261" s="24">
+        <v>4</v>
+      </c>
+      <c r="D261" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E261" s="29">
+        <v>64.5</v>
+      </c>
+      <c r="F261" s="22">
+        <f t="shared" si="14"/>
+        <v>596.625</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A262" s="23">
+        <v>5</v>
+      </c>
+      <c r="B262" s="23">
+        <v>3</v>
+      </c>
+      <c r="C262" s="24">
+        <v>5</v>
+      </c>
+      <c r="D262" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E262" s="29">
+        <v>39.25</v>
+      </c>
+      <c r="F262" s="22">
+        <f t="shared" si="14"/>
+        <v>363.0625</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A263" s="23">
+        <v>5</v>
+      </c>
+      <c r="B263" s="23">
+        <v>4</v>
+      </c>
+      <c r="C263" s="24">
+        <v>6</v>
+      </c>
+      <c r="D263" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E263" s="29">
+        <v>0</v>
+      </c>
+      <c r="F263" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A264" s="23">
+        <v>5</v>
+      </c>
+      <c r="B264" s="23">
+        <v>4</v>
+      </c>
+      <c r="C264" s="24">
+        <v>7</v>
+      </c>
+      <c r="D264" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E264" s="29">
+        <v>0</v>
+      </c>
+      <c r="F264" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A265" s="23">
+        <v>5</v>
+      </c>
+      <c r="B265" s="23">
+        <v>4</v>
+      </c>
+      <c r="C265" s="24">
+        <v>8</v>
+      </c>
+      <c r="D265" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E265" s="29">
+        <v>0</v>
+      </c>
+      <c r="F265" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A266" s="23">
+        <v>5</v>
+      </c>
+      <c r="B266" s="23">
+        <v>1</v>
+      </c>
+      <c r="C266" s="24">
+        <v>9</v>
+      </c>
+      <c r="D266" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E266" s="29">
+        <v>246.31</v>
+      </c>
+      <c r="F266" s="22">
+        <f t="shared" si="14"/>
+        <v>2278.3674999999998</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A267" s="23">
+        <v>5</v>
+      </c>
+      <c r="B267" s="23">
+        <v>1</v>
+      </c>
+      <c r="C267" s="24">
+        <v>10</v>
+      </c>
+      <c r="D267" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E267" s="29">
+        <v>232.27</v>
+      </c>
+      <c r="F267" s="22">
+        <f t="shared" si="14"/>
+        <v>2148.4974999999999</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A268" s="23">
+        <v>5</v>
+      </c>
+      <c r="B268" s="23">
+        <v>1</v>
+      </c>
+      <c r="C268" s="24">
+        <v>11</v>
+      </c>
+      <c r="D268" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E268" s="29">
+        <v>237.31</v>
+      </c>
+      <c r="F268" s="22">
+        <f t="shared" si="14"/>
+        <v>2195.1174999999998</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A269" s="23">
+        <v>5</v>
+      </c>
+      <c r="B269" s="23">
+        <v>1</v>
+      </c>
+      <c r="C269" s="24">
+        <v>12</v>
+      </c>
+      <c r="D269" s="23">
+        <v>2023</v>
+      </c>
+      <c r="E269" s="29">
+        <v>151.88999999999999</v>
+      </c>
+      <c r="F269" s="22">
+        <f t="shared" si="14"/>
+        <v>1404.9824999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A270" s="23">
+        <v>5</v>
+      </c>
+      <c r="B270" s="23">
+        <v>2</v>
+      </c>
+      <c r="C270" s="24">
+        <v>1</v>
+      </c>
+      <c r="D270" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E270" s="29">
+        <v>30.89</v>
+      </c>
+      <c r="F270" s="22">
+        <f t="shared" si="14"/>
+        <v>285.73250000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A271" s="23">
+        <v>5</v>
+      </c>
+      <c r="B271" s="23">
+        <v>3</v>
+      </c>
+      <c r="C271" s="24">
+        <v>2</v>
+      </c>
+      <c r="D271" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E271" s="29">
+        <v>109.63</v>
+      </c>
+      <c r="F271" s="22">
+        <f t="shared" si="14"/>
+        <v>1014.0775</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A272" s="23">
+        <v>5</v>
+      </c>
+      <c r="B272" s="23">
+        <v>3</v>
+      </c>
+      <c r="C272" s="24">
+        <v>3</v>
+      </c>
+      <c r="D272" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E272" s="29">
+        <v>87.05</v>
+      </c>
+      <c r="F272" s="22">
+        <f t="shared" si="14"/>
+        <v>805.21249999999998</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A273" s="23">
+        <v>5</v>
+      </c>
+      <c r="B273" s="23">
+        <v>3</v>
+      </c>
+      <c r="C273" s="24">
+        <v>4</v>
+      </c>
+      <c r="D273" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E273" s="29">
+        <v>119.09</v>
+      </c>
+      <c r="F273" s="22">
+        <f t="shared" si="14"/>
+        <v>1101.5825</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A274" s="23">
+        <v>5</v>
+      </c>
+      <c r="B274" s="23">
+        <v>3</v>
+      </c>
+      <c r="C274" s="24">
+        <v>5</v>
+      </c>
+      <c r="D274" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E274" s="29">
+        <v>58.38</v>
+      </c>
+      <c r="F274" s="22">
+        <f t="shared" si="14"/>
+        <v>540.01499999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A275" s="23">
+        <v>5</v>
+      </c>
+      <c r="B275" s="23">
+        <v>4</v>
+      </c>
+      <c r="C275" s="24">
+        <v>6</v>
+      </c>
+      <c r="D275" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E275" s="29">
+        <v>0</v>
+      </c>
+      <c r="F275" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A276" s="23">
+        <v>5</v>
+      </c>
+      <c r="B276" s="23">
+        <v>4</v>
+      </c>
+      <c r="C276" s="24">
+        <v>7</v>
+      </c>
+      <c r="D276" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E276" s="29">
+        <v>0</v>
+      </c>
+      <c r="F276" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A277" s="23">
+        <v>5</v>
+      </c>
+      <c r="B277" s="23">
+        <v>4</v>
+      </c>
+      <c r="C277" s="24">
+        <v>8</v>
+      </c>
+      <c r="D277" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E277" s="29">
+        <v>0</v>
+      </c>
+      <c r="F277" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A278" s="23">
+        <v>5</v>
+      </c>
+      <c r="B278" s="23">
+        <v>1</v>
+      </c>
+      <c r="C278" s="24">
+        <v>9</v>
+      </c>
+      <c r="D278" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E278" s="25"/>
+      <c r="F278" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A279" s="23">
+        <v>5</v>
+      </c>
+      <c r="B279" s="23">
+        <v>1</v>
+      </c>
+      <c r="C279" s="24">
+        <v>10</v>
+      </c>
+      <c r="D279" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E279" s="25"/>
+      <c r="F279" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A280" s="23">
+        <v>5</v>
+      </c>
+      <c r="B280" s="23">
+        <v>1</v>
+      </c>
+      <c r="C280" s="24">
+        <v>11</v>
+      </c>
+      <c r="D280" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E280" s="25"/>
+      <c r="F280" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A281" s="23">
+        <v>5</v>
+      </c>
+      <c r="B281" s="23">
+        <v>1</v>
+      </c>
+      <c r="C281" s="24">
+        <v>12</v>
+      </c>
+      <c r="D281" s="23">
+        <v>2024</v>
+      </c>
+      <c r="E281" s="25"/>
+      <c r="F281" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A282" s="23">
+        <v>5</v>
+      </c>
+      <c r="B282" s="23">
+        <v>2</v>
+      </c>
+      <c r="C282" s="24">
+        <v>1</v>
+      </c>
+      <c r="D282" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E282" s="25"/>
+      <c r="F282" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A283" s="23">
+        <v>5</v>
+      </c>
+      <c r="B283" s="23">
+        <v>3</v>
+      </c>
+      <c r="C283" s="24">
+        <v>2</v>
+      </c>
+      <c r="D283" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E283" s="25"/>
+      <c r="F283" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A284" s="23">
+        <v>5</v>
+      </c>
+      <c r="B284" s="23">
+        <v>3</v>
+      </c>
+      <c r="C284" s="24">
+        <v>3</v>
+      </c>
+      <c r="D284" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E284" s="25"/>
+      <c r="F284" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A285" s="23">
+        <v>5</v>
+      </c>
+      <c r="B285" s="23">
+        <v>3</v>
+      </c>
+      <c r="C285" s="24">
+        <v>4</v>
+      </c>
+      <c r="D285" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E285" s="25"/>
+      <c r="F285" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="22" x14ac:dyDescent="0.25">
+      <c r="A286" s="23">
+        <v>5</v>
+      </c>
+      <c r="B286" s="23">
+        <v>3</v>
+      </c>
+      <c r="C286" s="24">
+        <v>5</v>
+      </c>
+      <c r="D286" s="23">
+        <v>2025</v>
+      </c>
+      <c r="E286" s="25"/>
+      <c r="F286" s="22">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7D9360-6883-914F-8D66-A3A767BBCBBF}">
   <dimension ref="A1:T241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DinningData.xlsx
+++ b/DinningData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m.mughees/Desktop/DailyHours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F015619-58A3-884A-86A1-DB15764A0919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720CC216-5520-A642-BDDF-199D9BFD7B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{DE998561-EBAC-6C45-B2D5-E0BAD589018C}"/>
+    <workbookView xWindow="-19180" yWindow="-23680" windowWidth="28800" windowHeight="16260" activeTab="1" xr2:uid="{DE998561-EBAC-6C45-B2D5-E0BAD589018C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cleaned Data" sheetId="1" r:id="rId1"/>
@@ -6070,8 +6070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED2650A-6E4F-6D49-92A6-976CF649E6D8}">
   <dimension ref="A1:T286"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="I280" sqref="I280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/DinningData.xlsx
+++ b/DinningData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m.mughees/Desktop/DailyHours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BDDE47-BB4E-3D47-9BC6-263DFF2BE133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AABCCA3-2EE4-3548-8581-93C6846ECD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20000" yWindow="-26860" windowWidth="24080" windowHeight="18880" xr2:uid="{DE998561-EBAC-6C45-B2D5-E0BAD589018C}"/>
   </bookViews>
@@ -615,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9694C3E-4676-5E45-83AA-01CD38B8296E}">
   <dimension ref="A1:T241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>

--- a/DinningData.xlsx
+++ b/DinningData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/m.mughees/Desktop/DailyHours/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AABCCA3-2EE4-3548-8581-93C6846ECD5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464618B8-055F-4244-B528-88EB1CC2EC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20000" yWindow="-26860" windowWidth="24080" windowHeight="18880" xr2:uid="{DE998561-EBAC-6C45-B2D5-E0BAD589018C}"/>
+    <workbookView xWindow="-20000" yWindow="-26860" windowWidth="24080" windowHeight="18880" activeTab="1" xr2:uid="{DE998561-EBAC-6C45-B2D5-E0BAD589018C}"/>
   </bookViews>
   <sheets>
     <sheet name="Cleaned Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Data for 2025 pred" sheetId="3" r:id="rId2"/>
-    <sheet name="Data for Linear" sheetId="2" r:id="rId3"/>
+    <sheet name="Academic Year 24 25 " sheetId="4" r:id="rId2"/>
+    <sheet name="Data for 2025 pred" sheetId="3" r:id="rId3"/>
+    <sheet name="Data for Linear" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="33">
   <si>
     <t>DEP</t>
   </si>
@@ -135,6 +136,9 @@
   <si>
     <t>Academic Year</t>
   </si>
+  <si>
+    <t>24/25</t>
+  </si>
 </sst>
 </file>
 
@@ -143,7 +147,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +204,22 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Roboto Slab"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -224,10 +244,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -279,8 +300,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -615,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9694C3E-4676-5E45-83AA-01CD38B8296E}">
   <dimension ref="A1:T241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194:C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.2"/>
@@ -6025,11 +6060,1000 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E54AECD-9AF1-F944-B262-8AF2679566A9}">
+  <dimension ref="A1:F46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.5" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="12">
+        <v>1461.1375</v>
+      </c>
+      <c r="F2" s="21">
+        <f>E2*9.25</f>
+        <v>13515.521875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1461.1375</v>
+      </c>
+      <c r="F3" s="21">
+        <f t="shared" ref="F3:F10" si="0">E3*9.25</f>
+        <v>13515.521875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="12">
+        <v>956.5625</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" si="0"/>
+        <v>8848.203125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="12">
+        <v>993.36749999999995</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="0"/>
+        <v>9188.6493749999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="12">
+        <v>896.55250000000001</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="0"/>
+        <v>8293.1106249999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="12">
+        <v>797.36249999999995</v>
+      </c>
+      <c r="F7" s="21">
+        <f t="shared" si="0"/>
+        <v>7375.6031249999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="12">
+        <v>839.66499999999996</v>
+      </c>
+      <c r="F8" s="21">
+        <f t="shared" si="0"/>
+        <v>7766.9012499999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="12">
+        <v>756.66</v>
+      </c>
+      <c r="F9" s="21">
+        <f t="shared" si="0"/>
+        <v>6999.1049999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="12">
+        <v>665.70749999999998</v>
+      </c>
+      <c r="F10" s="21">
+        <f t="shared" si="0"/>
+        <v>6157.7943749999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1170.6524999999999</v>
+      </c>
+      <c r="F11" s="22">
+        <f>E11*9.25</f>
+        <v>10828.535624999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="13">
+        <v>1082.915</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" ref="F12:F19" si="1">E12*9.25</f>
+        <v>10016.963749999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="13">
+        <v>590.89250000000004</v>
+      </c>
+      <c r="F13" s="22">
+        <f t="shared" si="1"/>
+        <v>5465.7556250000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="13">
+        <v>459.15499999999997</v>
+      </c>
+      <c r="F14" s="22">
+        <f t="shared" si="1"/>
+        <v>4247.1837500000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="13">
+        <v>701.2</v>
+      </c>
+      <c r="F15" s="22">
+        <f t="shared" si="1"/>
+        <v>6486.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="13">
+        <v>747.45</v>
+      </c>
+      <c r="F16" s="22">
+        <f t="shared" si="1"/>
+        <v>6913.9125000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="13">
+        <v>613.34749999999997</v>
+      </c>
+      <c r="F17" s="22">
+        <f t="shared" si="1"/>
+        <v>5673.4643749999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="13">
+        <v>536.59</v>
+      </c>
+      <c r="F18" s="22">
+        <f t="shared" si="1"/>
+        <v>4963.4575000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="13">
+        <v>451.10750000000002</v>
+      </c>
+      <c r="F19" s="22">
+        <f t="shared" si="1"/>
+        <v>4172.7443750000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="12">
+        <v>634.73749999999995</v>
+      </c>
+      <c r="F20" s="21">
+        <f>E20*9.25</f>
+        <v>5871.3218749999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="12">
+        <v>589.625</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" ref="F21:F28" si="2">E21*9.25</f>
+        <v>5454.03125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="12">
+        <v>382.70249999999999</v>
+      </c>
+      <c r="F22" s="21">
+        <f t="shared" si="2"/>
+        <v>3539.9981250000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="12">
+        <v>310.88499999999999</v>
+      </c>
+      <c r="F23" s="21">
+        <f t="shared" si="2"/>
+        <v>2875.6862499999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="12">
+        <v>413.35</v>
+      </c>
+      <c r="F24" s="21">
+        <f t="shared" si="2"/>
+        <v>3823.4875000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="12">
+        <v>463.94</v>
+      </c>
+      <c r="F25" s="21">
+        <f t="shared" si="2"/>
+        <v>4291.4449999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="12">
+        <v>375.08249999999998</v>
+      </c>
+      <c r="F26" s="21">
+        <f t="shared" si="2"/>
+        <v>3469.5131249999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="12">
+        <v>450.8175</v>
+      </c>
+      <c r="F27" s="21">
+        <f t="shared" si="2"/>
+        <v>4170.0618750000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="12">
+        <v>263.91500000000002</v>
+      </c>
+      <c r="F28" s="21">
+        <f t="shared" si="2"/>
+        <v>2441.2137500000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="13">
+        <v>431.9325</v>
+      </c>
+      <c r="F29" s="22">
+        <f>E29*9.25</f>
+        <v>3995.3756250000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="13">
+        <v>326.72750000000002</v>
+      </c>
+      <c r="F30" s="22">
+        <f t="shared" ref="F30:F37" si="3">E30*9.25</f>
+        <v>3022.2293750000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="13">
+        <v>339.54500000000002</v>
+      </c>
+      <c r="F31" s="22">
+        <f t="shared" si="3"/>
+        <v>3140.7912500000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="13">
+        <v>251.55500000000001</v>
+      </c>
+      <c r="F32" s="22">
+        <f t="shared" si="3"/>
+        <v>2326.88375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="13">
+        <v>250.1525</v>
+      </c>
+      <c r="F33" s="22">
+        <f t="shared" si="3"/>
+        <v>2313.910625</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="13">
+        <v>289.49250000000001</v>
+      </c>
+      <c r="F34" s="22">
+        <f t="shared" si="3"/>
+        <v>2677.805625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="13">
+        <v>188.76249999999999</v>
+      </c>
+      <c r="F35" s="22">
+        <f t="shared" si="3"/>
+        <v>1746.0531249999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="13">
+        <v>216.03749999999999</v>
+      </c>
+      <c r="F36" s="22">
+        <f t="shared" si="3"/>
+        <v>1998.346875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="13">
+        <v>139.97749999999999</v>
+      </c>
+      <c r="F37" s="22">
+        <f t="shared" si="3"/>
+        <v>1294.7918749999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="12">
+        <v>255.55333300000001</v>
+      </c>
+      <c r="F38" s="21">
+        <f>E38*9.25</f>
+        <v>2363.8683302499999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="12">
+        <v>256.97791699999999</v>
+      </c>
+      <c r="F39" s="21">
+        <f t="shared" ref="F39:F46" si="4">E39*9.25</f>
+        <v>2377.0457322500001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="12">
+        <v>173.52500000000001</v>
+      </c>
+      <c r="F40" s="21">
+        <f t="shared" si="4"/>
+        <v>1605.10625</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="12">
+        <v>180.67375000000001</v>
+      </c>
+      <c r="F41" s="21">
+        <f t="shared" si="4"/>
+        <v>1671.2321875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="12">
+        <v>135.2225</v>
+      </c>
+      <c r="F42" s="21">
+        <f t="shared" si="4"/>
+        <v>1250.808125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="12">
+        <v>114.84</v>
+      </c>
+      <c r="F43" s="21">
+        <f t="shared" si="4"/>
+        <v>1062.27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="12">
+        <v>125.68</v>
+      </c>
+      <c r="F44" s="21">
+        <f t="shared" si="4"/>
+        <v>1162.54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="12">
+        <v>122.97499999999999</v>
+      </c>
+      <c r="F45" s="21">
+        <f t="shared" si="4"/>
+        <v>1137.51875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="12">
+        <v>88.197500000000005</v>
+      </c>
+      <c r="F46" s="21">
+        <f t="shared" si="4"/>
+        <v>815.82687500000009</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED2650A-6E4F-6D49-92A6-976CF649E6D8}">
   <dimension ref="A1:T286"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I222" sqref="I222"/>
+    <sheetView topLeftCell="A267" workbookViewId="0">
+      <selection activeCell="E278" sqref="E278:E286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.2"/>
@@ -12381,7 +13405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F7D9360-6883-914F-8D66-A3A767BBCBBF}">
   <dimension ref="A1:T241"/>
   <sheetViews>
